--- a/testOpenCV/tg_r2.xlsx
+++ b/testOpenCV/tg_r2.xlsx
@@ -9,19 +9,45 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1." sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Statiske 1-5mm" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr autoRecover="0" repairLoad="1"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId5"/>
+  </pivotCaches>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>StdDev of 5</t>
+  </si>
+  <si>
+    <t>StdDev of 4</t>
+  </si>
+  <si>
+    <t>StdDev of 3</t>
+  </si>
+  <si>
+    <t>StdDev of 2</t>
+  </si>
+  <si>
+    <t>StdDev of 1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,9 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,13 +138,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>Linear</a:t>
+              <a:t>*Foreløbig</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="da-DK" baseline="0"/>
-              <a:t> regression (tg)</a:t>
-            </a:r>
-            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -240,7 +263,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$3</c:f>
+              <c:f>'1.'!$D$1:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -258,7 +281,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$3</c:f>
+              <c:f>'1.'!$E$1:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -461,7 +484,626 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[tg_r2.xlsx]Sheet3!PivotTable5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StdDev of 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.23900829627183379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99AF-4ABD-977A-E01DAF9EB3CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StdDev of 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.36340127664069305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-99AF-4ABD-977A-E01DAF9EB3CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StdDev of 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.6911935205442058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-99AF-4ABD-977A-E01DAF9EB3CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StdDev of 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.47491268068513637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-99AF-4ABD-977A-E01DAF9EB3CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>StdDev of 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.59320423040618409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-99AF-4ABD-977A-E01DAF9EB3CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="511639896"/>
+        <c:axId val="511641536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="511639896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511641536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="511641536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511639896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -998,6 +1640,509 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1056,6 +2201,248 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B522E47-A634-493E-B9F5-6395739C7403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Rudy Alex Kohn" refreshedDate="42920.646131018519" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E11" sheet="Statiske 1-5mm"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="1" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.1957799999999992" maxValue="9.9805969999999995"/>
+    </cacheField>
+    <cacheField name="2" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.809569" maxValue="17.085523999999999"/>
+    </cacheField>
+    <cacheField name="3" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="22.635497000000001" maxValue="24.485149"/>
+    </cacheField>
+    <cacheField name="4" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="30.122298000000001" maxValue="31.392472999999999"/>
+    </cacheField>
+    <cacheField name="5" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="37.921579000000001" maxValue="39.489227"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+  <r>
+    <n v="9.2969059999999999"/>
+    <n v="16.441233"/>
+    <n v="23.515231"/>
+    <n v="31.392472999999999"/>
+    <n v="38.605896999999999"/>
+  </r>
+  <r>
+    <n v="9.2290399999999995"/>
+    <n v="16.150548000000001"/>
+    <n v="24.456081999999999"/>
+    <n v="31.068819999999999"/>
+    <n v="39.166429000000001"/>
+  </r>
+  <r>
+    <n v="9.9805969999999995"/>
+    <n v="16.422732"/>
+    <n v="24.485149"/>
+    <n v="30.122298000000001"/>
+    <n v="38.496259000000002"/>
+  </r>
+  <r>
+    <n v="9.2185299999999994"/>
+    <n v="16.376899000000002"/>
+    <n v="22.827715999999999"/>
+    <n v="30.620356999999998"/>
+    <n v="38.007728999999998"/>
+  </r>
+  <r>
+    <n v="9.2144890000000004"/>
+    <n v="16.221957"/>
+    <n v="24.403165000000001"/>
+    <n v="30.362038999999999"/>
+    <n v="39.331057000000001"/>
+  </r>
+  <r>
+    <n v="9.1957799999999992"/>
+    <n v="15.809569"/>
+    <n v="24.336946000000001"/>
+    <n v="30.433250000000001"/>
+    <n v="39.166576999999997"/>
+  </r>
+  <r>
+    <n v="9.1970849999999995"/>
+    <n v="16.726089999999999"/>
+    <n v="23.396470999999998"/>
+    <n v="30.123169000000001"/>
+    <n v="39.489227"/>
+  </r>
+  <r>
+    <n v="9.3070740000000001"/>
+    <n v="16.141902000000002"/>
+    <n v="23.530507"/>
+    <n v="31.236001999999999"/>
+    <n v="37.921579000000001"/>
+  </r>
+  <r>
+    <n v="9.2109810000000003"/>
+    <n v="16.718219000000001"/>
+    <n v="22.635497000000001"/>
+    <n v="31.081012999999999"/>
+    <n v="39.371673999999999"/>
+  </r>
+  <r>
+    <n v="9.2421369999999996"/>
+    <n v="17.085523999999999"/>
+    <n v="23.295247"/>
+    <n v="31.089407999999999"/>
+    <n v="39.416347000000002"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:E2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="StdDev of 1" fld="0" subtotal="stdDev" baseField="0" baseItem="1"/>
+    <dataField name="StdDev of 2" fld="1" subtotal="stdDev" baseField="0" baseItem="1"/>
+    <dataField name="StdDev of 3" fld="2" subtotal="stdDev" baseField="0" baseItem="1"/>
+    <dataField name="StdDev of 4" fld="3" subtotal="stdDev" baseField="0" baseItem="1"/>
+    <dataField name="StdDev of 5" fld="4" subtotal="stdDev" baseField="0" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1357,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,12 +2762,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>8.5547140000000006</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="D2">
         <v>1</v>
       </c>
@@ -1389,12 +2771,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>15.863046000000001</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="D3">
         <v>2</v>
       </c>
@@ -1404,6 +2781,279 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0.23900829627183379</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.36340127664069305</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.6911935205442058</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.47491268068513637</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.59320423040618409</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>9.2969059999999999</v>
+      </c>
+      <c r="B2" s="2">
+        <v>16.441233</v>
+      </c>
+      <c r="C2" s="2">
+        <v>23.515231</v>
+      </c>
+      <c r="D2" s="2">
+        <v>31.392472999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>38.605896999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>9.2290399999999995</v>
+      </c>
+      <c r="B3" s="2">
+        <v>16.150548000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>24.456081999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>31.068819999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>39.166429000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>9.9805969999999995</v>
+      </c>
+      <c r="B4" s="2">
+        <v>16.422732</v>
+      </c>
+      <c r="C4" s="2">
+        <v>24.485149</v>
+      </c>
+      <c r="D4" s="2">
+        <v>30.122298000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>38.496259000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>9.2185299999999994</v>
+      </c>
+      <c r="B5" s="2">
+        <v>16.376899000000002</v>
+      </c>
+      <c r="C5" s="2">
+        <v>22.827715999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30.620356999999998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>38.007728999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>9.2144890000000004</v>
+      </c>
+      <c r="B6" s="2">
+        <v>16.221957</v>
+      </c>
+      <c r="C6" s="2">
+        <v>24.403165000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30.362038999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>39.331057000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>9.1957799999999992</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15.809569</v>
+      </c>
+      <c r="C7" s="2">
+        <v>24.336946000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30.433250000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>39.166576999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>9.1970849999999995</v>
+      </c>
+      <c r="B8" s="2">
+        <v>16.726089999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>23.396470999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>30.123169000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>39.489227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9.3070740000000001</v>
+      </c>
+      <c r="B9" s="2">
+        <v>16.141902000000002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>23.530507</v>
+      </c>
+      <c r="D9" s="2">
+        <v>31.236001999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>37.921579000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9.2109810000000003</v>
+      </c>
+      <c r="B10" s="2">
+        <v>16.718219000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22.635497000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>31.081012999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>39.371673999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9.2421369999999996</v>
+      </c>
+      <c r="B11" s="2">
+        <v>17.085523999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>23.295247</v>
+      </c>
+      <c r="D11" s="2">
+        <v>31.089407999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>39.416347000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testOpenCV/tg_r2.xlsx
+++ b/testOpenCV/tg_r2.xlsx
@@ -9,17 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1." sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Statiske 1-5mm" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Statiske 1-5mm" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v3.0" hidden="1">Sheet4!$A$1:$AX$1</definedName>
+    <definedName name="_xlchart.v3.1" hidden="1">Sheet4!$A$1:$AX$1</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>StdDev of 5</t>
   </si>
@@ -46,6 +51,60 @@
   </si>
   <si>
     <t>StdDev of 1</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>Average of 1</t>
+  </si>
+  <si>
+    <t>Average of 2</t>
+  </si>
+  <si>
+    <t>Average of 3</t>
+  </si>
+  <si>
+    <t>Average of 4</t>
+  </si>
+  <si>
+    <t>Average of 5</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Højde i mm</t>
   </si>
 </sst>
 </file>
@@ -1063,6 +1122,2821 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Statiske målinger</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.32885017497812774"/>
+                  <c:y val="-3.2824074074074075E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet4!$B$4:$K$4,Sheet4!$B$5:$K$5,Sheet4!$B$6:$K$6,Sheet4!$B$7:$K$7,Sheet4!$B$8:$K$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>9.2969059999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2290399999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9805969999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2185299999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2144890000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1957799999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1970849999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3070740000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2109810000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2421369999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.441233</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.150548000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.422732</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.376899000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.221957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.809569</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.726089999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.141902000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.718219000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.085523999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.515231</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.456081999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.485149</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.827715999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.403165000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.336946000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.396470999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.530507</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.635497000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.295247</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.392472999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.068819999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.122298000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.620356999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.362038999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30.433250000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30.123169000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.236001999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.081012999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.089407999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38.605896999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>39.166429000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38.496259000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38.007728999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39.331057000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.166576999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.489227</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37.921579000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39.371673999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39.416347000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-55EA-4FA1-9BC0-6A91C9C68944}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="483420472"/>
+        <c:axId val="483424736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="483420472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Antal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> målinger</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483424736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="483424736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Højde</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> i px</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483420472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[tg_r2.xlsx]Sheet5!PivotTable27</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.3092618999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6094-4978-AF4F-44B109F5D88E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16.409467299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6094-4978-AF4F-44B109F5D88E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23.688201099999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6094-4978-AF4F-44B109F5D88E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.752882899999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6094-4978-AF4F-44B109F5D88E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>38.897277499999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6094-4978-AF4F-44B109F5D88E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="512461592"/>
+        <c:axId val="512460936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="512461592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512460936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512460936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512461592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.2969059999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.441233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.515231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.392472999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.605896999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5F4-4FDB-8E5E-3D2883597AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.2290399999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.150548000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.456081999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.068819999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.166429000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5F4-4FDB-8E5E-3D2883597AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$L$2:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.9805969999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.422732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.485149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.122298000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.496259000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A5F4-4FDB-8E5E-3D2883597AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.2185299999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.376899000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.827715999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.620356999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.007728999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A5F4-4FDB-8E5E-3D2883597AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$N$2:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.2144890000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.221957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.403165000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.362038999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.331057000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A5F4-4FDB-8E5E-3D2883597AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$O$2:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.1957799999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.809569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.336946000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.433250000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.166576999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-A5F4-4FDB-8E5E-3D2883597AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$P$2:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.1970849999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.726089999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.396470999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.123169000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.489227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-A5F4-4FDB-8E5E-3D2883597AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$Q$2:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.3070740000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.141902000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.530507</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.236001999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.921579000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-A5F4-4FDB-8E5E-3D2883597AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$R$2:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.2109810000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.718219000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.635497000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.081012999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.371673999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-A5F4-4FDB-8E5E-3D2883597AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Statiske 1-5mm'!$S$2:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.2421369999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.085523999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.295247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.089407999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.416347000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-A5F4-4FDB-8E5E-3D2883597AD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="347377960"/>
+        <c:axId val="347378616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="347377960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347378616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="347378616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347377960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1143,6 +4017,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2143,6 +5137,1541 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2244,10 +6773,135 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B085302B-0C73-4260-BE01-879F02F635FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111BFDD4-E68A-451E-8EE9-86969DA281E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D187407A-EF3D-4613-AE9C-ADDEED4166AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Rudy Alex Kohn" refreshedDate="42920.646131018519" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E11" sheet="Statiske 1-5mm"/>
+    <worksheetSource ref="B1:I11" sheet="Statiske 1-5mm"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="1" numFmtId="2">
@@ -2350,7 +7004,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:E2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField dataField="1" numFmtId="2" showAll="0"/>
@@ -2427,6 +7081,102 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable27" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:E2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Average of 1" fld="0" subtotal="average" baseField="1" baseItem="6799796"/>
+    <dataField name="Average of 2" fld="1" subtotal="average" baseField="1" baseItem="6799796"/>
+    <dataField name="Average of 3" fld="2" subtotal="average" baseField="1" baseItem="6799796"/>
+    <dataField name="Average of 4" fld="3" subtotal="average" baseField="1" baseItem="6799796"/>
+    <dataField name="Average of 5" fld="4" subtotal="average" baseField="1" baseItem="6799796"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2842,22 +7592,410 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AX13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9.2969059999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.2290399999999995</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9.9805969999999995</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.2185299999999994</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9.2144890000000004</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.1957799999999992</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9.1970849999999995</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9.3070740000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>9.2109810000000003</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9.2421369999999996</v>
+      </c>
+      <c r="M4" s="2">
+        <f>SUM(B4:L4)</f>
+        <v>93.092618999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <f>AVERAGE(B4:K4)</f>
+        <v>9.3092618999999992</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>16.441233</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16.150548000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16.422732</v>
+      </c>
+      <c r="E5" s="2">
+        <v>16.376899000000002</v>
+      </c>
+      <c r="F5" s="2">
+        <v>16.221957</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15.809569</v>
+      </c>
+      <c r="H5" s="2">
+        <v>16.726089999999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>16.141902000000002</v>
+      </c>
+      <c r="J5" s="2">
+        <v>16.718219000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>17.085523999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M8" si="0">SUM(B5:L5)</f>
+        <v>164.094673</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" ref="N5:N8" si="1">AVERAGE(B5:K5)</f>
+        <v>16.409467299999999</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>23.515231</v>
+      </c>
+      <c r="C6" s="2">
+        <v>24.456081999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>24.485149</v>
+      </c>
+      <c r="E6" s="2">
+        <v>22.827715999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>24.403165000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>24.336946000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>23.396470999999998</v>
+      </c>
+      <c r="I6" s="2">
+        <v>23.530507</v>
+      </c>
+      <c r="J6" s="2">
+        <v>22.635497000000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>23.295247</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>236.88201099999995</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="1"/>
+        <v>23.688201099999993</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>31.392472999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>31.068819999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30.122298000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>30.620356999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30.362038999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30.433250000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>30.123169000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>31.236001999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>31.081012999999999</v>
+      </c>
+      <c r="K7" s="2">
+        <v>31.089407999999999</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>307.52882899999997</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="1"/>
+        <v>30.752882899999996</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>38.605896999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>39.166429000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>38.496259000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>38.007728999999998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>39.331057000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>39.166576999999997</v>
+      </c>
+      <c r="H8" s="2">
+        <v>39.489227</v>
+      </c>
+      <c r="I8" s="2">
+        <v>37.921579000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>39.371673999999999</v>
+      </c>
+      <c r="K8" s="2">
+        <v>39.416347000000002</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>388.97277499999996</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="1"/>
+        <v>38.897277499999994</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>9.3092618999999992</v>
+      </c>
+      <c r="B2" s="3">
+        <v>16.409467299999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>23.688201099999993</v>
+      </c>
+      <c r="D2" s="3">
+        <v>30.752882899999996</v>
+      </c>
+      <c r="E2" s="3">
+        <v>38.897277499999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,194 +8004,470 @@
     <col min="2" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="B1" s="3">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <v>5</v>
       </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
         <v>9.2969059999999999</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>16.441233</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>23.515231</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>31.392472999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>38.605896999999999</v>
       </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9.2969059999999999</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9.2290399999999995</v>
+      </c>
+      <c r="L2" s="2">
+        <v>9.9805969999999995</v>
+      </c>
+      <c r="M2" s="2">
+        <v>9.2185299999999994</v>
+      </c>
+      <c r="N2" s="2">
+        <v>9.2144890000000004</v>
+      </c>
+      <c r="O2" s="2">
+        <v>9.1957799999999992</v>
+      </c>
+      <c r="P2" s="2">
+        <v>9.1970849999999995</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>9.3070740000000001</v>
+      </c>
+      <c r="R2" s="2">
+        <v>9.2109810000000003</v>
+      </c>
+      <c r="S2" s="2">
+        <v>9.2421369999999996</v>
+      </c>
+      <c r="T2" s="2">
+        <f>SUM(J2:S2)</f>
+        <v>93.092618999999999</v>
+      </c>
+      <c r="U2" s="2">
+        <f>AVERAGE(J2:S2)</f>
+        <v>9.3092618999999992</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
         <v>9.2290399999999995</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>16.150548000000001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>24.456081999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>31.068819999999999</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>39.166429000000001</v>
       </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>16.441233</v>
+      </c>
+      <c r="K3" s="2">
+        <v>16.150548000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <v>16.422732</v>
+      </c>
+      <c r="M3" s="2">
+        <v>16.376899000000002</v>
+      </c>
+      <c r="N3" s="2">
+        <v>16.221957</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15.809569</v>
+      </c>
+      <c r="P3" s="2">
+        <v>16.726089999999999</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>16.141902000000002</v>
+      </c>
+      <c r="R3" s="2">
+        <v>16.718219000000001</v>
+      </c>
+      <c r="S3" s="2">
+        <v>17.085523999999999</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" ref="T3:T6" si="0">SUM(J3:S3)</f>
+        <v>164.094673</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U6" si="1">AVERAGE(J3:S3)</f>
+        <v>16.409467299999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
         <v>9.9805969999999995</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>16.422732</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>24.485149</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>30.122298000000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>38.496259000000002</v>
       </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>23.515231</v>
+      </c>
+      <c r="K4" s="2">
+        <v>24.456081999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>24.485149</v>
+      </c>
+      <c r="M4" s="2">
+        <v>22.827715999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>24.403165000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>24.336946000000001</v>
+      </c>
+      <c r="P4" s="2">
+        <v>23.396470999999998</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>23.530507</v>
+      </c>
+      <c r="R4" s="2">
+        <v>22.635497000000001</v>
+      </c>
+      <c r="S4" s="2">
+        <v>23.295247</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="0"/>
+        <v>236.88201099999995</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="1"/>
+        <v>23.688201099999993</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
         <v>9.2185299999999994</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>16.376899000000002</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>22.827715999999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>30.620356999999998</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>38.007728999999998</v>
       </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>31.392472999999999</v>
+      </c>
+      <c r="K5" s="2">
+        <v>31.068819999999999</v>
+      </c>
+      <c r="L5" s="2">
+        <v>30.122298000000001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>30.620356999999998</v>
+      </c>
+      <c r="N5" s="2">
+        <v>30.362038999999999</v>
+      </c>
+      <c r="O5" s="2">
+        <v>30.433250000000001</v>
+      </c>
+      <c r="P5" s="2">
+        <v>30.123169000000001</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>31.236001999999999</v>
+      </c>
+      <c r="R5" s="2">
+        <v>31.081012999999999</v>
+      </c>
+      <c r="S5" s="2">
+        <v>31.089407999999999</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="0"/>
+        <v>307.52882899999997</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="1"/>
+        <v>30.752882899999996</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
         <v>9.2144890000000004</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>16.221957</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>24.403165000000001</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>30.362038999999999</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>39.331057000000001</v>
       </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>38.605896999999999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>39.166429000000001</v>
+      </c>
+      <c r="L6" s="2">
+        <v>38.496259000000002</v>
+      </c>
+      <c r="M6" s="2">
+        <v>38.007728999999998</v>
+      </c>
+      <c r="N6" s="2">
+        <v>39.331057000000001</v>
+      </c>
+      <c r="O6" s="2">
+        <v>39.166576999999997</v>
+      </c>
+      <c r="P6" s="2">
+        <v>39.489227</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>37.921579000000001</v>
+      </c>
+      <c r="R6" s="2">
+        <v>39.371673999999999</v>
+      </c>
+      <c r="S6" s="2">
+        <v>39.416347000000002</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="0"/>
+        <v>388.97277499999996</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="1"/>
+        <v>38.897277499999994</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
         <v>9.1957799999999992</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>15.809569</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>24.336946000000001</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>30.433250000000001</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>39.166576999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
         <v>9.1970849999999995</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>16.726089999999999</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>23.396470999999998</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>30.123169000000001</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>39.489227</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
         <v>9.3070740000000001</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>16.141902000000002</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>23.530507</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>31.236001999999999</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>37.921579000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
         <v>9.2109810000000003</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>16.718219000000001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>22.635497000000001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>31.081012999999999</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>39.371673999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
         <v>9.2421369999999996</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>17.085523999999999</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>23.295247</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>31.089407999999999</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>39.416347000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="U2" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/testOpenCV/tg_r2.xlsx
+++ b/testOpenCV/tg_r2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1." sheetId="1" r:id="rId1"/>
@@ -18,13 +18,9 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Statiske 1-5mm" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v3.0" hidden="1">Sheet4!$A$1:$AX$1</definedName>
-    <definedName name="_xlchart.v3.1" hidden="1">Sheet4!$A$1:$AX$1</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>StdDev of 5</t>
   </si>
@@ -106,6 +102,9 @@
   <si>
     <t>Højde i mm</t>
   </si>
+  <si>
+    <t>4</t>
+  </si>
 </sst>
 </file>
 
@@ -140,11 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1852,6 +1852,9 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
@@ -1898,13 +1901,16 @@
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
@@ -1951,13 +1957,16 @@
         <c:idx val="7"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
@@ -2004,13 +2013,16 @@
         <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
@@ -2057,13 +2069,16 @@
         <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:spPr>
@@ -2860,1083 +2875,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$J$2:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.2969059999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.441233</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.515231</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.392472999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.605896999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5F4-4FDB-8E5E-3D2883597AD0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$K$2:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.2290399999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.150548000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.456081999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.068819999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.166429000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A5F4-4FDB-8E5E-3D2883597AD0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$L$2:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.9805969999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.422732</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.485149</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.122298000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.496259000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A5F4-4FDB-8E5E-3D2883597AD0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$M$2:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.2185299999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.376899000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.827715999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.620356999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.007728999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A5F4-4FDB-8E5E-3D2883597AD0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$N$2:$N$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.2144890000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.221957</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.403165000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.362038999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.331057000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-A5F4-4FDB-8E5E-3D2883597AD0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$O$2:$O$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.1957799999999992</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.809569</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.336946000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.433250000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.166576999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-A5F4-4FDB-8E5E-3D2883597AD0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$P$2:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.1970849999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.726089999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.396470999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.123169000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.489227</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-A5F4-4FDB-8E5E-3D2883597AD0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$Q$2:$Q$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.3070740000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.141902000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.530507</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.236001999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.921579000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-A5F4-4FDB-8E5E-3D2883597AD0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$R$2:$R$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.2109810000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.718219000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.635497000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.081012999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.371673999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-A5F4-4FDB-8E5E-3D2883597AD0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$I$2:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Statiske 1-5mm'!$S$2:$S$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.2421369999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.085523999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.295247</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.089407999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.416347000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-A5F4-4FDB-8E5E-3D2883597AD0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="347377960"/>
-        <c:axId val="347378616"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="347377960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="347378616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="347378616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="347377960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4097,46 +3035,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6156,522 +5054,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6857,47 +5239,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D187407A-EF3D-4613-AE9C-ADDEED4166AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Rudy Alex Kohn" refreshedDate="42920.646131018519" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
@@ -7004,7 +5345,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:E2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField dataField="1" numFmtId="2" showAll="0"/>
@@ -7100,7 +5441,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable27" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable27" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:E2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField dataField="1" numFmtId="2" showAll="0"/>
@@ -7592,10 +5933,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX13"/>
+  <dimension ref="A1:AX38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7931,9 +6272,87 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7992,68 +6411,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="3">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8076,7 +6498,7 @@
       <c r="F2" s="2">
         <v>38.605896999999999</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>1</v>
       </c>
       <c r="J2" s="2">
@@ -8137,7 +6559,7 @@
       <c r="F3" s="2">
         <v>39.166429000000001</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>2</v>
       </c>
       <c r="J3" s="2">
@@ -8198,7 +6620,7 @@
       <c r="F4" s="2">
         <v>38.496259000000002</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>3</v>
       </c>
       <c r="J4" s="2">
@@ -8259,7 +6681,7 @@
       <c r="F5" s="2">
         <v>38.007728999999998</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>4</v>
       </c>
       <c r="J5" s="2">
@@ -8320,7 +6742,7 @@
       <c r="F6" s="2">
         <v>39.331057000000001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>5</v>
       </c>
       <c r="J6" s="2">
@@ -8421,6 +6843,9 @@
       <c r="F9" s="2">
         <v>37.921579000000001</v>
       </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -8441,6 +6866,9 @@
       <c r="F10" s="2">
         <v>39.371673999999999</v>
       </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -8460,6 +6888,79 @@
       </c>
       <c r="F11" s="2">
         <v>39.416347000000002</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2">
+        <v>30.393844000000001</v>
+      </c>
+      <c r="K12" s="2">
+        <v>30.422073000000001</v>
+      </c>
+      <c r="L12" s="2">
+        <v>30.428045999999998</v>
+      </c>
+      <c r="M12" s="2">
+        <v>30.432881999999999</v>
+      </c>
+      <c r="N12" s="2">
+        <v>30.413827000000001</v>
+      </c>
+      <c r="O12" s="2">
+        <v>30.441383999999999</v>
+      </c>
+      <c r="P12" s="2">
+        <v>30.337213999999999</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>30.467379000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>38.074362000000001</v>
+      </c>
+      <c r="K13" s="2">
+        <v>38.14188</v>
+      </c>
+      <c r="L13" s="2">
+        <v>38.409120999999999</v>
+      </c>
+      <c r="M13" s="2">
+        <v>38.835326000000002</v>
+      </c>
+      <c r="N13" s="2">
+        <v>38.631559000000003</v>
+      </c>
+      <c r="O13" s="2">
+        <v>38.436661999999998</v>
+      </c>
+      <c r="P13" s="2">
+        <v>37.451531000000003</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>38.303471999999999</v>
+      </c>
+      <c r="R13" s="2">
+        <v>38.363472999999999</v>
+      </c>
+      <c r="S13" s="2">
+        <v>37.220221000000002</v>
+      </c>
+      <c r="T13" s="2">
+        <v>38.360917000000001</v>
+      </c>
+      <c r="U13" s="2">
+        <v>37.387093999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8468,6 +6969,5 @@
   <ignoredErrors>
     <ignoredError sqref="U2" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/testOpenCV/tg_r2.xlsx
+++ b/testOpenCV/tg_r2.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUAK\Documents\Visual Studio 2017\Projects\ThicknessGauge\testOpenCV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="1." sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Statiske 1-5mm" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Statiske 1-5mm" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -32,22 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
-  <si>
-    <t>StdDev of 5</t>
-  </si>
-  <si>
-    <t>StdDev of 4</t>
-  </si>
-  <si>
-    <t>StdDev of 3</t>
-  </si>
-  <si>
-    <t>StdDev of 2</t>
-  </si>
-  <si>
-    <t>StdDev of 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>#1</t>
   </si>
@@ -105,6 +89,15 @@
   <si>
     <t>4</t>
   </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>stddev</t>
+  </si>
 </sst>
 </file>
 
@@ -139,9 +132,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -182,7 +174,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="ctr">
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -197,8 +189,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>*Foreløbig</a:t>
+              <a:t>Gennemsnit</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> af 50 målinger i hver højde</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -206,7 +203,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32511111111111113"/>
+          <c:x val="0.20011111111111113"/>
           <c:y val="2.7777777777777776E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -222,7 +219,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr algn="ctr">
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -322,10 +319,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1.'!$D$1:$D$3</c:f>
+              <c:f>'1.'!$P$2:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -334,24 +331,48 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1.'!$E$1:$E$3</c:f>
+              <c:f>'1.'!$Q$2:$Q$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.9569165999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5547140000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.863046000000001</c:v>
+                  <c:v>8.182063160000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>15.730937959999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.741547880000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.447300559999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.688636120000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.509791020000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,7 +478,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -544,585 +565,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[tg_r2.xlsx]Sheet3!PivotTable5</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>StdDev of 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$A$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.23900829627183379</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99AF-4ABD-977A-E01DAF9EB3CF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>StdDev of 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.36340127664069305</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-99AF-4ABD-977A-E01DAF9EB3CF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>StdDev of 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.6911935205442058</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-99AF-4ABD-977A-E01DAF9EB3CF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>StdDev of 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.47491268068513637</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-99AF-4ABD-977A-E01DAF9EB3CF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>StdDev of 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.59320423040618409</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-99AF-4ABD-977A-E01DAF9EB3CF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="511639896"/>
-        <c:axId val="511641536"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="511639896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="511641536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="511641536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="511639896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1746,7 +1188,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2995,46 +2437,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3552,7 +2954,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3579,8 +2981,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3681,7 +3083,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3713,10 +3115,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3756,22 +3158,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3876,8 +3279,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4009,19 +3412,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4035,6 +3439,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4055,7 +3470,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4082,8 +3497,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4184,522 +3599,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5077,15 +3976,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5115,47 +4014,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B522E47-A634-493E-B9F5-6395739C7403}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5198,7 +4056,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5345,102 +4203,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:E2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="StdDev of 1" fld="0" subtotal="stdDev" baseField="0" baseItem="1"/>
-    <dataField name="StdDev of 2" fld="1" subtotal="stdDev" baseField="0" baseItem="1"/>
-    <dataField name="StdDev of 3" fld="2" subtotal="stdDev" baseField="0" baseItem="1"/>
-    <dataField name="StdDev of 4" fld="3" subtotal="stdDev" baseField="0" baseItem="1"/>
-    <dataField name="StdDev of 5" fld="4" subtotal="stdDev" baseField="0" baseItem="1"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable27" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:E2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
@@ -5531,6 +4293,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -5833,41 +4598,1288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="E1">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3.2434099999999999</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.2351050000000008</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15.666667</v>
+      </c>
+      <c r="D2" s="1">
+        <v>22.817903000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30.248059000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>37.742119000000002</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45.487141000000001</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="D2">
+      <c r="Q2" s="1">
+        <f>AVERAGE(A2:A101)</f>
+        <v>2.9569165999999996</v>
+      </c>
+      <c r="R2">
+        <f>_xlfn.STDEV.P(A2:A51)</f>
+        <v>0.68003707355587895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1.5791599999999999</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.2909550000000003</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15.807003999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>23.143756</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30.262018000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>37.794539</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45.606758999999997</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>8.5547140000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="D3">
+      <c r="Q3" s="1">
+        <f>AVERAGE(B2:B101)</f>
+        <v>8.182063160000002</v>
+      </c>
+      <c r="R3">
+        <f>_xlfn.STDEV.P(B2:B51)</f>
+        <v>0.13256666257583152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3.2730700000000001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8.0789080000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15.636673999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>23.066254000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30.237459000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>37.676772</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45.473323000000001</v>
+      </c>
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>15.863046000000001</v>
+      <c r="Q4">
+        <f>AVERAGE(C2:C51)</f>
+        <v>15.730937959999999</v>
+      </c>
+      <c r="R4">
+        <f>_xlfn.STDEV.P(C2:C51)</f>
+        <v>0.1097162056055459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8.3027379999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15.695043</v>
+      </c>
+      <c r="D5" s="1">
+        <v>23.143941000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30.499012</v>
+      </c>
+      <c r="F5" s="1">
+        <v>37.932271</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45.004337999999997</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>AVERAGE(D2:D51)</f>
+        <v>22.741547880000002</v>
+      </c>
+      <c r="R5">
+        <f>_xlfn.STDEV.P(D2:D51)</f>
+        <v>0.41057380987455289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2.85602</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.2601709999999997</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15.690137</v>
+      </c>
+      <c r="D6" s="1">
+        <v>22.976154000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30.290050999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <v>37.705925000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45.668478999999998</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>AVERAGE(E2:E51)</f>
+        <v>30.447300559999995</v>
+      </c>
+      <c r="R6">
+        <f>_xlfn.STDEV.P(E2:E51)</f>
+        <v>0.11848661513473313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2.3264200000000002</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8.0643840000000004</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15.860421000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>22.929535999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30.213000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>37.338987000000003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45.671895999999997</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>AVERAGE(F2:F51)</f>
+        <v>37.688636120000005</v>
+      </c>
+      <c r="R7">
+        <f>_xlfn.STDEV.P(F2:F51)</f>
+        <v>0.12942977282953694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3.3054199999999998</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8.2352240000000005</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15.850678</v>
+      </c>
+      <c r="D8" s="1">
+        <v>21.420074</v>
+      </c>
+      <c r="E8" s="1">
+        <v>30.348416</v>
+      </c>
+      <c r="F8" s="1">
+        <v>37.667440999999997</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45.561048999999997</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>AVERAGE(G2:G51)</f>
+        <v>45.509791020000002</v>
+      </c>
+      <c r="R8">
+        <f>_xlfn.STDEV.P(G2:G51)</f>
+        <v>0.12887268826209733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3.28918</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.0585640000000005</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15.700516</v>
+      </c>
+      <c r="D9" s="1">
+        <v>23.138721</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30.413817000000002</v>
+      </c>
+      <c r="F9" s="1">
+        <v>37.781080000000003</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45.626207000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2.8544299999999998</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8.2788129999999995</v>
+      </c>
+      <c r="C10" s="1">
+        <v>15.877789</v>
+      </c>
+      <c r="D10" s="1">
+        <v>21.990984000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>30.433941999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>37.761363000000003</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45.564689000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2.8735400000000002</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8.2702299999999997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15.715318</v>
+      </c>
+      <c r="D11" s="1">
+        <v>23.135247</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30.420787000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>37.882590999999998</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45.210921999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2.8588900000000002</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.0968859999999996</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15.744624</v>
+      </c>
+      <c r="D12" s="1">
+        <v>22.952974999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>30.516408999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <v>37.809911999999997</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45.570596000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3.28369</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8.0609289999999998</v>
+      </c>
+      <c r="C13" s="1">
+        <v>16.009169</v>
+      </c>
+      <c r="D13" s="1">
+        <v>22.493501999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>30.382524</v>
+      </c>
+      <c r="F13" s="1">
+        <v>37.818582999999997</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45.746613000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>3.27881</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8.0645330000000008</v>
+      </c>
+      <c r="C14" s="1">
+        <v>15.701085000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>23.066655999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>30.342486000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>37.545309000000003</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45.496529000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3.2846700000000002</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8.0715319999999995</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15.8375</v>
+      </c>
+      <c r="D15" s="1">
+        <v>22.976994000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>30.363329</v>
+      </c>
+      <c r="F15" s="1">
+        <v>37.612454</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45.542391000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2.8435700000000002</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8.0697709999999994</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15.697582000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>22.966246000000002</v>
+      </c>
+      <c r="E16" s="1">
+        <v>30.520567</v>
+      </c>
+      <c r="F16" s="1">
+        <v>37.376891000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45.521802000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2.8740800000000002</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8.2756469999999993</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15.738788</v>
+      </c>
+      <c r="D17" s="1">
+        <v>23.017413999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>30.364128999999998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>37.378179000000003</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45.455635999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2.8660299999999999</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8.0997229999999991</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15.694879</v>
+      </c>
+      <c r="D18" s="1">
+        <v>22.930838999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>30.582716000000001</v>
+      </c>
+      <c r="F18" s="1">
+        <v>37.545839999999998</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45.324975999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1.8220799999999999</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8.0705259999999992</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15.713661</v>
+      </c>
+      <c r="D19" s="1">
+        <v>22.983511</v>
+      </c>
+      <c r="E19" s="1">
+        <v>30.314997000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>37.651536</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45.488613999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1.94232</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.0758460000000003</v>
+      </c>
+      <c r="C20" s="1">
+        <v>15.696889000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>22.098042</v>
+      </c>
+      <c r="E20" s="1">
+        <v>30.496502</v>
+      </c>
+      <c r="F20" s="1">
+        <v>37.766199999999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45.537799999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>3.6547900000000002</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8.0727150000000005</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15.843272000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>23.032246000000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30.340541000000002</v>
+      </c>
+      <c r="F21" s="1">
+        <v>37.690846000000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45.575493999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>3.2837499999999999</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8.0702540000000003</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15.707779</v>
+      </c>
+      <c r="D22" s="1">
+        <v>22.115919000000002</v>
+      </c>
+      <c r="E22" s="1">
+        <v>30.500495000000001</v>
+      </c>
+      <c r="F22" s="1">
+        <v>37.625576000000002</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45.578932000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2.8456399999999999</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8.0788499999999992</v>
+      </c>
+      <c r="C23" s="1">
+        <v>15.717370000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22.997693999999999</v>
+      </c>
+      <c r="E23" s="1">
+        <v>30.310196000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>37.611243999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45.597287000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>3.2759399999999999</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8.0803799999999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>15.898287</v>
+      </c>
+      <c r="D24" s="1">
+        <v>22.822057000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>30.320737000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>37.777631999999997</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45.374195999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1.94452</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.0775030000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15.844128</v>
+      </c>
+      <c r="D25" s="1">
+        <v>22.851865</v>
+      </c>
+      <c r="E25" s="1">
+        <v>30.524937999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>37.560127999999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>45.599074999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1.9436599999999999</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8.1020649999999996</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15.726457999999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>22.861091999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>30.586684000000002</v>
+      </c>
+      <c r="F26" s="1">
+        <v>37.699817000000003</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45.494526999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>3.20825</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8.3017970000000005</v>
+      </c>
+      <c r="C27" s="1">
+        <v>15.876263</v>
+      </c>
+      <c r="D27" s="1">
+        <v>22.880096000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>30.372648000000002</v>
+      </c>
+      <c r="F27" s="1">
+        <v>37.537024000000002</v>
+      </c>
+      <c r="G27" s="1">
+        <v>45.647556999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3.2975500000000002</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8.0777149999999995</v>
+      </c>
+      <c r="C28" s="1">
+        <v>15.716153</v>
+      </c>
+      <c r="D28" s="1">
+        <v>22.45158</v>
+      </c>
+      <c r="E28" s="1">
+        <v>30.346115999999999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>37.798676999999998</v>
+      </c>
+      <c r="G28" s="1">
+        <v>45.512618000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>3.26227</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8.0859220000000001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>15.900338</v>
+      </c>
+      <c r="D29" s="1">
+        <v>22.982728000000002</v>
+      </c>
+      <c r="E29" s="1">
+        <v>30.552541999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>37.784084</v>
+      </c>
+      <c r="G29" s="1">
+        <v>45.256993000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>3.3375900000000001</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8.104609</v>
+      </c>
+      <c r="C30" s="1">
+        <v>15.902597</v>
+      </c>
+      <c r="D30" s="1">
+        <v>22.976206999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>30.378882999999998</v>
+      </c>
+      <c r="F30" s="1">
+        <v>37.545074999999997</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45.668573000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>3.3317299999999999</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8.2785430000000009</v>
+      </c>
+      <c r="C31" s="1">
+        <v>15.724031</v>
+      </c>
+      <c r="D31" s="1">
+        <v>22.933703999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>30.531388</v>
+      </c>
+      <c r="F31" s="1">
+        <v>37.791147000000002</v>
+      </c>
+      <c r="G31" s="1">
+        <v>45.638264999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>3.3729200000000001</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8.2623040000000003</v>
+      </c>
+      <c r="C32" s="1">
+        <v>15.565678</v>
+      </c>
+      <c r="D32" s="1">
+        <v>22.940512999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>30.495903999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>37.766157999999997</v>
+      </c>
+      <c r="G32" s="1">
+        <v>45.324365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>3.4813800000000001</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8.2880599999999998</v>
+      </c>
+      <c r="C33" s="1">
+        <v>15.60102</v>
+      </c>
+      <c r="D33" s="1">
+        <v>22.936195999999999</v>
+      </c>
+      <c r="E33" s="1">
+        <v>30.378391000000001</v>
+      </c>
+      <c r="F33" s="1">
+        <v>37.753003</v>
+      </c>
+      <c r="G33" s="1">
+        <v>45.412962999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>3.9319500000000001</v>
+      </c>
+      <c r="B34" s="1">
+        <v>8.2973429999999997</v>
+      </c>
+      <c r="C34" s="1">
+        <v>15.61261</v>
+      </c>
+      <c r="D34" s="1">
+        <v>22.929981000000002</v>
+      </c>
+      <c r="E34" s="1">
+        <v>30.375762999999999</v>
+      </c>
+      <c r="F34" s="1">
+        <v>37.787035000000003</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45.290559999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1.17804</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8.2617049999999992</v>
+      </c>
+      <c r="C35" s="1">
+        <v>15.678046999999999</v>
+      </c>
+      <c r="D35" s="1">
+        <v>21.896988</v>
+      </c>
+      <c r="E35" s="1">
+        <v>30.587185999999999</v>
+      </c>
+      <c r="F35" s="1">
+        <v>37.745381000000002</v>
+      </c>
+      <c r="G35" s="1">
+        <v>45.526136999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>2.8797000000000001</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8.2647809999999993</v>
+      </c>
+      <c r="C36" s="1">
+        <v>15.687424999999999</v>
+      </c>
+      <c r="D36" s="1">
+        <v>21.887902</v>
+      </c>
+      <c r="E36" s="1">
+        <v>30.600028999999999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>37.789952</v>
+      </c>
+      <c r="G36" s="1">
+        <v>45.582956000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1.6771199999999999</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8.2644509999999993</v>
+      </c>
+      <c r="C37" s="1">
+        <v>15.914809</v>
+      </c>
+      <c r="D37" s="1">
+        <v>22.936243000000001</v>
+      </c>
+      <c r="E37" s="1">
+        <v>30.62978</v>
+      </c>
+      <c r="F37" s="1">
+        <v>37.617773999999997</v>
+      </c>
+      <c r="G37" s="1">
+        <v>45.575797999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>3.3087800000000001</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8.2864979999999999</v>
+      </c>
+      <c r="C38" s="1">
+        <v>15.986159000000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>22.720953000000002</v>
+      </c>
+      <c r="E38" s="1">
+        <v>30.502780999999999</v>
+      </c>
+      <c r="F38" s="1">
+        <v>37.537565999999998</v>
+      </c>
+      <c r="G38" s="1">
+        <v>45.479804999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>3.4368300000000001</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8.2643339999999998</v>
+      </c>
+      <c r="C39" s="1">
+        <v>15.703843000000001</v>
+      </c>
+      <c r="D39" s="1">
+        <v>22.984207000000001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>30.592953999999999</v>
+      </c>
+      <c r="F39" s="1">
+        <v>37.788358000000002</v>
+      </c>
+      <c r="G39" s="1">
+        <v>45.475346000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1.9567300000000001</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8.3283729999999991</v>
+      </c>
+      <c r="C40" s="1">
+        <v>15.552187999999999</v>
+      </c>
+      <c r="D40" s="1">
+        <v>21.882878000000002</v>
+      </c>
+      <c r="E40" s="1">
+        <v>30.416861999999998</v>
+      </c>
+      <c r="F40" s="1">
+        <v>37.773784999999997</v>
+      </c>
+      <c r="G40" s="1">
+        <v>45.568007000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8.7010629999999995</v>
+      </c>
+      <c r="C41" s="1">
+        <v>15.583437999999999</v>
+      </c>
+      <c r="D41" s="1">
+        <v>23.016949</v>
+      </c>
+      <c r="E41" s="1">
+        <v>30.620446000000001</v>
+      </c>
+      <c r="F41" s="1">
+        <v>37.730069</v>
+      </c>
+      <c r="G41" s="1">
+        <v>45.551453000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>4.0155000000000003</v>
+      </c>
+      <c r="B42" s="1">
+        <v>8.5544519999999995</v>
+      </c>
+      <c r="C42" s="1">
+        <v>15.604001</v>
+      </c>
+      <c r="D42" s="1">
+        <v>22.792366999999999</v>
+      </c>
+      <c r="E42" s="1">
+        <v>30.604033000000001</v>
+      </c>
+      <c r="F42" s="1">
+        <v>37.684179</v>
+      </c>
+      <c r="G42" s="1">
+        <v>45.525787999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>3.31915</v>
+      </c>
+      <c r="B43" s="1">
+        <v>8.144183</v>
+      </c>
+      <c r="C43" s="1">
+        <v>15.633813999999999</v>
+      </c>
+      <c r="D43" s="1">
+        <v>22.831434999999999</v>
+      </c>
+      <c r="E43" s="1">
+        <v>30.548539000000002</v>
+      </c>
+      <c r="F43" s="1">
+        <v>37.936798000000003</v>
+      </c>
+      <c r="G43" s="1">
+        <v>45.527360999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>4.0354000000000001</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8.277018</v>
+      </c>
+      <c r="C44" s="1">
+        <v>15.654498999999999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>22.796963999999999</v>
+      </c>
+      <c r="E44" s="1">
+        <v>30.377569000000001</v>
+      </c>
+      <c r="F44" s="1">
+        <v>37.613894000000002</v>
+      </c>
+      <c r="G44" s="1">
+        <v>45.523848000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2.7863799999999999</v>
+      </c>
+      <c r="B45" s="1">
+        <v>8.0753109999999992</v>
+      </c>
+      <c r="C45" s="1">
+        <v>15.679541</v>
+      </c>
+      <c r="D45" s="1">
+        <v>22.799479000000002</v>
+      </c>
+      <c r="E45" s="1">
+        <v>30.399301999999999</v>
+      </c>
+      <c r="F45" s="1">
+        <v>37.61289</v>
+      </c>
+      <c r="G45" s="1">
+        <v>45.410842000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>3.3969100000000001</v>
+      </c>
+      <c r="B46" s="1">
+        <v>8.0672569999999997</v>
+      </c>
+      <c r="C46" s="1">
+        <v>15.614125</v>
+      </c>
+      <c r="D46" s="1">
+        <v>21.985713000000001</v>
+      </c>
+      <c r="E46" s="1">
+        <v>30.563461</v>
+      </c>
+      <c r="F46" s="1">
+        <v>37.731718000000001</v>
+      </c>
+      <c r="G46" s="1">
+        <v>45.536431999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>3.3514400000000002</v>
+      </c>
+      <c r="B47" s="1">
+        <v>8.0818290000000008</v>
+      </c>
+      <c r="C47" s="1">
+        <v>15.592179</v>
+      </c>
+      <c r="D47" s="1">
+        <v>22.859012</v>
+      </c>
+      <c r="E47" s="1">
+        <v>30.569534000000001</v>
+      </c>
+      <c r="F47" s="1">
+        <v>37.748680999999998</v>
+      </c>
+      <c r="G47" s="1">
+        <v>45.567779999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>3.4115600000000001</v>
+      </c>
+      <c r="B48" s="1">
+        <v>8.1060490000000005</v>
+      </c>
+      <c r="C48" s="1">
+        <v>15.662381999999999</v>
+      </c>
+      <c r="D48" s="1">
+        <v>22.821535000000001</v>
+      </c>
+      <c r="E48" s="1">
+        <v>30.46227</v>
+      </c>
+      <c r="F48" s="1">
+        <v>37.568350000000002</v>
+      </c>
+      <c r="G48" s="1">
+        <v>45.595643000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1.6712</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8.0999879999999997</v>
+      </c>
+      <c r="C49" s="1">
+        <v>15.672554</v>
+      </c>
+      <c r="D49" s="1">
+        <v>22.842496000000001</v>
+      </c>
+      <c r="E49" s="1">
+        <v>30.608943</v>
+      </c>
+      <c r="F49" s="1">
+        <v>37.763240000000003</v>
+      </c>
+      <c r="G49" s="1">
+        <v>45.471992999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>3.3518699999999999</v>
+      </c>
+      <c r="B50" s="1">
+        <v>8.094481</v>
+      </c>
+      <c r="C50" s="1">
+        <v>15.646913</v>
+      </c>
+      <c r="D50" s="1">
+        <v>22.965318</v>
+      </c>
+      <c r="E50" s="1">
+        <v>30.347670000000001</v>
+      </c>
+      <c r="F50" s="1">
+        <v>37.727879000000001</v>
+      </c>
+      <c r="G50" s="1">
+        <v>45.476962</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>4.2114900000000004</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8.0928400000000007</v>
+      </c>
+      <c r="C51" s="1">
+        <v>15.710573</v>
+      </c>
+      <c r="D51" s="1">
+        <v>22.096328</v>
+      </c>
+      <c r="E51" s="1">
+        <v>30.668223000000001</v>
+      </c>
+      <c r="F51" s="1">
+        <v>37.545853999999999</v>
+      </c>
+      <c r="G51" s="1">
+        <v>45.562235000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5878,60 +5890,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0.23900829627183379</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.36340127664069305</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.6911935205442058</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.47491268068513637</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.59320423040618409</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX38"/>
   <sheetViews>
@@ -5945,409 +5903,409 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>9.2969059999999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>9.2290399999999995</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>9.9805969999999995</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>9.2185299999999994</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>9.2144890000000004</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>9.1957799999999992</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>9.1970849999999995</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>9.3070740000000001</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>9.2109810000000003</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>9.2421369999999996</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <f>SUM(B4:L4)</f>
         <v>93.092618999999999</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <f>AVERAGE(B4:K4)</f>
         <v>9.3092618999999992</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>16.441233</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>16.150548000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>16.422732</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>16.376899000000002</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>16.221957</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>15.809569</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>16.726089999999999</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>16.141902000000002</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>16.718219000000001</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>17.085523999999999</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <f t="shared" ref="M5:M8" si="0">SUM(B5:L5)</f>
         <v>164.094673</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <f t="shared" ref="N5:N8" si="1">AVERAGE(B5:K5)</f>
         <v>16.409467299999999</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>23.515231</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>24.456081999999999</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>24.485149</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>22.827715999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>24.403165000000001</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>24.336946000000001</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>23.396470999999998</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>23.530507</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>22.635497000000001</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>23.295247</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <f t="shared" si="0"/>
         <v>236.88201099999995</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <f t="shared" si="1"/>
         <v>23.688201099999993</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>31.392472999999999</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>31.068819999999999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>30.122298000000001</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>30.620356999999998</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>30.362038999999999</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>30.433250000000001</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>30.123169000000001</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>31.236001999999999</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>31.081012999999999</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>31.089407999999999</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <f t="shared" si="0"/>
         <v>307.52882899999997</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <f t="shared" si="1"/>
         <v>30.752882899999996</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>38.605896999999999</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>39.166429000000001</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>38.496259000000002</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>38.007728999999998</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>39.331057000000001</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>39.166576999999997</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>39.489227</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>37.921579000000001</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>39.371673999999999</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>39.416347000000002</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <f t="shared" si="0"/>
         <v>388.97277499999996</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <f t="shared" si="1"/>
         <v>38.897277499999994</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6356,7 +6314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -6371,35 +6329,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>9.3092618999999992</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>16.409467299999999</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>23.688201099999993</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>30.752882899999996</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>38.897277499999994</v>
       </c>
     </row>
@@ -6409,557 +6367,557 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="21" width="9.140625" style="2"/>
+    <col min="2" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>21</v>
+      <c r="T1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>9.2969059999999999</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>16.441233</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>23.515231</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>31.392472999999999</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>38.605896999999999</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>9.2969059999999999</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>9.2290399999999995</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>9.9805969999999995</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>9.2185299999999994</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>9.2144890000000004</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>9.1957799999999992</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>9.1970849999999995</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>9.3070740000000001</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>9.2109810000000003</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>9.2421369999999996</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <f>SUM(J2:S2)</f>
         <v>93.092618999999999</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <f>AVERAGE(J2:S2)</f>
         <v>9.3092618999999992</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>9.2290399999999995</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>16.150548000000001</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>24.456081999999999</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>31.068819999999999</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>39.166429000000001</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>16.441233</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>16.150548000000001</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>16.422732</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>16.376899000000002</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>16.221957</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>15.809569</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>16.726089999999999</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>16.141902000000002</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>16.718219000000001</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>17.085523999999999</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <f t="shared" ref="T3:T6" si="0">SUM(J3:S3)</f>
         <v>164.094673</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <f t="shared" ref="U3:U6" si="1">AVERAGE(J3:S3)</f>
         <v>16.409467299999999</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
         <v>9.9805969999999995</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>16.422732</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>24.485149</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>30.122298000000001</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>38.496259000000002</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>23.515231</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>24.456081999999999</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>24.485149</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>22.827715999999999</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>24.403165000000001</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>24.336946000000001</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>23.396470999999998</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>23.530507</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>22.635497000000001</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>23.295247</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <f t="shared" si="0"/>
         <v>236.88201099999995</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <f t="shared" si="1"/>
         <v>23.688201099999993</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>9.2185299999999994</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>16.376899000000002</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>22.827715999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>30.620356999999998</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>38.007728999999998</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>31.392472999999999</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>31.068819999999999</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>30.122298000000001</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>30.620356999999998</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>30.362038999999999</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>30.433250000000001</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>30.123169000000001</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>31.236001999999999</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>31.081012999999999</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>31.089407999999999</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <f t="shared" si="0"/>
         <v>307.52882899999997</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <f t="shared" si="1"/>
         <v>30.752882899999996</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
         <v>9.2144890000000004</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>16.221957</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>24.403165000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>30.362038999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>39.331057000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>5</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>38.605896999999999</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>39.166429000000001</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>38.496259000000002</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>38.007728999999998</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>39.331057000000001</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>39.166576999999997</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>39.489227</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>37.921579000000001</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>39.371673999999999</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>39.416347000000002</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <f t="shared" si="0"/>
         <v>388.97277499999996</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <f t="shared" si="1"/>
         <v>38.897277499999994</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>9.1957799999999992</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>15.809569</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>24.336946000000001</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>30.433250000000001</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>39.166576999999997</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
         <v>9.1970849999999995</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>16.726089999999999</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>23.396470999999998</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>30.123169000000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>39.489227</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
         <v>9.3070740000000001</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>16.141902000000002</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>23.530507</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>31.236001999999999</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>37.921579000000001</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
         <v>9.2109810000000003</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>16.718219000000001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>22.635497000000001</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>31.081012999999999</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>39.371673999999999</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
         <v>9.2421369999999996</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>17.085523999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>23.295247</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>31.089407999999999</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>39.416347000000002</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1">
         <v>30.393844000000001</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>30.422073000000001</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>30.428045999999998</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>30.432881999999999</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>30.413827000000001</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1">
         <v>30.441383999999999</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <v>30.337213999999999</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="1">
         <v>30.467379000000001</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>5</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>38.074362000000001</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>38.14188</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>38.409120999999999</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>38.835326000000002</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>38.631559000000003</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <v>38.436661999999998</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <v>37.451531000000003</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <v>38.303471999999999</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <v>38.363472999999999</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <v>37.220221000000002</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="1">
         <v>38.360917000000001</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="1">
         <v>37.387093999999998</v>
       </c>
     </row>

--- a/testOpenCV/tg_r2.xlsx
+++ b/testOpenCV/tg_r2.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1." sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="Statiske 1-5mm" sheetId="2" r:id="rId4"/>
+    <sheet name="2." sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Statiske 1-5mm" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>#1</t>
   </si>
@@ -97,6 +98,18 @@
   </si>
   <si>
     <t>stddev</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>**) Mindre udsving kan forekomme, grundet lokale forstyrrelser, som f.eks. En arm placeres på bordet.</t>
+  </si>
+  <si>
+    <t>*) Målingsmetoden er ikke hjulpet af den regulære baggrund hvor laseren normalt er lokaliseret</t>
   </si>
 </sst>
 </file>
@@ -188,12 +201,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="da-DK"/>
-              <a:t>Gennemsnit</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="da-DK" baseline="0"/>
-              <a:t> af 50 målinger i hver højde</a:t>
+              <a:t>50 målinger i hver højde (071117)</a:t>
             </a:r>
             <a:endParaRPr lang="da-DK"/>
           </a:p>
@@ -203,8 +212,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20011111111111113"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.36456838959701743"/>
+          <c:y val="2.777771199652675E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -359,7 +368,7 @@
                 <c:pt idx="1">
                   <c:v>8.182063160000002</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>15.730937959999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -565,6 +574,412 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t>25 målinger i hver højde (071217)</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35073553740812285"/>
+          <c:y val="2.777771199652675E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.9234470691163604E-4"/>
+                  <c:y val="0.3051388888888889"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2.'!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2.'!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2187543600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2173388400000018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.705651960000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.036377400000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.487089279999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.959033560000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.635390080000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5BF-43D4-8272-B083ACD7DEA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="356757008"/>
+        <c:axId val="356759304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="356757008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356759304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="356759304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356757008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1188,7 +1603,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2437,6 +2852,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3470,7 +3925,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3497,8 +3952,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3599,6 +4054,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3977,15 +4948,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4014,6 +4985,49 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D166703-5C3B-487C-BEF4-E932A7E3F486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4056,7 +5070,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4598,10 +5612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4611,7 +5625,7 @@
     <col min="4" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -4655,7 +5669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3.2434099999999999</v>
       </c>
@@ -4681,15 +5695,18 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <f>AVERAGE(A2:A101)</f>
+        <f>AVERAGE(A2:A51)</f>
         <v>2.9569165999999996</v>
       </c>
       <c r="R2">
-        <f>_xlfn.STDEV.P(A2:A51)</f>
-        <v>0.68003707355587895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <f>STDEV(A2:A51)</f>
+        <v>0.68694118024230966</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.5791599999999999</v>
       </c>
@@ -4715,15 +5732,15 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <f>AVERAGE(B2:B101)</f>
+        <f>AVERAGE(B2:B51)</f>
         <v>8.182063160000002</v>
       </c>
       <c r="R3">
-        <f>_xlfn.STDEV.P(B2:B51)</f>
-        <v>0.13256666257583152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <f>STDEV(B2:B51)</f>
+        <v>0.13391255152377057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3.2730700000000001</v>
       </c>
@@ -4748,16 +5765,16 @@
       <c r="P4">
         <v>2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <f>AVERAGE(C2:C51)</f>
         <v>15.730937959999999</v>
       </c>
       <c r="R4">
-        <f>_xlfn.STDEV.P(C2:C51)</f>
-        <v>0.1097162056055459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <f>STDEV(C2:C51)</f>
+        <v>0.1108301042710557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2.3410000000000002</v>
       </c>
@@ -4787,11 +5804,14 @@
         <v>22.741547880000002</v>
       </c>
       <c r="R5">
-        <f>_xlfn.STDEV.P(D2:D51)</f>
-        <v>0.41057380987455289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <f>STDEV(D2:D51)</f>
+        <v>0.41474217877127523</v>
+      </c>
+      <c r="S5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2.85602</v>
       </c>
@@ -4821,11 +5841,11 @@
         <v>30.447300559999995</v>
       </c>
       <c r="R6">
-        <f>_xlfn.STDEV.P(E2:E51)</f>
-        <v>0.11848661513473313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <f>STDEV(E2:E51)</f>
+        <v>0.11968955577372917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.3264200000000002</v>
       </c>
@@ -4855,11 +5875,11 @@
         <v>37.688636120000005</v>
       </c>
       <c r="R7">
-        <f>_xlfn.STDEV.P(F2:F51)</f>
-        <v>0.12942977282953694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <f>STDEV(F2:F51)</f>
+        <v>0.1307438143645713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3.3054199999999998</v>
       </c>
@@ -4889,11 +5909,11 @@
         <v>45.509791020000002</v>
       </c>
       <c r="R8">
-        <f>_xlfn.STDEV.P(G2:G51)</f>
-        <v>0.12887268826209733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <f>STDEV(G2:G51)</f>
+        <v>0.13018107397124146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.28918</v>
       </c>
@@ -4916,7 +5936,7 @@
         <v>45.626207000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2.8544299999999998</v>
       </c>
@@ -4939,7 +5959,7 @@
         <v>45.564689000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2.8735400000000002</v>
       </c>
@@ -4962,7 +5982,7 @@
         <v>45.210921999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2.8588900000000002</v>
       </c>
@@ -4985,7 +6005,7 @@
         <v>45.570596000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3.28369</v>
       </c>
@@ -5008,7 +6028,7 @@
         <v>45.746613000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3.27881</v>
       </c>
@@ -5031,7 +6051,7 @@
         <v>45.496529000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3.2846700000000002</v>
       </c>
@@ -5054,7 +6074,7 @@
         <v>45.542391000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2.8435700000000002</v>
       </c>
@@ -5445,7 +6465,7 @@
         <v>45.324365</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3.4813800000000001</v>
       </c>
@@ -5468,7 +6488,7 @@
         <v>45.412962999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3.9319500000000001</v>
       </c>
@@ -5491,7 +6511,7 @@
         <v>45.290559999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1.17804</v>
       </c>
@@ -5514,7 +6534,7 @@
         <v>45.526136999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2.8797000000000001</v>
       </c>
@@ -5537,7 +6557,7 @@
         <v>45.582956000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1.6771199999999999</v>
       </c>
@@ -5560,7 +6580,7 @@
         <v>45.575797999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3.3087800000000001</v>
       </c>
@@ -5583,7 +6603,7 @@
         <v>45.479804999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3.4368300000000001</v>
       </c>
@@ -5605,8 +6625,11 @@
       <c r="G39" s="1">
         <v>45.475346000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1.9567300000000001</v>
       </c>
@@ -5628,8 +6651,11 @@
       <c r="G40" s="1">
         <v>45.568007000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2.69</v>
       </c>
@@ -5652,7 +6678,7 @@
         <v>45.551453000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>4.0155000000000003</v>
       </c>
@@ -5675,7 +6701,7 @@
         <v>45.525787999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>3.31915</v>
       </c>
@@ -5698,7 +6724,7 @@
         <v>45.527360999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4.0354000000000001</v>
       </c>
@@ -5721,7 +6747,7 @@
         <v>45.523848000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2.7863799999999999</v>
       </c>
@@ -5744,7 +6770,7 @@
         <v>45.410842000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3.3969100000000001</v>
       </c>
@@ -5767,7 +6793,7 @@
         <v>45.536431999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3.3514400000000002</v>
       </c>
@@ -5790,7 +6816,7 @@
         <v>45.567779999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3.4115600000000001</v>
       </c>
@@ -5890,6 +6916,731 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2.8401109999999998</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.2181660000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15.778724</v>
+      </c>
+      <c r="D2" s="1">
+        <v>22.984065000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30.541893999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>38.111460999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45.593673000000003</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>AVERAGE(A2:A26)</f>
+        <v>2.2187543600000001</v>
+      </c>
+      <c r="R2">
+        <f>STDEV(A2:A26)</f>
+        <v>0.86350034489207916</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3.9883820000000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.1771969999999996</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15.82423</v>
+      </c>
+      <c r="D3" s="1">
+        <v>22.869523000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30.571663999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>38.078166000000003</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45.769742000000001</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>AVERAGE(B2:B26)</f>
+        <v>8.2173388400000018</v>
+      </c>
+      <c r="R3">
+        <f>STDEV(B2:B26)</f>
+        <v>5.5773929179680312E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2.8324340000000001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8.2418519999999997</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15.754426</v>
+      </c>
+      <c r="D4" s="1">
+        <v>23.016411000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30.538568000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>37.957056999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45.623527000000003</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>AVERAGE(C2:C26)</f>
+        <v>15.705651960000001</v>
+      </c>
+      <c r="R4">
+        <f>STDEV(C2:C26)</f>
+        <v>0.10600112330280584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2.5456479999999999</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8.1795799999999996</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15.55864</v>
+      </c>
+      <c r="D5" s="1">
+        <v>22.993054999999998</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30.544616999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>37.517491999999997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45.214412000000003</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>AVERAGE(D2:D26)</f>
+        <v>23.036377400000003</v>
+      </c>
+      <c r="R5">
+        <f>STDEV(D2:D26)</f>
+        <v>0.14536758340926614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1.8964300000000001</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.2509320000000006</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15.740778000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>23.115186999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30.525527</v>
+      </c>
+      <c r="F6" s="1">
+        <v>37.909025999999997</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45.755054999999999</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>AVERAGE(E2:E51)</f>
+        <v>30.487089279999996</v>
+      </c>
+      <c r="R6">
+        <f>STDEV(E2:E26)</f>
+        <v>0.1104213847353706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1.9306669999999999</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8.3240990000000004</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15.646114000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>23.052340000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30.468779999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>38.156939000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45.400900999999998</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>AVERAGE(F2:F26)</f>
+        <v>37.959033560000002</v>
+      </c>
+      <c r="R7">
+        <f>STDEV(F2:F26)</f>
+        <v>0.16918914996833218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2.7721870000000002</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8.4217879999999994</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15.634788</v>
+      </c>
+      <c r="D8" s="1">
+        <v>23.302301</v>
+      </c>
+      <c r="E8" s="1">
+        <v>30.467188</v>
+      </c>
+      <c r="F8" s="1">
+        <v>37.479694000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45.813971000000002</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>AVERAGE(G2:G31)</f>
+        <v>45.635390080000001</v>
+      </c>
+      <c r="R8">
+        <f>STDEV(G2:G26)</f>
+        <v>0.18683792387140402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2.9057330000000001</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.1509850000000004</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15.908861999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>23.162472999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30.352934999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>37.930385000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45.804769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1.5364120000000001</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8.1996699999999993</v>
+      </c>
+      <c r="C10" s="1">
+        <v>15.875594</v>
+      </c>
+      <c r="D10" s="1">
+        <v>23.190141000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>30.409903</v>
+      </c>
+      <c r="F10" s="1">
+        <v>37.889811999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45.835057999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1.9982200000000001</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8.2011679999999991</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15.807159</v>
+      </c>
+      <c r="D11" s="1">
+        <v>22.984065000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30.489934000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>37.900548000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45.446615999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1.749241</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.2028949999999998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15.800069000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>22.912797999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>30.429576999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>38.210056000000002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45.849051000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2.8275130000000002</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8.1702490000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15.789232999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>23.167394000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>30.487176999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>37.946930000000002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45.842092999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1.3226340000000001</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8.2277280000000008</v>
+      </c>
+      <c r="C14" s="1">
+        <v>15.789659</v>
+      </c>
+      <c r="D14" s="1">
+        <v>22.908667999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>30.530031000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>37.811478999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45.443024000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1.54545</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8.2370859999999997</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15.754818999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>23.184457999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>30.292079999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>37.918551000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45.463678999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1.95173</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8.2287289999999995</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15.624706</v>
+      </c>
+      <c r="D16" s="1">
+        <v>22.991171999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>30.366378999999998</v>
+      </c>
+      <c r="F16" s="1">
+        <v>37.976894000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45.698956000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.98347300000000004</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8.134976</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15.678658</v>
+      </c>
+      <c r="D17" s="1">
+        <v>23.249084</v>
+      </c>
+      <c r="E17" s="1">
+        <v>30.131889999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>38.114376</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45.473585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2.7408800000000002</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8.1995310000000003</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15.639167</v>
+      </c>
+      <c r="D18" s="1">
+        <v>23.050329000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>30.505979</v>
+      </c>
+      <c r="F18" s="1">
+        <v>37.992153000000002</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45.304954000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3.9572910000000001</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8.1902220000000003</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15.752895000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>23.212696999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>30.514828000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>38.117981</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45.430436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1.5161020000000001</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.2036879999999996</v>
+      </c>
+      <c r="C20" s="1">
+        <v>15.540959000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>22.897677000000002</v>
+      </c>
+      <c r="E20" s="1">
+        <v>30.556992999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>37.905152000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45.679588000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1.5274449999999999</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8.2028060000000007</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15.663026</v>
+      </c>
+      <c r="D21" s="1">
+        <v>22.975595999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30.588861999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>38.049903</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45.851165999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1.5255609999999999</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8.2160469999999997</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15.709089000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>22.714199000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>30.556753</v>
+      </c>
+      <c r="F22" s="1">
+        <v>38.057431000000001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45.686298000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>3.0213489999999998</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8.2080169999999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>15.533906999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22.852091000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>30.626076999999999</v>
+      </c>
+      <c r="F23" s="1">
+        <v>38.006081000000002</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45.660473000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>3.066287</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8.2149979999999996</v>
+      </c>
+      <c r="C24" s="1">
+        <v>15.695615999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>23.212513000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>30.589756999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>37.888452999999998</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45.747912999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.55122199999999999</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.2027099999999997</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15.596434</v>
+      </c>
+      <c r="D25" s="1">
+        <v>22.976042</v>
+      </c>
+      <c r="E25" s="1">
+        <v>30.479143000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>38.029640999999998</v>
+      </c>
+      <c r="G25" s="1">
+        <v>45.815961000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1.9364570000000001</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8.2283519999999992</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15.543747</v>
+      </c>
+      <c r="D26" s="1">
+        <v>22.935155999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>30.610696000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>38.020178000000001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45.679850999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX38"/>
   <sheetViews>
@@ -6314,7 +8065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -6367,7 +8118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>

--- a/testOpenCV/tg_r2.xlsx
+++ b/testOpenCV/tg_r2.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="1." sheetId="1" r:id="rId1"/>
-    <sheet name="2." sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="6" r:id="rId2"/>
+    <sheet name="2b" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Statiske 1-5mm" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>#1</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Avg</t>
   </si>
   <si>
-    <t>Højde i mm</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>*) Målingsmetoden er ikke hjulpet af den regulære baggrund hvor laseren normalt er lokaliseret</t>
+  </si>
+  <si>
+    <t>*) Nulværdier er baseret på basis af samme keramikoverflade hvor stripehøjden er målt</t>
   </si>
 </sst>
 </file>
@@ -328,7 +328,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1.'!$P$2:$P$8</c:f>
+              <c:f>'1'!$P$2:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -358,7 +358,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1.'!$Q$2:$Q$8</c:f>
+              <c:f>'1'!$Q$2:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -734,7 +734,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2.'!$P$2:$P$8</c:f>
+              <c:f>'2'!$P$2:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -764,7 +764,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2.'!$Q$2:$Q$8</c:f>
+              <c:f>'2'!$Q$2:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -994,6 +994,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t>25 målinger i hver højde (071217) *</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35073553740812285"/>
+          <c:y val="2.777771199652675E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1006,7 +1040,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr algn="ctr">
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1032,11 +1066,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Statiske målinger</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1073,8 +1104,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.32885017497812774"/>
-                  <c:y val="-3.2824074074074075E-2"/>
+                  <c:x val="9.9234470691163604E-4"/>
+                  <c:y val="0.3051388888888889"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1107,161 +1138,62 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2b'!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet4!$B$4:$K$4,Sheet4!$B$5:$K$5,Sheet4!$B$6:$K$6,Sheet4!$B$7:$K$7,Sheet4!$B$8:$K$8)</c:f>
+              <c:f>'2b'!$Q$2:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.2969059999999999</c:v>
+                  <c:v>0.69932027999999979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2290399999999995</c:v>
+                  <c:v>8.2173388400000018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9805969999999995</c:v>
+                  <c:v>15.705651960000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2185299999999994</c:v>
+                  <c:v>23.036377400000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2144890000000004</c:v>
+                  <c:v>30.487089279999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1957799999999992</c:v>
+                  <c:v>37.959033560000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1970849999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.3070740000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.2109810000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.2421369999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.441233</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.150548000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.422732</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.376899000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.221957</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.809569</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.726089999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16.141902000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16.718219000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.085523999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23.515231</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24.456081999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24.485149</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22.827715999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.403165000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24.336946000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.396470999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23.530507</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22.635497000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>23.295247</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.392472999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31.068819999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30.122298000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>30.620356999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30.362038999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>30.433250000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>30.123169000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>31.236001999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>31.081012999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>31.089407999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>38.605896999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>39.166429000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>38.496259000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>38.007728999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>39.331057000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>39.166576999999997</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>39.489227</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>37.921579000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>39.371673999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>39.416347000000002</c:v>
+                  <c:v>45.635390080000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,7 +1201,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-55EA-4FA1-9BC0-6A91C9C68944}"/>
+              <c16:uniqueId val="{00000001-D72E-4818-A030-0FDC6017E34E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1281,77 +1213,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="483420472"/>
-        <c:axId val="483424736"/>
+        <c:axId val="356757008"/>
+        <c:axId val="356759304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="483420472"/>
+        <c:axId val="356757008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t>Antal</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> målinger</a:t>
-                </a:r>
-                <a:endParaRPr lang="da-DK"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="out"/>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1387,12 +1274,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483424736"/>
+        <c:crossAx val="356759304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483424736"/>
+        <c:axId val="356759304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,82 +1299,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t>Højde</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> i px</a:t>
-                </a:r>
-                <a:endParaRPr lang="da-DK"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1523,7 +1336,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483420472"/>
+        <c:crossAx val="356757008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1535,37 +1348,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4947,15 +4729,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4988,16 +4770,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5031,23 +4813,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B085302B-0C73-4260-BE01-879F02F635FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A37665A-9186-4AF8-A007-767DDB98245A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5612,10 +5394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5647,26 +5429,14 @@
       <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
       <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -5703,7 +5473,7 @@
         <v>0.68694118024230966</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -5808,7 +5578,7 @@
         <v>0.41474217877127523</v>
       </c>
       <c r="S5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -6097,7 +5867,7 @@
         <v>45.521802000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2.8740800000000002</v>
       </c>
@@ -6120,7 +5890,7 @@
         <v>45.455635999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2.8660299999999999</v>
       </c>
@@ -6143,7 +5913,7 @@
         <v>45.324975999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1.8220799999999999</v>
       </c>
@@ -6166,7 +5936,7 @@
         <v>45.488613999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.94232</v>
       </c>
@@ -6189,7 +5959,7 @@
         <v>45.537799999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3.6547900000000002</v>
       </c>
@@ -6212,7 +5982,7 @@
         <v>45.575493999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3.2837499999999999</v>
       </c>
@@ -6235,7 +6005,7 @@
         <v>45.578932000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2.8456399999999999</v>
       </c>
@@ -6258,7 +6028,7 @@
         <v>45.597287000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3.2759399999999999</v>
       </c>
@@ -6281,7 +6051,7 @@
         <v>45.374195999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1.94452</v>
       </c>
@@ -6304,7 +6074,7 @@
         <v>45.599074999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1.9436599999999999</v>
       </c>
@@ -6327,7 +6097,7 @@
         <v>45.494526999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3.20825</v>
       </c>
@@ -6350,7 +6120,7 @@
         <v>45.647556999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3.2975500000000002</v>
       </c>
@@ -6373,7 +6143,7 @@
         <v>45.512618000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3.26227</v>
       </c>
@@ -6395,8 +6165,11 @@
       <c r="G29" s="1">
         <v>45.256993000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="T29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3.3375900000000001</v>
       </c>
@@ -6418,8 +6191,11 @@
       <c r="G30" s="1">
         <v>45.668573000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="T30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3.3317299999999999</v>
       </c>
@@ -6442,7 +6218,7 @@
         <v>45.638264999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3.3729200000000001</v>
       </c>
@@ -6465,7 +6241,7 @@
         <v>45.324365</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3.4813800000000001</v>
       </c>
@@ -6488,7 +6264,7 @@
         <v>45.412962999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3.9319500000000001</v>
       </c>
@@ -6511,7 +6287,7 @@
         <v>45.290559999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1.17804</v>
       </c>
@@ -6534,7 +6310,7 @@
         <v>45.526136999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2.8797000000000001</v>
       </c>
@@ -6557,7 +6333,7 @@
         <v>45.582956000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1.6771199999999999</v>
       </c>
@@ -6580,7 +6356,7 @@
         <v>45.575797999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3.3087800000000001</v>
       </c>
@@ -6603,7 +6379,7 @@
         <v>45.479804999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3.4368300000000001</v>
       </c>
@@ -6625,11 +6401,8 @@
       <c r="G39" s="1">
         <v>45.475346000000002</v>
       </c>
-      <c r="I39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1.9567300000000001</v>
       </c>
@@ -6651,11 +6424,8 @@
       <c r="G40" s="1">
         <v>45.568007000000001</v>
       </c>
-      <c r="I40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2.69</v>
       </c>
@@ -6678,7 +6448,7 @@
         <v>45.551453000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>4.0155000000000003</v>
       </c>
@@ -6701,7 +6471,7 @@
         <v>45.525787999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>3.31915</v>
       </c>
@@ -6724,7 +6494,7 @@
         <v>45.527360999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4.0354000000000001</v>
       </c>
@@ -6747,7 +6517,7 @@
         <v>45.523848000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2.7863799999999999</v>
       </c>
@@ -6770,7 +6540,7 @@
         <v>45.410842000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3.3969100000000001</v>
       </c>
@@ -6793,7 +6563,7 @@
         <v>45.536431999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3.3514400000000002</v>
       </c>
@@ -6816,7 +6586,7 @@
         <v>45.567779999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3.4115600000000001</v>
       </c>
@@ -6917,10 +6687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6965,13 +6735,13 @@
         <v>10</v>
       </c>
       <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -7008,7 +6778,7 @@
         <v>0.86350034489207916</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -7399,7 +7169,7 @@
         <v>45.698956000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.98347300000000004</v>
       </c>
@@ -7422,7 +7192,7 @@
         <v>45.473585</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2.7408800000000002</v>
       </c>
@@ -7445,7 +7215,7 @@
         <v>45.304954000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3.9572910000000001</v>
       </c>
@@ -7468,7 +7238,7 @@
         <v>45.430436</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.5161020000000001</v>
       </c>
@@ -7491,7 +7261,7 @@
         <v>45.679588000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1.5274449999999999</v>
       </c>
@@ -7514,7 +7284,7 @@
         <v>45.851165999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1.5255609999999999</v>
       </c>
@@ -7537,7 +7307,7 @@
         <v>45.686298000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3.0213489999999998</v>
       </c>
@@ -7560,7 +7330,7 @@
         <v>45.660473000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3.066287</v>
       </c>
@@ -7583,7 +7353,7 @@
         <v>45.747912999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.55122199999999999</v>
       </c>
@@ -7606,7 +7376,7 @@
         <v>45.815961000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1.9364570000000001</v>
       </c>
@@ -7629,9 +7399,9 @@
         <v>45.679850999999999</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I39" t="s">
-        <v>25</v>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T29" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -7642,421 +7412,722 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX38"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>1</v>
       </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.673786</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.2181660000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15.778724</v>
+      </c>
+      <c r="D2" s="1">
+        <v>22.984065000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30.541893999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>38.111460999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45.593673000000003</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>AVERAGE(A2:A26)</f>
+        <v>0.69932027999999979</v>
+      </c>
+      <c r="R2">
+        <f>STDEV(A2:A26)</f>
+        <v>1.5834934350248079E-2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.1771969999999996</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15.82423</v>
+      </c>
+      <c r="D3" s="1">
+        <v>22.869523000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30.571663999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>38.078166000000003</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45.769742000000001</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>AVERAGE(B2:B26)</f>
+        <v>8.2173388400000018</v>
+      </c>
+      <c r="R3">
+        <f>STDEV(B2:B26)</f>
+        <v>5.5773929179680312E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.68326100000000001</v>
+      </c>
       <c r="B4" s="1">
-        <v>9.2969059999999999</v>
+        <v>8.2418519999999997</v>
       </c>
       <c r="C4" s="1">
-        <v>9.2290399999999995</v>
+        <v>15.754426</v>
       </c>
       <c r="D4" s="1">
-        <v>9.9805969999999995</v>
+        <v>23.016411000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>9.2185299999999994</v>
+        <v>30.538568000000001</v>
       </c>
       <c r="F4" s="1">
-        <v>9.2144890000000004</v>
+        <v>37.957056999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>9.1957799999999992</v>
-      </c>
-      <c r="H4" s="1">
-        <v>9.1970849999999995</v>
-      </c>
-      <c r="I4" s="1">
-        <v>9.3070740000000001</v>
-      </c>
-      <c r="J4" s="1">
-        <v>9.2109810000000003</v>
-      </c>
-      <c r="K4" s="1">
-        <v>9.2421369999999996</v>
-      </c>
-      <c r="M4" s="1">
-        <f>SUM(B4:L4)</f>
-        <v>93.092618999999999</v>
-      </c>
-      <c r="N4" s="1">
-        <f>AVERAGE(B4:K4)</f>
-        <v>9.3092618999999992</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>45.623527000000003</v>
+      </c>
+      <c r="P4">
         <v>2</v>
       </c>
+      <c r="Q4" s="1">
+        <f>AVERAGE(C2:C26)</f>
+        <v>15.705651960000001</v>
+      </c>
+      <c r="R4">
+        <f>STDEV(C2:C26)</f>
+        <v>0.10600112330280584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.68067800000000001</v>
+      </c>
       <c r="B5" s="1">
-        <v>16.441233</v>
+        <v>8.1795799999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>16.150548000000001</v>
+        <v>15.55864</v>
       </c>
       <c r="D5" s="1">
-        <v>16.422732</v>
+        <v>22.993054999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>16.376899000000002</v>
+        <v>30.544616999999999</v>
       </c>
       <c r="F5" s="1">
-        <v>16.221957</v>
+        <v>37.517491999999997</v>
       </c>
       <c r="G5" s="1">
-        <v>15.809569</v>
-      </c>
-      <c r="H5" s="1">
-        <v>16.726089999999999</v>
-      </c>
-      <c r="I5" s="1">
-        <v>16.141902000000002</v>
-      </c>
-      <c r="J5" s="1">
-        <v>16.718219000000001</v>
-      </c>
-      <c r="K5" s="1">
-        <v>17.085523999999999</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" ref="M5:M8" si="0">SUM(B5:L5)</f>
-        <v>164.094673</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" ref="N5:N8" si="1">AVERAGE(B5:K5)</f>
-        <v>16.409467299999999</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>45.214412000000003</v>
+      </c>
+      <c r="P5">
         <v>3</v>
       </c>
+      <c r="Q5" s="1">
+        <f>AVERAGE(D2:D26)</f>
+        <v>23.036377400000003</v>
+      </c>
+      <c r="R5">
+        <f>STDEV(D2:D26)</f>
+        <v>0.14536758340926614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.67816100000000001</v>
+      </c>
       <c r="B6" s="1">
-        <v>23.515231</v>
+        <v>8.2509320000000006</v>
       </c>
       <c r="C6" s="1">
-        <v>24.456081999999999</v>
+        <v>15.740778000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>24.485149</v>
+        <v>23.115186999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>22.827715999999999</v>
+        <v>30.525527</v>
       </c>
       <c r="F6" s="1">
-        <v>24.403165000000001</v>
+        <v>37.909025999999997</v>
       </c>
       <c r="G6" s="1">
-        <v>24.336946000000001</v>
-      </c>
-      <c r="H6" s="1">
-        <v>23.396470999999998</v>
-      </c>
-      <c r="I6" s="1">
-        <v>23.530507</v>
-      </c>
-      <c r="J6" s="1">
-        <v>22.635497000000001</v>
-      </c>
-      <c r="K6" s="1">
-        <v>23.295247</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="0"/>
-        <v>236.88201099999995</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="1"/>
-        <v>23.688201099999993</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>45.755054999999999</v>
+      </c>
+      <c r="P6">
         <v>4</v>
       </c>
+      <c r="Q6" s="1">
+        <f>AVERAGE(E2:E51)</f>
+        <v>30.487089279999996</v>
+      </c>
+      <c r="R6">
+        <f>STDEV(E2:E26)</f>
+        <v>0.1104213847353706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.67172600000000005</v>
+      </c>
       <c r="B7" s="1">
-        <v>31.392472999999999</v>
+        <v>8.3240990000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>31.068819999999999</v>
+        <v>15.646114000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>30.122298000000001</v>
+        <v>23.052340000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>30.620356999999998</v>
+        <v>30.468779999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>30.362038999999999</v>
+        <v>38.156939000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>30.433250000000001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>30.123169000000001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>31.236001999999999</v>
-      </c>
-      <c r="J7" s="1">
-        <v>31.081012999999999</v>
-      </c>
-      <c r="K7" s="1">
-        <v>31.089407999999999</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="0"/>
-        <v>307.52882899999997</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="1"/>
-        <v>30.752882899999996</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>45.400900999999998</v>
+      </c>
+      <c r="P7">
         <v>5</v>
       </c>
+      <c r="Q7" s="1">
+        <f>AVERAGE(F2:F26)</f>
+        <v>37.959033560000002</v>
+      </c>
+      <c r="R7">
+        <f>STDEV(F2:F26)</f>
+        <v>0.16918914996833218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.68722300000000003</v>
+      </c>
       <c r="B8" s="1">
-        <v>38.605896999999999</v>
+        <v>8.4217879999999994</v>
       </c>
       <c r="C8" s="1">
-        <v>39.166429000000001</v>
+        <v>15.634788</v>
       </c>
       <c r="D8" s="1">
-        <v>38.496259000000002</v>
+        <v>23.302301</v>
       </c>
       <c r="E8" s="1">
-        <v>38.007728999999998</v>
+        <v>30.467188</v>
       </c>
       <c r="F8" s="1">
-        <v>39.331057000000001</v>
+        <v>37.479694000000002</v>
       </c>
       <c r="G8" s="1">
-        <v>39.166576999999997</v>
-      </c>
-      <c r="H8" s="1">
-        <v>39.489227</v>
-      </c>
-      <c r="I8" s="1">
-        <v>37.921579000000001</v>
-      </c>
-      <c r="J8" s="1">
-        <v>39.371673999999999</v>
-      </c>
-      <c r="K8" s="1">
-        <v>39.416347000000002</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="0"/>
-        <v>388.97277499999996</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="1"/>
-        <v>38.897277499999994</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+        <v>45.813971000000002</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>AVERAGE(G2:G31)</f>
+        <v>45.635390080000001</v>
+      </c>
+      <c r="R8">
+        <f>STDEV(G2:G26)</f>
+        <v>0.18683792387140402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.69220700000000002</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.1509850000000004</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15.908861999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>23.162472999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30.352934999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>37.930385000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45.804769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.69850999999999996</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8.1996699999999993</v>
+      </c>
+      <c r="C10" s="1">
+        <v>15.875594</v>
+      </c>
+      <c r="D10" s="1">
+        <v>23.190141000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>30.409903</v>
+      </c>
+      <c r="F10" s="1">
+        <v>37.889811999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45.835057999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.69274899999999995</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8.2011679999999991</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15.807159</v>
+      </c>
+      <c r="D11" s="1">
+        <v>22.984065000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30.489934000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>37.900548000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45.446615999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.69511500000000004</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.2028949999999998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15.800069000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>22.912797999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>30.429576999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>38.210056000000002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45.849051000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.70209100000000002</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8.1702490000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15.789232999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>23.167394000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>30.487176999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>37.946930000000002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45.842092999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.70241100000000001</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8.2277280000000008</v>
+      </c>
+      <c r="C14" s="1">
+        <v>15.789659</v>
+      </c>
+      <c r="D14" s="1">
+        <v>22.908667999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>30.530031000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>37.811478999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45.443024000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.71365599999999996</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8.2370859999999997</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15.754818999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>23.184457999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>30.292079999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>37.918551000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45.463678999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.70660400000000001</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8.2287289999999995</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15.624706</v>
+      </c>
+      <c r="D16" s="1">
+        <v>22.991171999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>30.366378999999998</v>
+      </c>
+      <c r="F16" s="1">
+        <v>37.976894000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45.698956000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.70759499999999997</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8.134976</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15.678658</v>
+      </c>
+      <c r="D17" s="1">
+        <v>23.249084</v>
+      </c>
+      <c r="E17" s="1">
+        <v>30.131889999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>38.114376</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45.473585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.706596</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8.1995310000000003</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15.639167</v>
+      </c>
+      <c r="D18" s="1">
+        <v>23.050329000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>30.505979</v>
+      </c>
+      <c r="F18" s="1">
+        <v>37.992153000000002</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45.304954000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.69668300000000005</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8.1902220000000003</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15.752895000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>23.212696999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>30.514828000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>38.117981</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45.430436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.70611400000000002</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.2036879999999996</v>
+      </c>
+      <c r="C20" s="1">
+        <v>15.540959000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>22.897677000000002</v>
+      </c>
+      <c r="E20" s="1">
+        <v>30.556992999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>37.905152000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45.679588000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.72446900000000003</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8.2028060000000007</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15.663026</v>
+      </c>
+      <c r="D21" s="1">
+        <v>22.975595999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30.588861999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>38.049903</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45.851165999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.71825000000000006</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8.2160469999999997</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15.709089000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>22.714199000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>30.556753</v>
+      </c>
+      <c r="F22" s="1">
+        <v>38.057431000000001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45.686298000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.72056600000000004</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8.2080169999999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>15.533906999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22.852091000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>30.626076999999999</v>
+      </c>
+      <c r="F23" s="1">
+        <v>38.006081000000002</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45.660473000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.71509599999999995</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8.2149979999999996</v>
+      </c>
+      <c r="C24" s="1">
+        <v>15.695615999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>23.212513000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>30.589756999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>37.888452999999998</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45.747912999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.71365800000000001</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.2027099999999997</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15.596434</v>
+      </c>
+      <c r="D25" s="1">
+        <v>22.976042</v>
+      </c>
+      <c r="E25" s="1">
+        <v>30.479143000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>38.029640999999998</v>
+      </c>
+      <c r="G25" s="1">
+        <v>45.815961000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0.71960199999999996</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8.2283519999999992</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15.543747</v>
+      </c>
+      <c r="D26" s="1">
+        <v>22.935155999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>30.610696000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>38.020178000000001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45.679850999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T29" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8604,7 +8675,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1">
         <v>30.393844000000001</v>

--- a/testOpenCV/tg_r2.xlsx
+++ b/testOpenCV/tg_r2.xlsx
@@ -1108,7 +1108,7 @@
                   <c:y val="0.3051388888888889"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1386,6 +1386,406 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t>25 målinger i hver højde (071217) * stddev</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35073553740812285"/>
+          <c:y val="2.777771199652675E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2b'!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2b'!$R$2:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5834934350248079E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5773929179680312E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10600112330280584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14536758340926614</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1104213847353706</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16918914996833218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18683792387140402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C66-4BD4-B41A-466B04A747E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="356757008"/>
+        <c:axId val="356759304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="356757008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356759304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="356759304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356757008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2674,6 +3074,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4223,6 +4663,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4844,6 +5800,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB4128C-64E6-4F21-8D86-826572507EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6690,7 +7684,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="A1:XFD1048576"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7415,7 +8409,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testOpenCV/tg_r2.xlsx
+++ b/testOpenCV/tg_r2.xlsx
@@ -9,19 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="6" r:id="rId2"/>
     <sheet name="2b" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="4" sheetId="7" r:id="rId4"/>
     <sheet name="Statiske 1-5mm" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-  </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>#1</t>
   </si>
@@ -62,21 +59,6 @@
   </si>
   <si>
     <t>#10</t>
-  </si>
-  <si>
-    <t>Average of 1</t>
-  </si>
-  <si>
-    <t>Average of 2</t>
-  </si>
-  <si>
-    <t>Average of 3</t>
-  </si>
-  <si>
-    <t>Average of 4</t>
-  </si>
-  <si>
-    <t>Average of 5</t>
   </si>
   <si>
     <t>Sum</t>
@@ -145,10 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -292,11 +273,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.9234470691163604E-4"/>
-                  <c:y val="0.3051388888888889"/>
+                  <c:x val="5.2475039749783917E-2"/>
+                  <c:y val="0.29785645215400708"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000000000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -698,11 +679,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.9234470691163604E-4"/>
-                  <c:y val="0.3051388888888889"/>
+                  <c:x val="5.7085990479415434E-2"/>
+                  <c:y val="0.30605608509462634"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000000000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1104,11 +1085,11 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.9234470691163604E-4"/>
-                  <c:y val="0.3051388888888889"/>
+                  <c:x val="3.2494253254714001E-2"/>
+                  <c:y val="0.30565014899453358"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000000000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1798,944 +1779,251 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[tg_r2.xlsx]Sheet5!PivotTable27</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t>25 målinger i hver højde (4 * ~23.03mm bredde) (071217) *</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26620144069821172"/>
+          <c:y val="2.777771199652675E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="da-DK"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.9234470691163604E-4"/>
+                  <c:y val="0.3051388888888889"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000000000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$A$2</c:f>
+              <c:f>'4'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.3092618999999992</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6094-4978-AF4F-44B109F5D88E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="da-DK"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$B$2</c:f>
+              <c:f>'4'!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>16.409467299999999</c:v>
+                  <c:v>1.7928797999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7613972000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.121056159999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.577908319999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.100745319999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.998635080000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.633528200000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6094-4978-AF4F-44B109F5D88E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="da-DK"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>23.688201099999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6094-4978-AF4F-44B109F5D88E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="da-DK"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30.752882899999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6094-4978-AF4F-44B109F5D88E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="da-DK"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>38.897277499999994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6094-4978-AF4F-44B109F5D88E}"/>
+              <c16:uniqueId val="{00000001-C56F-4D27-B757-E00BE887F16C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:axId val="512461592"/>
-        <c:axId val="512460936"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="512461592"/>
+        <c:axId val="356757008"/>
+        <c:axId val="356759304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="356757008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2745,8 +2033,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2773,28 +2061,45 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512460936"/>
+        <c:crossAx val="356759304"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="512460936"/>
+        <c:axId val="356759304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2818,9 +2123,9 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512461592"/>
+        <c:crossAx val="356757008"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2830,37 +2135,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2895,22 +2169,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -5179,7 +4437,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5206,8 +4464,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5308,7 +4566,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5340,10 +4598,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5383,22 +4641,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5503,8 +4762,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5636,19 +4895,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5662,6 +4922,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5850,15 +5121,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5866,11 +5137,13 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111BFDD4-E68A-451E-8EE9-86969DA281E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4ECF62-BA29-42DB-914B-D66126B7479D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5885,210 +5158,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Rudy Alex Kohn" refreshedDate="42920.646131018519" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B1:I11" sheet="Statiske 1-5mm"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="1" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.1957799999999992" maxValue="9.9805969999999995"/>
-    </cacheField>
-    <cacheField name="2" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.809569" maxValue="17.085523999999999"/>
-    </cacheField>
-    <cacheField name="3" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="22.635497000000001" maxValue="24.485149"/>
-    </cacheField>
-    <cacheField name="4" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="30.122298000000001" maxValue="31.392472999999999"/>
-    </cacheField>
-    <cacheField name="5" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="37.921579000000001" maxValue="39.489227"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
-  <r>
-    <n v="9.2969059999999999"/>
-    <n v="16.441233"/>
-    <n v="23.515231"/>
-    <n v="31.392472999999999"/>
-    <n v="38.605896999999999"/>
-  </r>
-  <r>
-    <n v="9.2290399999999995"/>
-    <n v="16.150548000000001"/>
-    <n v="24.456081999999999"/>
-    <n v="31.068819999999999"/>
-    <n v="39.166429000000001"/>
-  </r>
-  <r>
-    <n v="9.9805969999999995"/>
-    <n v="16.422732"/>
-    <n v="24.485149"/>
-    <n v="30.122298000000001"/>
-    <n v="38.496259000000002"/>
-  </r>
-  <r>
-    <n v="9.2185299999999994"/>
-    <n v="16.376899000000002"/>
-    <n v="22.827715999999999"/>
-    <n v="30.620356999999998"/>
-    <n v="38.007728999999998"/>
-  </r>
-  <r>
-    <n v="9.2144890000000004"/>
-    <n v="16.221957"/>
-    <n v="24.403165000000001"/>
-    <n v="30.362038999999999"/>
-    <n v="39.331057000000001"/>
-  </r>
-  <r>
-    <n v="9.1957799999999992"/>
-    <n v="15.809569"/>
-    <n v="24.336946000000001"/>
-    <n v="30.433250000000001"/>
-    <n v="39.166576999999997"/>
-  </r>
-  <r>
-    <n v="9.1970849999999995"/>
-    <n v="16.726089999999999"/>
-    <n v="23.396470999999998"/>
-    <n v="30.123169000000001"/>
-    <n v="39.489227"/>
-  </r>
-  <r>
-    <n v="9.3070740000000001"/>
-    <n v="16.141902000000002"/>
-    <n v="23.530507"/>
-    <n v="31.236001999999999"/>
-    <n v="37.921579000000001"/>
-  </r>
-  <r>
-    <n v="9.2109810000000003"/>
-    <n v="16.718219000000001"/>
-    <n v="22.635497000000001"/>
-    <n v="31.081012999999999"/>
-    <n v="39.371673999999999"/>
-  </r>
-  <r>
-    <n v="9.2421369999999996"/>
-    <n v="17.085523999999999"/>
-    <n v="23.295247"/>
-    <n v="31.089407999999999"/>
-    <n v="39.416347000000002"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable27" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:E2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Average of 1" fld="0" subtotal="average" baseField="1" baseItem="6799796"/>
-    <dataField name="Average of 2" fld="1" subtotal="average" baseField="1" baseItem="6799796"/>
-    <dataField name="Average of 3" fld="2" subtotal="average" baseField="1" baseItem="6799796"/>
-    <dataField name="Average of 4" fld="3" subtotal="average" baseField="1" baseItem="6799796"/>
-    <dataField name="Average of 5" fld="4" subtotal="average" baseField="1" baseItem="6799796"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6391,7 +5460,7 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y39" sqref="Y39"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6424,13 +5493,13 @@
         <v>6</v>
       </c>
       <c r="P1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -6467,7 +5536,7 @@
         <v>0.68694118024230966</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -6572,7 +5641,7 @@
         <v>0.41474217877127523</v>
       </c>
       <c r="S5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -7160,7 +6229,7 @@
         <v>45.256993000000001</v>
       </c>
       <c r="T29" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -7186,7 +6255,7 @@
         <v>45.668573000000002</v>
       </c>
       <c r="T30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -7683,8 +6752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7729,13 +6798,13 @@
         <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -7772,7 +6841,7 @@
         <v>0.86350034489207916</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -8395,7 +7464,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T29" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -8408,8 +7477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8454,13 +7523,13 @@
         <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8497,7 +7566,7 @@
         <v>1.5834934350248079E-2</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -9120,7 +8189,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -9132,54 +8201,701 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>9.3092618999999992</v>
-      </c>
-      <c r="B2" s="2">
-        <v>16.409467299999999</v>
-      </c>
-      <c r="C2" s="2">
-        <v>23.688201099999993</v>
-      </c>
-      <c r="D2" s="2">
-        <v>30.752882899999996</v>
-      </c>
-      <c r="E2" s="2">
-        <v>38.897277499999994</v>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.7258260000000001</v>
+      </c>
+      <c r="B2">
+        <v>9.8395139999999994</v>
+      </c>
+      <c r="C2">
+        <v>16.257453999999999</v>
+      </c>
+      <c r="D2">
+        <v>24.796906</v>
+      </c>
+      <c r="E2">
+        <v>32.027147999999997</v>
+      </c>
+      <c r="F2">
+        <v>39.976008999999998</v>
+      </c>
+      <c r="G2">
+        <v>47.602238</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(A2:A26)</f>
+        <v>1.7928797999999997</v>
+      </c>
+      <c r="K2">
+        <f>_xlfn.STDEV.P(A2:A26)</f>
+        <v>0.25207450750553984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.739511</v>
+      </c>
+      <c r="B3">
+        <v>9.850911</v>
+      </c>
+      <c r="C3">
+        <v>17.518443999999999</v>
+      </c>
+      <c r="D3">
+        <v>24.495242000000001</v>
+      </c>
+      <c r="E3">
+        <v>32.320656999999997</v>
+      </c>
+      <c r="F3">
+        <v>39.837851999999998</v>
+      </c>
+      <c r="G3">
+        <v>47.954763</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(B2:B26)</f>
+        <v>9.7613972000000011</v>
+      </c>
+      <c r="K3">
+        <f>_xlfn.STDEV.P(B2:B26)</f>
+        <v>0.21738084451450626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.9168069999999999</v>
+      </c>
+      <c r="B4">
+        <v>9.7065509999999993</v>
+      </c>
+      <c r="C4">
+        <v>16.249403999999998</v>
+      </c>
+      <c r="D4">
+        <v>23.797788000000001</v>
+      </c>
+      <c r="E4">
+        <v>32.002999000000003</v>
+      </c>
+      <c r="F4">
+        <v>40.016463999999999</v>
+      </c>
+      <c r="G4">
+        <v>47.935161999999998</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(C2:C26)</f>
+        <v>17.121056159999998</v>
+      </c>
+      <c r="K4">
+        <f>_xlfn.STDEV.P(C2:C26)</f>
+        <v>0.45650594060929234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.1707990000000001</v>
+      </c>
+      <c r="B5">
+        <v>8.8240890000000007</v>
+      </c>
+      <c r="C5">
+        <v>16.230594</v>
+      </c>
+      <c r="D5">
+        <v>24.805136999999998</v>
+      </c>
+      <c r="E5">
+        <v>32.090808000000003</v>
+      </c>
+      <c r="F5">
+        <v>39.998458999999997</v>
+      </c>
+      <c r="G5">
+        <v>47.605502000000001</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(D2:D26)</f>
+        <v>24.577908319999995</v>
+      </c>
+      <c r="K5">
+        <f>_xlfn.STDEV.P(D2:D26)</f>
+        <v>0.1918651136196925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.920256</v>
+      </c>
+      <c r="B6">
+        <v>9.8690429999999996</v>
+      </c>
+      <c r="C6">
+        <v>17.525787000000001</v>
+      </c>
+      <c r="D6">
+        <v>24.827484999999999</v>
+      </c>
+      <c r="E6">
+        <v>32.150499000000003</v>
+      </c>
+      <c r="F6">
+        <v>39.989241999999997</v>
+      </c>
+      <c r="G6">
+        <v>47.579222999999999</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE(E2:E26)</f>
+        <v>32.100745319999994</v>
+      </c>
+      <c r="K6">
+        <f>_xlfn.STDEV.P(E2:E26)</f>
+        <v>0.18017463405501191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.028081</v>
+      </c>
+      <c r="B7">
+        <v>9.841405</v>
+      </c>
+      <c r="C7">
+        <v>17.517393999999999</v>
+      </c>
+      <c r="D7">
+        <v>24.521170000000001</v>
+      </c>
+      <c r="E7">
+        <v>32.402822</v>
+      </c>
+      <c r="F7">
+        <v>40.003748999999999</v>
+      </c>
+      <c r="G7">
+        <v>47.581426</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE(F2:F26)</f>
+        <v>39.998635080000007</v>
+      </c>
+      <c r="K7">
+        <f>_xlfn.STDEV.P(F2:F26)</f>
+        <v>4.9209310460457047E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.172536</v>
+      </c>
+      <c r="B8">
+        <v>9.9040689999999998</v>
+      </c>
+      <c r="C8">
+        <v>17.514074999999998</v>
+      </c>
+      <c r="D8">
+        <v>24.495625</v>
+      </c>
+      <c r="E8">
+        <v>31.8992</v>
+      </c>
+      <c r="F8">
+        <v>40.002980000000001</v>
+      </c>
+      <c r="G8">
+        <v>47.539121000000002</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE(G2:G26)</f>
+        <v>47.633528200000001</v>
+      </c>
+      <c r="K8">
+        <f>_xlfn.STDEV.P(G2:G26)</f>
+        <v>0.13829212922852829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.7607600000000001</v>
+      </c>
+      <c r="B9">
+        <v>9.6520220000000005</v>
+      </c>
+      <c r="C9">
+        <v>17.524025999999999</v>
+      </c>
+      <c r="D9">
+        <v>24.551812000000002</v>
+      </c>
+      <c r="E9">
+        <v>32.126716999999999</v>
+      </c>
+      <c r="F9">
+        <v>39.976962</v>
+      </c>
+      <c r="G9">
+        <v>47.590766000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.928375</v>
+      </c>
+      <c r="B10">
+        <v>9.9033300000000004</v>
+      </c>
+      <c r="C10">
+        <v>17.329274999999999</v>
+      </c>
+      <c r="D10">
+        <v>24.535979999999999</v>
+      </c>
+      <c r="E10">
+        <v>32.420777999999999</v>
+      </c>
+      <c r="F10">
+        <v>40.015309000000002</v>
+      </c>
+      <c r="G10">
+        <v>47.591909000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.4971909999999999</v>
+      </c>
+      <c r="B11">
+        <v>9.9016839999999995</v>
+      </c>
+      <c r="C11">
+        <v>17.214029</v>
+      </c>
+      <c r="D11">
+        <v>24.763902999999999</v>
+      </c>
+      <c r="E11">
+        <v>31.911674000000001</v>
+      </c>
+      <c r="F11">
+        <v>40.013072999999999</v>
+      </c>
+      <c r="G11">
+        <v>47.718803999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.7677020000000001</v>
+      </c>
+      <c r="B12">
+        <v>9.6327879999999997</v>
+      </c>
+      <c r="C12">
+        <v>17.450209999999998</v>
+      </c>
+      <c r="D12">
+        <v>24.571898000000001</v>
+      </c>
+      <c r="E12">
+        <v>32.157187999999998</v>
+      </c>
+      <c r="F12">
+        <v>39.976764000000003</v>
+      </c>
+      <c r="G12">
+        <v>47.920110999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.7609170000000001</v>
+      </c>
+      <c r="B13">
+        <v>9.9392560000000003</v>
+      </c>
+      <c r="C13">
+        <v>17.236989000000001</v>
+      </c>
+      <c r="D13">
+        <v>24.562683</v>
+      </c>
+      <c r="E13">
+        <v>32.408901</v>
+      </c>
+      <c r="F13">
+        <v>40.020828999999999</v>
+      </c>
+      <c r="G13">
+        <v>47.542459999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.5168779999999999</v>
+      </c>
+      <c r="B14">
+        <v>9.6363199999999996</v>
+      </c>
+      <c r="C14">
+        <v>17.352374999999999</v>
+      </c>
+      <c r="D14">
+        <v>24.634727000000002</v>
+      </c>
+      <c r="E14">
+        <v>32.141936000000001</v>
+      </c>
+      <c r="F14">
+        <v>40.018282999999997</v>
+      </c>
+      <c r="G14">
+        <v>47.541615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.758535</v>
+      </c>
+      <c r="B15">
+        <v>9.7307629999999996</v>
+      </c>
+      <c r="C15">
+        <v>17.286449000000001</v>
+      </c>
+      <c r="D15">
+        <v>24.637250999999999</v>
+      </c>
+      <c r="E15">
+        <v>32.127597999999999</v>
+      </c>
+      <c r="F15">
+        <v>40.017423999999998</v>
+      </c>
+      <c r="G15">
+        <v>47.948822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.7537990000000001</v>
+      </c>
+      <c r="B16">
+        <v>9.8226829999999996</v>
+      </c>
+      <c r="C16">
+        <v>17.325688</v>
+      </c>
+      <c r="D16">
+        <v>24.496926999999999</v>
+      </c>
+      <c r="E16">
+        <v>31.867318000000001</v>
+      </c>
+      <c r="F16">
+        <v>40.161549000000001</v>
+      </c>
+      <c r="G16">
+        <v>47.560693999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.7602709999999999</v>
+      </c>
+      <c r="B17">
+        <v>9.7057570000000002</v>
+      </c>
+      <c r="C17">
+        <v>17.286742</v>
+      </c>
+      <c r="D17">
+        <v>24.545062999999999</v>
+      </c>
+      <c r="E17">
+        <v>32.329726999999998</v>
+      </c>
+      <c r="F17">
+        <v>40.006608</v>
+      </c>
+      <c r="G17">
+        <v>47.587207999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.753452</v>
+      </c>
+      <c r="B18">
+        <v>9.9981399999999994</v>
+      </c>
+      <c r="C18">
+        <v>16.228027999999998</v>
+      </c>
+      <c r="D18">
+        <v>24.638643999999999</v>
+      </c>
+      <c r="E18">
+        <v>32.080207999999999</v>
+      </c>
+      <c r="F18">
+        <v>39.993946000000001</v>
+      </c>
+      <c r="G18">
+        <v>47.567107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.7619910000000001</v>
+      </c>
+      <c r="B19">
+        <v>9.734057</v>
+      </c>
+      <c r="C19">
+        <v>17.133213000000001</v>
+      </c>
+      <c r="D19">
+        <v>24.537465000000001</v>
+      </c>
+      <c r="E19">
+        <v>32.007638999999998</v>
+      </c>
+      <c r="F19">
+        <v>39.998990999999997</v>
+      </c>
+      <c r="G19">
+        <v>47.576293999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.7673680000000001</v>
+      </c>
+      <c r="B20">
+        <v>9.8265270000000005</v>
+      </c>
+      <c r="C20">
+        <v>17.255462000000001</v>
+      </c>
+      <c r="D20">
+        <v>24.560856999999999</v>
+      </c>
+      <c r="E20">
+        <v>31.885556000000001</v>
+      </c>
+      <c r="F20">
+        <v>39.973894999999999</v>
+      </c>
+      <c r="G20">
+        <v>47.576602000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.765336</v>
+      </c>
+      <c r="B21">
+        <v>9.8969699999999996</v>
+      </c>
+      <c r="C21">
+        <v>17.601274</v>
+      </c>
+      <c r="D21">
+        <v>24.823826</v>
+      </c>
+      <c r="E21">
+        <v>32.257447999999997</v>
+      </c>
+      <c r="F21">
+        <v>39.998190000000001</v>
+      </c>
+      <c r="G21">
+        <v>47.563929000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.767085</v>
+      </c>
+      <c r="B22">
+        <v>9.9111700000000003</v>
+      </c>
+      <c r="C22">
+        <v>17.203724999999999</v>
+      </c>
+      <c r="D22">
+        <v>24.605036999999999</v>
+      </c>
+      <c r="E22">
+        <v>32.265718</v>
+      </c>
+      <c r="F22">
+        <v>39.988343999999998</v>
+      </c>
+      <c r="G22">
+        <v>47.526573999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.769163</v>
+      </c>
+      <c r="B23">
+        <v>9.7504159999999995</v>
+      </c>
+      <c r="C23">
+        <v>17.060317999999999</v>
+      </c>
+      <c r="D23">
+        <v>24.481739999999999</v>
+      </c>
+      <c r="E23">
+        <v>31.866209999999999</v>
+      </c>
+      <c r="F23">
+        <v>39.993374000000003</v>
+      </c>
+      <c r="G23">
+        <v>47.545099999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.771496</v>
+      </c>
+      <c r="B24">
+        <v>9.6222189999999994</v>
+      </c>
+      <c r="C24">
+        <v>17.227077999999999</v>
+      </c>
+      <c r="D24">
+        <v>24.537808999999999</v>
+      </c>
+      <c r="E24">
+        <v>31.93216</v>
+      </c>
+      <c r="F24">
+        <v>39.946492999999997</v>
+      </c>
+      <c r="G24">
+        <v>47.549948000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.5200149999999999</v>
+      </c>
+      <c r="B25">
+        <v>9.7320349999999998</v>
+      </c>
+      <c r="C25">
+        <v>16.276350999999998</v>
+      </c>
+      <c r="D25">
+        <v>24.637855999999999</v>
+      </c>
+      <c r="E25">
+        <v>31.845690999999999</v>
+      </c>
+      <c r="F25">
+        <v>40.018653</v>
+      </c>
+      <c r="G25">
+        <v>47.563929000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.7678450000000001</v>
+      </c>
+      <c r="B26">
+        <v>9.8032109999999992</v>
+      </c>
+      <c r="C26">
+        <v>17.222020000000001</v>
+      </c>
+      <c r="D26">
+        <v>24.584876999999999</v>
+      </c>
+      <c r="E26">
+        <v>31.992032999999999</v>
+      </c>
+      <c r="F26">
+        <v>40.022435000000002</v>
+      </c>
+      <c r="G26">
+        <v>47.568897999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9195,62 +8911,62 @@
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
     <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="21" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>16</v>
+      <c r="T1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -9272,7 +8988,7 @@
       <c r="F2" s="1">
         <v>38.605896999999999</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" s="1">
@@ -9333,7 +9049,7 @@
       <c r="F3" s="1">
         <v>39.166429000000001</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>2</v>
       </c>
       <c r="J3" s="1">
@@ -9394,7 +9110,7 @@
       <c r="F4" s="1">
         <v>38.496259000000002</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>3</v>
       </c>
       <c r="J4" s="1">
@@ -9455,7 +9171,7 @@
       <c r="F5" s="1">
         <v>38.007728999999998</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>4</v>
       </c>
       <c r="J5" s="1">
@@ -9516,7 +9232,7 @@
       <c r="F6" s="1">
         <v>39.331057000000001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>5</v>
       </c>
       <c r="J6" s="1">
@@ -9617,7 +9333,7 @@
       <c r="F9" s="1">
         <v>37.921579000000001</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>1</v>
       </c>
     </row>
@@ -9640,7 +9356,7 @@
       <c r="F10" s="1">
         <v>39.371673999999999</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>2</v>
       </c>
     </row>
@@ -9663,13 +9379,13 @@
       <c r="F11" s="1">
         <v>39.416347000000002</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I12" s="3" t="s">
-        <v>17</v>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J12" s="1">
         <v>30.393844000000001</v>
@@ -9697,7 +9413,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>5</v>
       </c>
       <c r="J13" s="1">

--- a/testOpenCV/tg_r2.xlsx
+++ b/testOpenCV/tg_r2.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="6" r:id="rId2"/>
-    <sheet name="2b" sheetId="4" r:id="rId3"/>
-    <sheet name="4" sheetId="7" r:id="rId4"/>
-    <sheet name="Statiske 1-5mm" sheetId="2" r:id="rId5"/>
+    <sheet name="1 - 50" sheetId="1" r:id="rId1"/>
+    <sheet name="1 - 25a" sheetId="6" r:id="rId2"/>
+    <sheet name="1 - 25b" sheetId="4" r:id="rId3"/>
+    <sheet name="4 - 25" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -29,43 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#4</t>
-  </si>
-  <si>
-    <t>#5</t>
-  </si>
-  <si>
-    <t>#6</t>
-  </si>
-  <si>
-    <t>#7</t>
-  </si>
-  <si>
-    <t>#8</t>
-  </si>
-  <si>
-    <t>#9</t>
-  </si>
-  <si>
-    <t>#10</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>4</t>
   </si>
@@ -79,19 +42,34 @@
     <t>stddev</t>
   </si>
   <si>
-    <t>*</t>
+    <t>b</t>
   </si>
   <si>
-    <t>**</t>
+    <t>a</t>
   </si>
   <si>
-    <t>**) Mindre udsving kan forekomme, grundet lokale forstyrrelser, som f.eks. En arm placeres på bordet.</t>
+    <t>0</t>
   </si>
   <si>
-    <t>*) Målingsmetoden er ikke hjulpet af den regulære baggrund hvor laseren normalt er lokaliseret</t>
+    <t>1</t>
   </si>
   <si>
-    <t>*) Nulværdier er baseret på basis af samme keramikoverflade hvor stripehøjden er målt</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>px2mm</t>
+  </si>
+  <si>
+    <t>dev‰</t>
   </si>
 </sst>
 </file>
@@ -130,12 +108,169 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="52">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -193,8 +328,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36456838959701743"/>
-          <c:y val="2.777771199652675E-2"/>
+          <c:x val="0.29131915259775082"/>
+          <c:y val="2.7777701700330941E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -236,7 +371,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -309,7 +444,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$P$2:$P$8</c:f>
+              <c:f>'1 - 50'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -339,7 +474,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$Q$2:$Q$8</c:f>
+              <c:f>'1 - 50'!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -389,6 +524,7 @@
         <c:axId val="356757008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -642,7 +778,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -679,8 +815,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.7085990479415434E-2"/>
-                  <c:y val="0.30605608509462634"/>
+                  <c:x val="-5.273511488008386E-2"/>
+                  <c:y val="0.37752891278200612"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="#,##0.000000000000000" sourceLinked="0"/>
@@ -715,7 +851,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2'!$P$2:$P$8</c:f>
+              <c:f>'1 - 25a'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -745,7 +881,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2'!$Q$2:$Q$8</c:f>
+              <c:f>'1 - 25a'!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -795,6 +931,7 @@
         <c:axId val="356757008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1048,7 +1185,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1121,7 +1258,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2b'!$P$2:$P$8</c:f>
+              <c:f>'1 - 25b'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1151,7 +1288,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2b'!$Q$2:$Q$8</c:f>
+              <c:f>'1 - 25b'!$J$2:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1201,6 +1338,7 @@
         <c:axId val="356757008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1221,7 +1359,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1258,6 +1396,7 @@
         <c:crossAx val="356759304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="356759304"/>
@@ -1367,406 +1506,6 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="da-DK" baseline="0"/>
-              <a:t>25 målinger i hver højde (071217) * stddev</a:t>
-            </a:r>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35073553740812285"/>
-          <c:y val="2.777771199652675E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2b'!$P$2:$P$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2b'!$R$2:$R$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.5834934350248079E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5773929179680312E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.10600112330280584</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14536758340926614</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1104213847353706</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16918914996833218</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.18683792387140402</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2C66-4BD4-B41A-466B04A747E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="356757008"/>
-        <c:axId val="356759304"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="356757008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="356759304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="356759304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="356757008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1927,7 +1666,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'4'!$I$2:$I$8</c:f>
+              <c:f>'4 - 25'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1957,9 +1696,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4'!$J$2:$J$8</c:f>
+              <c:f>'4 - 25'!$J$2:$J$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.7928797999999997</c:v>
@@ -2007,6 +1746,7 @@
         <c:axId val="356757008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2069,6 +1809,7 @@
         <c:axId val="356759304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2086,7 +1827,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2332,46 +2073,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4436,536 +4137,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4990,6 +4175,750 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1560171" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09944804-3E20-4949-9691-80B28CF32556}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10591800" y="219075"/>
+              <a:ext cx="1560171" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=7,46</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>689414857143 </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09944804-3E20-4949-9691-80B28CF32556}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10591800" y="219075"/>
+              <a:ext cx="1560171" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>7,46689414857143</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>603218</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17938</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1573251" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8990B93-BD5C-4802-AFFE-F507ECB85B3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10604468" y="398938"/>
+              <a:ext cx="1573251" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0,705060611428582</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8990B93-BD5C-4802-AFFE-F507ECB85B3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10604468" y="398938"/>
+              <a:ext cx="1573251" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0,705060611428582</a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2062038" cy="337593"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2708A038-7218-4337-8D79-9E850A2B5C9C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10306050" y="962025"/>
+              <a:ext cx="2062038" cy="337593"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="da-DK"/>
+                      <m:t>‰</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="|"/>
+                        <m:endChr m:val="|"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑚</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑚</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗1000</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>     </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2708A038-7218-4337-8D79-9E850A2B5C9C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10306050" y="962025"/>
+              <a:ext cx="2062038" cy="337593"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑𝑒𝑣</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>‰</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=|𝑝𝑥2𝑚𝑚 −𝑚𝑚|  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗1000</a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>     </a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1239827" cy="320280"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C20064-60ED-42E5-BCE3-95FEF515B735}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10220325" y="619125"/>
+              <a:ext cx="1239827" cy="320280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑝𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑚</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑣𝑔</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C20064-60ED-42E5-BCE3-95FEF515B735}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10220325" y="619125"/>
+              <a:ext cx="1239827" cy="320280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝𝑥2𝑚𝑚=  (𝑎𝑣𝑔 −𝑏)/𝑎</a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4997,16 +4926,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5033,6 +4962,791 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1007392" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F56090-5549-4271-BFBC-EC32B38F94F8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10525125" y="200025"/>
+              <a:ext cx="1007392" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <m:t>7,30409764</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F56090-5549-4271-BFBC-EC32B38F94F8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10525125" y="200025"/>
+              <a:ext cx="1007392" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>7,30409764</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>527018</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8413</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1473865" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7F03FE-F9F1-452E-8E70-2241A5391FD0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10528268" y="389413"/>
+              <a:ext cx="1473865" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <m:t>1,410512148571440</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7F03FE-F9F1-452E-8E70-2241A5391FD0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10528268" y="389413"/>
+              <a:ext cx="1473865" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0" baseline="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1,410512148571440</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" i="0" baseline="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2062038" cy="337593"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06908E0C-32C2-46CB-8F58-46F8575A8093}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10229850" y="981075"/>
+              <a:ext cx="2062038" cy="337593"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="da-DK"/>
+                      <m:t>‰</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="|"/>
+                        <m:endChr m:val="|"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑚</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑚</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗1000</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>     </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06908E0C-32C2-46CB-8F58-46F8575A8093}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10229850" y="981075"/>
+              <a:ext cx="2062038" cy="337593"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑𝑒𝑣</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>‰</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=|𝑝𝑥2𝑚𝑚 −𝑚𝑚|  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗1000</a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>     </a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1239827" cy="320280"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C88C95E-E890-4147-965E-5F52A92EF0C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10144125" y="619125"/>
+              <a:ext cx="1239827" cy="320280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑝𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑚</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑣𝑔</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C88C95E-E890-4147-965E-5F52A92EF0C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10144125" y="619125"/>
+              <a:ext cx="1239827" cy="320280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝𝑥2𝑚𝑚=  (𝑎𝑣𝑔 −𝑏)/𝑎</a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5040,16 +5754,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5076,44 +5790,750 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB4128C-64E6-4F21-8D86-826572507EB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:ext cx="1560171" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76F64DF-E536-44A1-B3E5-62BD2C3F0CB8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10515600" y="180975"/>
+              <a:ext cx="1560171" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=7,46</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>689414857143 </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76F64DF-E536-44A1-B3E5-62BD2C3F0CB8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10515600" y="180975"/>
+              <a:ext cx="1560171" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>7,46689414857143</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>536543</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8413</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1573251" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD861C4-8E6E-4E57-A7EA-5C746A3350A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10537793" y="389413"/>
+              <a:ext cx="1573251" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0,705060611428582</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD861C4-8E6E-4E57-A7EA-5C746A3350A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10537793" y="389413"/>
+              <a:ext cx="1573251" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0,705060611428582</a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2062038" cy="337593"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF1CA99-D689-4600-9192-E35E5F32E6C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10267950" y="962025"/>
+              <a:ext cx="2062038" cy="337593"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="da-DK"/>
+                      <m:t>‰</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="|"/>
+                        <m:endChr m:val="|"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑚</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑚</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗1000</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>     </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF1CA99-D689-4600-9192-E35E5F32E6C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10267950" y="962025"/>
+              <a:ext cx="2062038" cy="337593"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑𝑒𝑣</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>‰</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=|𝑝𝑥2𝑚𝑚 −𝑚𝑚|  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗1000</a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>     </a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1239827" cy="320280"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A709636-A711-4AE3-A4EB-CEDD38E502B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10163175" y="600075"/>
+              <a:ext cx="1239827" cy="320280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑝𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑚</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑣𝑔</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A709636-A711-4AE3-A4EB-CEDD38E502B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10163175" y="600075"/>
+              <a:ext cx="1239827" cy="320280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝𝑥2𝑚𝑚=  (𝑎𝑣𝑔 −𝑏)/𝑎</a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5122,15 +6542,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>223838</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5157,7 +6577,967 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1560171" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF63CF2-D16A-4C7D-AD4E-05963E86011B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10077450" y="247650"/>
+              <a:ext cx="1560171" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=7,60</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>628964714286 </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF63CF2-D16A-4C7D-AD4E-05963E86011B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10077450" y="247650"/>
+              <a:ext cx="1560171" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>7,60628964714286</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>517493</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>94138</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1495153" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892B2638-97CC-4DD1-9AFD-D02C4E829E61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10099643" y="475138"/>
+              <a:ext cx="1495153" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>1,89343821285715</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892B2638-97CC-4DD1-9AFD-D02C4E829E61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10099643" y="475138"/>
+              <a:ext cx="1495153" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1,89343821285715</a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2062038" cy="337593"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C50C6339-51FD-48FC-9B45-EEE68BFDB4E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9801225" y="1066800"/>
+              <a:ext cx="2062038" cy="337593"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="da-DK"/>
+                      <m:t>‰</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="|"/>
+                        <m:endChr m:val="|"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑝𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑚</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑚</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗1000</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>     </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C50C6339-51FD-48FC-9B45-EEE68BFDB4E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9801225" y="1066800"/>
+              <a:ext cx="2062038" cy="337593"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑𝑒𝑣</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>‰</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=|𝑝𝑥2𝑚𝑚 −𝑚𝑚|  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗1000</a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>     </a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1239827" cy="320280"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4C9291-53C1-476D-9968-D1A28E8E3009}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9715500" y="695325"/>
+              <a:ext cx="1239827" cy="320280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑝𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑚</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑣𝑔</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> −</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="da-DK" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4C9291-53C1-476D-9968-D1A28E8E3009}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9715500" y="695325"/>
+              <a:ext cx="1239827" cy="320280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="da-DK" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝𝑥2𝑚𝑚=  (𝑎𝑣𝑔 −𝑏)/𝑎</a:t>
+              </a:r>
+              <a:endParaRPr lang="da-DK" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table36810" displayName="Table36810" ref="I1:K8" totalsRowShown="0">
+  <autoFilter ref="I1:K8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="mm"/>
+    <tableColumn id="2" name="avg" dataDxfId="39"/>
+    <tableColumn id="3" name="stddev" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table27" displayName="Table27" ref="M1:N8" totalsRowShown="0">
+  <autoFilter ref="M1:N8"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="px2mm" dataDxfId="45">
+      <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="dev‰" dataDxfId="44">
+      <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:G26" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:G26"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="0" dataDxfId="19"/>
+    <tableColumn id="2" name="1" dataDxfId="18"/>
+    <tableColumn id="3" name="2" dataDxfId="17"/>
+    <tableColumn id="4" name="3" dataDxfId="16"/>
+    <tableColumn id="5" name="4" dataDxfId="15"/>
+    <tableColumn id="6" name="5" dataDxfId="14"/>
+    <tableColumn id="7" name="6" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="I10:J11" totalsRowShown="0">
+  <autoFilter ref="I10:J11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="a" dataDxfId="9"/>
+    <tableColumn id="2" name="b" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Målinger" displayName="Målinger" ref="A1:G26" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:G26"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="0" dataDxfId="7"/>
+    <tableColumn id="2" name="1" dataDxfId="6"/>
+    <tableColumn id="3" name="2" dataDxfId="5"/>
+    <tableColumn id="4" name="3" dataDxfId="4"/>
+    <tableColumn id="5" name="4" dataDxfId="3"/>
+    <tableColumn id="6" name="5" dataDxfId="2"/>
+    <tableColumn id="7" name="6" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="M1:N8" totalsRowShown="0">
+  <autoFilter ref="M1:N8"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="px2mm" dataDxfId="51">
+      <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="dev‰" dataDxfId="50">
+      <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="I1:K8" totalsRowShown="0">
+  <autoFilter ref="I1:K8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="mm"/>
+    <tableColumn id="2" name="avg" dataDxfId="49"/>
+    <tableColumn id="3" name="stddev" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="I10:J11" totalsRowShown="0">
+  <autoFilter ref="I10:J11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="a" dataDxfId="11"/>
+    <tableColumn id="2" name="b" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table27911" displayName="Table27911" ref="M1:N8" totalsRowShown="0">
+  <autoFilter ref="M1:N8"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="px2mm" dataDxfId="37">
+      <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="dev‰" dataDxfId="36">
+      <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:G51" totalsRowShown="0" headerRowDxfId="28">
+  <autoFilter ref="A1:G51"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="0" dataDxfId="35"/>
+    <tableColumn id="2" name="1" dataDxfId="34"/>
+    <tableColumn id="3" name="2" dataDxfId="33"/>
+    <tableColumn id="4" name="3" dataDxfId="32"/>
+    <tableColumn id="5" name="4" dataDxfId="31"/>
+    <tableColumn id="6" name="5" dataDxfId="30"/>
+    <tableColumn id="7" name="6" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="I10:J11" totalsRowShown="0">
+  <autoFilter ref="I10:J11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="a"/>
+    <tableColumn id="2" name="b"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table368" displayName="Table368" ref="I1:K8" totalsRowShown="0">
+  <autoFilter ref="I1:K8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="mm"/>
+    <tableColumn id="2" name="avg" dataDxfId="43"/>
+    <tableColumn id="3" name="stddev" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table279" displayName="Table279" ref="M1:N8" totalsRowShown="0">
+  <autoFilter ref="M1:N8"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="px2mm" dataDxfId="41">
+      <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="dev‰" dataDxfId="40">
+      <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:G26" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:G26"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="0" dataDxfId="27"/>
+    <tableColumn id="2" name="1" dataDxfId="26"/>
+    <tableColumn id="3" name="2" dataDxfId="25"/>
+    <tableColumn id="4" name="3" dataDxfId="24"/>
+    <tableColumn id="5" name="4" dataDxfId="23"/>
+    <tableColumn id="6" name="5" dataDxfId="22"/>
+    <tableColumn id="7" name="6" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="I10:J11" totalsRowShown="0">
+  <autoFilter ref="I10:J11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="a"/>
+    <tableColumn id="2" name="b"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="I1:K8" totalsRowShown="0">
+  <autoFilter ref="I1:K8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="mm"/>
+    <tableColumn id="2" name="avg" dataDxfId="47"/>
+    <tableColumn id="3" name="stddev" dataDxfId="46"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5457,52 +7837,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T51"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="1" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="21" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3.2434099999999999</v>
       </c>
@@ -5524,22 +7912,27 @@
       <c r="G2" s="1">
         <v>45.487141000000001</v>
       </c>
-      <c r="P2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="J2" s="1">
         <f>AVERAGE(A2:A51)</f>
         <v>2.9569165999999996</v>
       </c>
-      <c r="R2">
-        <f>STDEV(A2:A51)</f>
-        <v>0.68694118024230966</v>
-      </c>
-      <c r="S2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <f>_xlfn.STDEV.P(A2:A51)</f>
+        <v>0.68003707355587895</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(J2-$J$11)/$I$11</f>
+        <v>0.16847709266733335</v>
+      </c>
+      <c r="N2" s="1">
+        <f>ABS(M2-I2)*1000</f>
+        <v>168.47709266733335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.5791599999999999</v>
       </c>
@@ -5561,19 +7954,27 @@
       <c r="G3" s="1">
         <v>45.606758999999997</v>
       </c>
-      <c r="P3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="J3" s="1">
         <f>AVERAGE(B2:B51)</f>
         <v>8.182063160000002</v>
       </c>
-      <c r="R3">
-        <f>STDEV(B2:B51)</f>
-        <v>0.13391255152377057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <f>_xlfn.STDEV.P(B2:B51)</f>
+        <v>0.13256666257583152</v>
+      </c>
+      <c r="M3" s="1">
+        <f>(J3-$J$11)/$I$11</f>
+        <v>0.89495537312442275</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N8" si="0">ABS(M3-I3)*1000</f>
+        <v>105.04462687557725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3.2730700000000001</v>
       </c>
@@ -5595,19 +7996,27 @@
       <c r="G4" s="1">
         <v>45.473323000000001</v>
       </c>
-      <c r="P4">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="J4" s="1">
         <f>AVERAGE(C2:C51)</f>
         <v>15.730937959999999</v>
       </c>
-      <c r="R4">
-        <f>STDEV(C2:C51)</f>
-        <v>0.1108301042710557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <f>_xlfn.STDEV.P(C2:C26)</f>
+        <v>8.9007974635768414E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f>(J4-$J$11)/$I$11</f>
+        <v>1.9445132220988732</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>55.486777901126771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2.3410000000000002</v>
       </c>
@@ -5629,22 +8038,27 @@
       <c r="G5" s="1">
         <v>45.004337999999997</v>
       </c>
-      <c r="P5">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="J5" s="1">
         <f>AVERAGE(D2:D51)</f>
         <v>22.741547880000002</v>
       </c>
-      <c r="R5">
-        <f>STDEV(D2:D51)</f>
-        <v>0.41474217877127523</v>
-      </c>
-      <c r="S5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <f>_xlfn.STDEV.P(D2:D51)</f>
+        <v>0.41057380987455289</v>
+      </c>
+      <c r="M5" s="1">
+        <f>(J5-$J$11)/$I$11</f>
+        <v>2.9192334105479056</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>80.766589452094365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2.85602</v>
       </c>
@@ -5666,19 +8080,27 @@
       <c r="G6" s="1">
         <v>45.668478999999998</v>
       </c>
-      <c r="P6">
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="J6" s="1">
         <f>AVERAGE(E2:E51)</f>
         <v>30.447300559999995</v>
       </c>
-      <c r="R6">
-        <f>STDEV(E2:E51)</f>
-        <v>0.11968955577372917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <f>_xlfn.STDEV.P(E2:E51)</f>
+        <v>0.11848661513473313</v>
+      </c>
+      <c r="M6" s="1">
+        <f>(J6-$J$11)/$I$11</f>
+        <v>3.9906027764234535</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3972235765464873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.3264200000000002</v>
       </c>
@@ -5700,19 +8122,27 @@
       <c r="G7" s="1">
         <v>45.671895999999997</v>
       </c>
-      <c r="P7">
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="J7" s="1">
         <f>AVERAGE(F2:F51)</f>
         <v>37.688636120000005</v>
       </c>
-      <c r="R7">
-        <f>STDEV(F2:F51)</f>
-        <v>0.1307438143645713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <f>_xlfn.STDEV.P(F2:F51)</f>
+        <v>0.12942977282953694</v>
+      </c>
+      <c r="M7" s="1">
+        <f>(J7-$J$11)/$I$11</f>
+        <v>4.9974019054878029</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5980945121970578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3.3054199999999998</v>
       </c>
@@ -5734,19 +8164,27 @@
       <c r="G8" s="1">
         <v>45.561048999999997</v>
       </c>
-      <c r="P8">
+      <c r="I8">
         <v>6</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="J8" s="1">
         <f>AVERAGE(G2:G51)</f>
         <v>45.509791020000002</v>
       </c>
-      <c r="R8">
-        <f>STDEV(G2:G51)</f>
-        <v>0.13018107397124146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <f>_xlfn.STDEV.P(G2:G51)</f>
+        <v>0.12887268826209733</v>
+      </c>
+      <c r="M8" s="1">
+        <f>(J8-$J$11)/$I$11</f>
+        <v>6.0848162196502233</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>84.816219650223346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.28918</v>
       </c>
@@ -5769,7 +8207,7 @@
         <v>45.626207000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2.8544299999999998</v>
       </c>
@@ -5791,8 +8229,14 @@
       <c r="G10" s="1">
         <v>45.564689000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2.8735400000000002</v>
       </c>
@@ -5814,8 +8258,14 @@
       <c r="G11" s="1">
         <v>45.210921999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>7.1924332778571403</v>
+      </c>
+      <c r="J11">
+        <v>1.7451563521428499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2.8588900000000002</v>
       </c>
@@ -5838,7 +8288,7 @@
         <v>45.570596000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3.28369</v>
       </c>
@@ -5861,7 +8311,7 @@
         <v>45.746613000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3.27881</v>
       </c>
@@ -5884,7 +8334,7 @@
         <v>45.496529000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3.2846700000000002</v>
       </c>
@@ -5907,7 +8357,7 @@
         <v>45.542391000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2.8435700000000002</v>
       </c>
@@ -5930,7 +8380,7 @@
         <v>45.521802000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2.8740800000000002</v>
       </c>
@@ -5953,7 +8403,7 @@
         <v>45.455635999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2.8660299999999999</v>
       </c>
@@ -5976,7 +8426,7 @@
         <v>45.324975999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1.8220799999999999</v>
       </c>
@@ -5999,7 +8449,7 @@
         <v>45.488613999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.94232</v>
       </c>
@@ -6022,7 +8472,7 @@
         <v>45.537799999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3.6547900000000002</v>
       </c>
@@ -6045,7 +8495,7 @@
         <v>45.575493999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3.2837499999999999</v>
       </c>
@@ -6068,7 +8518,7 @@
         <v>45.578932000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2.8456399999999999</v>
       </c>
@@ -6091,7 +8541,7 @@
         <v>45.597287000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3.2759399999999999</v>
       </c>
@@ -6114,7 +8564,7 @@
         <v>45.374195999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1.94452</v>
       </c>
@@ -6137,7 +8587,7 @@
         <v>45.599074999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1.9436599999999999</v>
       </c>
@@ -6160,7 +8610,7 @@
         <v>45.494526999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3.20825</v>
       </c>
@@ -6183,7 +8633,7 @@
         <v>45.647556999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3.2975500000000002</v>
       </c>
@@ -6206,7 +8656,7 @@
         <v>45.512618000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3.26227</v>
       </c>
@@ -6228,11 +8678,8 @@
       <c r="G29" s="1">
         <v>45.256993000000001</v>
       </c>
-      <c r="T29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3.3375900000000001</v>
       </c>
@@ -6254,11 +8701,8 @@
       <c r="G30" s="1">
         <v>45.668573000000002</v>
       </c>
-      <c r="T30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3.3317299999999999</v>
       </c>
@@ -6281,7 +8725,7 @@
         <v>45.638264999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3.3729200000000001</v>
       </c>
@@ -6672,7 +9116,7 @@
         <v>45.595643000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1.6712</v>
       </c>
@@ -6695,7 +9139,7 @@
         <v>45.471992999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>3.3518699999999999</v>
       </c>
@@ -6718,7 +9162,7 @@
         <v>45.476962</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>4.2114900000000004</v>
       </c>
@@ -6741,73 +9185,96 @@
         <v>45.562235000000001</v>
       </c>
     </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J61" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="4">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AI19" sqref="AI19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="1" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="21" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2.8401109999999998</v>
       </c>
@@ -6829,22 +9296,27 @@
       <c r="G2" s="1">
         <v>45.593673000000003</v>
       </c>
-      <c r="P2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="J2" s="1">
         <f>AVERAGE(A2:A26)</f>
         <v>2.2187543600000001</v>
       </c>
-      <c r="R2">
-        <f>STDEV(A2:A26)</f>
-        <v>0.86350034489207916</v>
-      </c>
-      <c r="S2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <f>_xlfn.STDEV.P(A2:A26)</f>
+        <v>0.84605409508115392</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(J2-$J$11)/$I$11</f>
+        <v>0.11065599766935209</v>
+      </c>
+      <c r="N2" s="1">
+        <f>ABS(M2-I2)*1000</f>
+        <v>110.65599766935209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3.9883820000000001</v>
       </c>
@@ -6866,19 +9338,27 @@
       <c r="G3" s="1">
         <v>45.769742000000001</v>
       </c>
-      <c r="P3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="J3" s="1">
         <f>AVERAGE(B2:B26)</f>
         <v>8.2173388400000018</v>
       </c>
-      <c r="R3">
-        <f>STDEV(B2:B26)</f>
-        <v>5.5773929179680312E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <f>_xlfn.STDEV.P(B2:B26)</f>
+        <v>5.4647066976136929E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <f>(J3-$J$11)/$I$11</f>
+        <v>0.93191890729277838</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N8" si="0">ABS(M3-I3)*1000</f>
+        <v>68.081092707221629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.8324340000000001</v>
       </c>
@@ -6900,19 +9380,27 @@
       <c r="G4" s="1">
         <v>45.623527000000003</v>
       </c>
-      <c r="P4">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="J4" s="1">
         <f>AVERAGE(C2:C26)</f>
         <v>15.705651960000001</v>
       </c>
-      <c r="R4">
-        <f>STDEV(C2:C26)</f>
-        <v>0.10600112330280584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <f>_xlfn.STDEV.P(C2:C26)</f>
+        <v>0.10385946570148712</v>
+      </c>
+      <c r="M4" s="1">
+        <f>(J4-$J$11)/$I$11</f>
+        <v>1.9571397475771641</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>42.860252422835863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2.5456479999999999</v>
       </c>
@@ -6934,19 +9422,27 @@
       <c r="G5" s="1">
         <v>45.214412000000003</v>
       </c>
-      <c r="P5">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="J5" s="1">
         <f>AVERAGE(D2:D26)</f>
         <v>23.036377400000003</v>
       </c>
-      <c r="R5">
-        <f>STDEV(D2:D26)</f>
-        <v>0.14536758340926614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <f>_xlfn.STDEV.P(D2:D26)</f>
+        <v>0.14243056179767019</v>
+      </c>
+      <c r="M5" s="1">
+        <f>(J5-$J$11)/$I$11</f>
+        <v>2.9607853450640023</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>39.214654935997743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.8964300000000001</v>
       </c>
@@ -6968,19 +9464,27 @@
       <c r="G6" s="1">
         <v>45.755054999999999</v>
       </c>
-      <c r="P6">
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="Q6" s="1">
-        <f>AVERAGE(E2:E51)</f>
+      <c r="J6" s="1">
+        <f>AVERAGE(E2:E26)</f>
         <v>30.487089279999996</v>
       </c>
-      <c r="R6">
-        <f>STDEV(E2:E26)</f>
-        <v>0.1104213847353706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <f>_xlfn.STDEV.P(E2:E26)</f>
+        <v>0.10819041971728212</v>
+      </c>
+      <c r="M6" s="1">
+        <f>(J6-$J$11)/$I$11</f>
+        <v>3.9808582202124776</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>19.141779787522406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.9306669999999999</v>
       </c>
@@ -7002,19 +9506,27 @@
       <c r="G7" s="1">
         <v>45.400900999999998</v>
       </c>
-      <c r="P7">
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="J7" s="1">
         <f>AVERAGE(F2:F26)</f>
         <v>37.959033560000002</v>
       </c>
-      <c r="R7">
-        <f>STDEV(F2:F26)</f>
-        <v>0.16918914996833218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <f>_xlfn.STDEV.P(F2:F26)</f>
+        <v>0.16577083497505382</v>
+      </c>
+      <c r="M7" s="1">
+        <f>(J7-$J$11)/$I$11</f>
+        <v>5.0038380115943468</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.838011594346824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.7721870000000002</v>
       </c>
@@ -7036,19 +9548,27 @@
       <c r="G8" s="1">
         <v>45.813971000000002</v>
       </c>
-      <c r="P8">
+      <c r="I8">
         <v>6</v>
       </c>
-      <c r="Q8" s="1">
-        <f>AVERAGE(G2:G31)</f>
+      <c r="J8" s="1">
+        <f>AVERAGE(G2:G26)</f>
         <v>45.635390080000001</v>
       </c>
-      <c r="R8">
-        <f>STDEV(G2:G26)</f>
-        <v>0.18683792387140402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <f>_xlfn.STDEV.P(G2:G26)</f>
+        <v>0.18306303123436335</v>
+      </c>
+      <c r="M8" s="1">
+        <f>(J8-$J$11)/$I$11</f>
+        <v>6.0548037705898681</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>54.803770589868073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2.9057330000000001</v>
       </c>
@@ -7071,7 +9591,7 @@
         <v>45.804769</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1.5364120000000001</v>
       </c>
@@ -7093,8 +9613,14 @@
       <c r="G10" s="1">
         <v>45.835057999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1.9982200000000001</v>
       </c>
@@ -7116,8 +9642,14 @@
       <c r="G11" s="1">
         <v>45.446615999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>7.3040976400000002</v>
+      </c>
+      <c r="J11">
+        <v>1.41051214857144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1.749241</v>
       </c>
@@ -7140,7 +9672,7 @@
         <v>45.849051000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2.8275130000000002</v>
       </c>
@@ -7163,7 +9695,7 @@
         <v>45.842092999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1.3226340000000001</v>
       </c>
@@ -7186,7 +9718,7 @@
         <v>45.443024000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1.54545</v>
       </c>
@@ -7209,7 +9741,7 @@
         <v>45.463678999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1.95173</v>
       </c>
@@ -7232,7 +9764,7 @@
         <v>45.698956000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.98347300000000004</v>
       </c>
@@ -7255,7 +9787,7 @@
         <v>45.473585</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2.7408800000000002</v>
       </c>
@@ -7278,7 +9810,7 @@
         <v>45.304954000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3.9572910000000001</v>
       </c>
@@ -7301,7 +9833,7 @@
         <v>45.430436</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.5161020000000001</v>
       </c>
@@ -7324,7 +9856,7 @@
         <v>45.679588000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1.5274449999999999</v>
       </c>
@@ -7347,7 +9879,7 @@
         <v>45.851165999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1.5255609999999999</v>
       </c>
@@ -7370,7 +9902,7 @@
         <v>45.686298000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3.0213489999999998</v>
       </c>
@@ -7393,7 +9925,7 @@
         <v>45.660473000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3.066287</v>
       </c>
@@ -7416,7 +9948,7 @@
         <v>45.747912999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.55122199999999999</v>
       </c>
@@ -7439,7 +9971,7 @@
         <v>45.815961000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1.9364570000000001</v>
       </c>
@@ -7462,77 +9994,111 @@
         <v>45.679850999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T29" t="s">
-        <v>19</v>
-      </c>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37"/>
+      <c r="E37"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="4">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="1" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="21" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.673786</v>
       </c>
@@ -7554,22 +10120,27 @@
       <c r="G2" s="1">
         <v>45.593673000000003</v>
       </c>
-      <c r="P2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="J2" s="1">
         <f>AVERAGE(A2:A26)</f>
         <v>0.69932027999999979</v>
       </c>
-      <c r="R2">
-        <f>STDEV(A2:A26)</f>
-        <v>1.5834934350248079E-2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <f>_xlfn.STDEV.P(A2:A26)</f>
+        <v>1.5515003707431071E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(J2-$J$11)/$I$11</f>
+        <v>-7.6877096612926491E-4</v>
+      </c>
+      <c r="N2" s="1">
+        <f>ABS(M2-I2)*1000</f>
+        <v>0.76877096612926488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.67620000000000002</v>
       </c>
@@ -7591,19 +10162,27 @@
       <c r="G3" s="1">
         <v>45.769742000000001</v>
       </c>
-      <c r="P3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="J3" s="1">
         <f>AVERAGE(B2:B26)</f>
         <v>8.2173388400000018</v>
       </c>
-      <c r="R3">
-        <f>STDEV(B2:B26)</f>
-        <v>5.5773929179680312E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <f>_xlfn.STDEV.P(B2:B26)</f>
+        <v>5.4647066976136929E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <f>(J3-$J$11)/$I$11</f>
+        <v>1.0060780398244527</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N8" si="0">ABS(M3-I3)*1000</f>
+        <v>6.0780398244526523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.68326100000000001</v>
       </c>
@@ -7625,19 +10204,27 @@
       <c r="G4" s="1">
         <v>45.623527000000003</v>
       </c>
-      <c r="P4">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="J4" s="1">
         <f>AVERAGE(C2:C26)</f>
         <v>15.705651960000001</v>
       </c>
-      <c r="R4">
-        <f>STDEV(C2:C26)</f>
-        <v>0.10600112330280584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <f>_xlfn.STDEV.P(C2:C26)</f>
+        <v>0.10385946570148712</v>
+      </c>
+      <c r="M4" s="1">
+        <f>(J4-$J$11)/$I$11</f>
+        <v>2.0089465646759357</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9465646759356865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.68067800000000001</v>
       </c>
@@ -7659,19 +10246,27 @@
       <c r="G5" s="1">
         <v>45.214412000000003</v>
       </c>
-      <c r="P5">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="J5" s="1">
         <f>AVERAGE(D2:D26)</f>
         <v>23.036377400000003</v>
       </c>
-      <c r="R5">
-        <f>STDEV(D2:D26)</f>
-        <v>0.14536758340926614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <f>_xlfn.STDEV.P(D2:D26)</f>
+        <v>0.14243056179767019</v>
+      </c>
+      <c r="M5" s="1">
+        <f>(J5-$J$11)/$I$11</f>
+        <v>2.9907102396575236</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2897603424764164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.67816100000000001</v>
       </c>
@@ -7693,19 +10288,27 @@
       <c r="G6" s="1">
         <v>45.755054999999999</v>
       </c>
-      <c r="P6">
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="Q6" s="1">
-        <f>AVERAGE(E2:E51)</f>
+      <c r="J6" s="1">
+        <f>AVERAGE(E2:E26)</f>
         <v>30.487089279999996</v>
       </c>
-      <c r="R6">
-        <f>STDEV(E2:E26)</f>
-        <v>0.1104213847353706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <f>_xlfn.STDEV.P(E2:E26)</f>
+        <v>0.10819041971728212</v>
+      </c>
+      <c r="M6" s="1">
+        <f>(J6-$J$11)/$I$11</f>
+        <v>3.9885430375719637</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>11.456962428036288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.67172600000000005</v>
       </c>
@@ -7727,19 +10330,27 @@
       <c r="G7" s="1">
         <v>45.400900999999998</v>
       </c>
-      <c r="P7">
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="J7" s="1">
         <f>AVERAGE(F2:F26)</f>
         <v>37.959033560000002</v>
       </c>
-      <c r="R7">
-        <f>STDEV(F2:F26)</f>
-        <v>0.16918914996833218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <f>_xlfn.STDEV.P(F2:F26)</f>
+        <v>0.16577083497505382</v>
+      </c>
+      <c r="M7" s="1">
+        <f>(J7-$J$11)/$I$11</f>
+        <v>4.9892193738542367</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>10.78062614576325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.68722300000000003</v>
       </c>
@@ -7761,19 +10372,27 @@
       <c r="G8" s="1">
         <v>45.813971000000002</v>
       </c>
-      <c r="P8">
+      <c r="I8">
         <v>6</v>
       </c>
-      <c r="Q8" s="1">
-        <f>AVERAGE(G2:G31)</f>
+      <c r="J8" s="1">
+        <f>AVERAGE(G2:G26)</f>
         <v>45.635390080000001</v>
       </c>
-      <c r="R8">
-        <f>STDEV(G2:G26)</f>
-        <v>0.18683792387140402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <f>_xlfn.STDEV.P(G2:G26)</f>
+        <v>0.18306303123436335</v>
+      </c>
+      <c r="M8" s="1">
+        <f>(J8-$J$11)/$I$11</f>
+        <v>6.0172715153820029</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>17.271515382002889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.69220700000000002</v>
       </c>
@@ -7796,7 +10415,7 @@
         <v>45.804769</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.69850999999999996</v>
       </c>
@@ -7818,8 +10437,14 @@
       <c r="G10" s="1">
         <v>45.835057999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.69274899999999995</v>
       </c>
@@ -7841,8 +10466,14 @@
       <c r="G11" s="1">
         <v>45.446615999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>7.4668941485714297</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.70506061142858201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.69511500000000004</v>
       </c>
@@ -7865,7 +10496,7 @@
         <v>45.849051000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.70209100000000002</v>
       </c>
@@ -7888,7 +10519,7 @@
         <v>45.842092999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.70241100000000001</v>
       </c>
@@ -7911,7 +10542,7 @@
         <v>45.443024000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.71365599999999996</v>
       </c>
@@ -7934,7 +10565,7 @@
         <v>45.463678999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.70660400000000001</v>
       </c>
@@ -7957,7 +10588,7 @@
         <v>45.698956000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.70759499999999997</v>
       </c>
@@ -7980,7 +10611,7 @@
         <v>45.473585</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.706596</v>
       </c>
@@ -8003,7 +10634,7 @@
         <v>45.304954000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.69668300000000005</v>
       </c>
@@ -8026,7 +10657,7 @@
         <v>45.430436</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.70611400000000002</v>
       </c>
@@ -8049,7 +10680,7 @@
         <v>45.679588000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.72446900000000003</v>
       </c>
@@ -8072,7 +10703,7 @@
         <v>45.851165999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.71825000000000006</v>
       </c>
@@ -8095,7 +10726,7 @@
         <v>45.686298000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.72056600000000004</v>
       </c>
@@ -8118,7 +10749,7 @@
         <v>45.660473000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.71509599999999995</v>
       </c>
@@ -8141,7 +10772,7 @@
         <v>45.747912999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.71365800000000001</v>
       </c>
@@ -8164,7 +10795,7 @@
         <v>45.815961000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.71960199999999996</v>
       </c>
@@ -8187,1277 +10818,803 @@
         <v>45.679850999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T29" t="s">
-        <v>20</v>
-      </c>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="4">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.7258260000000001</v>
-      </c>
-      <c r="B2">
-        <v>9.8395139999999994</v>
-      </c>
-      <c r="C2">
-        <v>16.257453999999999</v>
-      </c>
-      <c r="D2">
-        <v>24.796906</v>
-      </c>
-      <c r="E2">
-        <v>32.027147999999997</v>
-      </c>
-      <c r="F2">
-        <v>39.976008999999998</v>
-      </c>
-      <c r="G2">
-        <v>47.602238</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>AVERAGE(A2:A26)</f>
-        <v>1.7928797999999997</v>
-      </c>
-      <c r="K2">
-        <f>_xlfn.STDEV.P(A2:A26)</f>
-        <v>0.25207450750553984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.739511</v>
-      </c>
-      <c r="B3">
-        <v>9.850911</v>
-      </c>
-      <c r="C3">
-        <v>17.518443999999999</v>
-      </c>
-      <c r="D3">
-        <v>24.495242000000001</v>
-      </c>
-      <c r="E3">
-        <v>32.320656999999997</v>
-      </c>
-      <c r="F3">
-        <v>39.837851999999998</v>
-      </c>
-      <c r="G3">
-        <v>47.954763</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <f>AVERAGE(B2:B26)</f>
-        <v>9.7613972000000011</v>
-      </c>
-      <c r="K3">
-        <f>_xlfn.STDEV.P(B2:B26)</f>
-        <v>0.21738084451450626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.9168069999999999</v>
-      </c>
-      <c r="B4">
-        <v>9.7065509999999993</v>
-      </c>
-      <c r="C4">
-        <v>16.249403999999998</v>
-      </c>
-      <c r="D4">
-        <v>23.797788000000001</v>
-      </c>
-      <c r="E4">
-        <v>32.002999000000003</v>
-      </c>
-      <c r="F4">
-        <v>40.016463999999999</v>
-      </c>
-      <c r="G4">
-        <v>47.935161999999998</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <f>AVERAGE(C2:C26)</f>
-        <v>17.121056159999998</v>
-      </c>
-      <c r="K4">
-        <f>_xlfn.STDEV.P(C2:C26)</f>
-        <v>0.45650594060929234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.1707990000000001</v>
-      </c>
-      <c r="B5">
-        <v>8.8240890000000007</v>
-      </c>
-      <c r="C5">
-        <v>16.230594</v>
-      </c>
-      <c r="D5">
-        <v>24.805136999999998</v>
-      </c>
-      <c r="E5">
-        <v>32.090808000000003</v>
-      </c>
-      <c r="F5">
-        <v>39.998458999999997</v>
-      </c>
-      <c r="G5">
-        <v>47.605502000000001</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <f>AVERAGE(D2:D26)</f>
-        <v>24.577908319999995</v>
-      </c>
-      <c r="K5">
-        <f>_xlfn.STDEV.P(D2:D26)</f>
-        <v>0.1918651136196925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.920256</v>
-      </c>
-      <c r="B6">
-        <v>9.8690429999999996</v>
-      </c>
-      <c r="C6">
-        <v>17.525787000000001</v>
-      </c>
-      <c r="D6">
-        <v>24.827484999999999</v>
-      </c>
-      <c r="E6">
-        <v>32.150499000000003</v>
-      </c>
-      <c r="F6">
-        <v>39.989241999999997</v>
-      </c>
-      <c r="G6">
-        <v>47.579222999999999</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <f>AVERAGE(E2:E26)</f>
-        <v>32.100745319999994</v>
-      </c>
-      <c r="K6">
-        <f>_xlfn.STDEV.P(E2:E26)</f>
-        <v>0.18017463405501191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.028081</v>
-      </c>
-      <c r="B7">
-        <v>9.841405</v>
-      </c>
-      <c r="C7">
-        <v>17.517393999999999</v>
-      </c>
-      <c r="D7">
-        <v>24.521170000000001</v>
-      </c>
-      <c r="E7">
-        <v>32.402822</v>
-      </c>
-      <c r="F7">
-        <v>40.003748999999999</v>
-      </c>
-      <c r="G7">
-        <v>47.581426</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <f>AVERAGE(F2:F26)</f>
-        <v>39.998635080000007</v>
-      </c>
-      <c r="K7">
-        <f>_xlfn.STDEV.P(F2:F26)</f>
-        <v>4.9209310460457047E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2.172536</v>
-      </c>
-      <c r="B8">
-        <v>9.9040689999999998</v>
-      </c>
-      <c r="C8">
-        <v>17.514074999999998</v>
-      </c>
-      <c r="D8">
-        <v>24.495625</v>
-      </c>
-      <c r="E8">
-        <v>31.8992</v>
-      </c>
-      <c r="F8">
-        <v>40.002980000000001</v>
-      </c>
-      <c r="G8">
-        <v>47.539121000000002</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <f>AVERAGE(G2:G26)</f>
-        <v>47.633528200000001</v>
-      </c>
-      <c r="K8">
-        <f>_xlfn.STDEV.P(G2:G26)</f>
-        <v>0.13829212922852829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.7607600000000001</v>
-      </c>
-      <c r="B9">
-        <v>9.6520220000000005</v>
-      </c>
-      <c r="C9">
-        <v>17.524025999999999</v>
-      </c>
-      <c r="D9">
-        <v>24.551812000000002</v>
-      </c>
-      <c r="E9">
-        <v>32.126716999999999</v>
-      </c>
-      <c r="F9">
-        <v>39.976962</v>
-      </c>
-      <c r="G9">
-        <v>47.590766000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.928375</v>
-      </c>
-      <c r="B10">
-        <v>9.9033300000000004</v>
-      </c>
-      <c r="C10">
-        <v>17.329274999999999</v>
-      </c>
-      <c r="D10">
-        <v>24.535979999999999</v>
-      </c>
-      <c r="E10">
-        <v>32.420777999999999</v>
-      </c>
-      <c r="F10">
-        <v>40.015309000000002</v>
-      </c>
-      <c r="G10">
-        <v>47.591909000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2.4971909999999999</v>
-      </c>
-      <c r="B11">
-        <v>9.9016839999999995</v>
-      </c>
-      <c r="C11">
-        <v>17.214029</v>
-      </c>
-      <c r="D11">
-        <v>24.763902999999999</v>
-      </c>
-      <c r="E11">
-        <v>31.911674000000001</v>
-      </c>
-      <c r="F11">
-        <v>40.013072999999999</v>
-      </c>
-      <c r="G11">
-        <v>47.718803999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.7677020000000001</v>
-      </c>
-      <c r="B12">
-        <v>9.6327879999999997</v>
-      </c>
-      <c r="C12">
-        <v>17.450209999999998</v>
-      </c>
-      <c r="D12">
-        <v>24.571898000000001</v>
-      </c>
-      <c r="E12">
-        <v>32.157187999999998</v>
-      </c>
-      <c r="F12">
-        <v>39.976764000000003</v>
-      </c>
-      <c r="G12">
-        <v>47.920110999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.7609170000000001</v>
-      </c>
-      <c r="B13">
-        <v>9.9392560000000003</v>
-      </c>
-      <c r="C13">
-        <v>17.236989000000001</v>
-      </c>
-      <c r="D13">
-        <v>24.562683</v>
-      </c>
-      <c r="E13">
-        <v>32.408901</v>
-      </c>
-      <c r="F13">
-        <v>40.020828999999999</v>
-      </c>
-      <c r="G13">
-        <v>47.542459999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1.5168779999999999</v>
-      </c>
-      <c r="B14">
-        <v>9.6363199999999996</v>
-      </c>
-      <c r="C14">
-        <v>17.352374999999999</v>
-      </c>
-      <c r="D14">
-        <v>24.634727000000002</v>
-      </c>
-      <c r="E14">
-        <v>32.141936000000001</v>
-      </c>
-      <c r="F14">
-        <v>40.018282999999997</v>
-      </c>
-      <c r="G14">
-        <v>47.541615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1.758535</v>
-      </c>
-      <c r="B15">
-        <v>9.7307629999999996</v>
-      </c>
-      <c r="C15">
-        <v>17.286449000000001</v>
-      </c>
-      <c r="D15">
-        <v>24.637250999999999</v>
-      </c>
-      <c r="E15">
-        <v>32.127597999999999</v>
-      </c>
-      <c r="F15">
-        <v>40.017423999999998</v>
-      </c>
-      <c r="G15">
-        <v>47.948822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1.7537990000000001</v>
-      </c>
-      <c r="B16">
-        <v>9.8226829999999996</v>
-      </c>
-      <c r="C16">
-        <v>17.325688</v>
-      </c>
-      <c r="D16">
-        <v>24.496926999999999</v>
-      </c>
-      <c r="E16">
-        <v>31.867318000000001</v>
-      </c>
-      <c r="F16">
-        <v>40.161549000000001</v>
-      </c>
-      <c r="G16">
-        <v>47.560693999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1.7602709999999999</v>
-      </c>
-      <c r="B17">
-        <v>9.7057570000000002</v>
-      </c>
-      <c r="C17">
-        <v>17.286742</v>
-      </c>
-      <c r="D17">
-        <v>24.545062999999999</v>
-      </c>
-      <c r="E17">
-        <v>32.329726999999998</v>
-      </c>
-      <c r="F17">
-        <v>40.006608</v>
-      </c>
-      <c r="G17">
-        <v>47.587207999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1.753452</v>
-      </c>
-      <c r="B18">
-        <v>9.9981399999999994</v>
-      </c>
-      <c r="C18">
-        <v>16.228027999999998</v>
-      </c>
-      <c r="D18">
-        <v>24.638643999999999</v>
-      </c>
-      <c r="E18">
-        <v>32.080207999999999</v>
-      </c>
-      <c r="F18">
-        <v>39.993946000000001</v>
-      </c>
-      <c r="G18">
-        <v>47.567107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1.7619910000000001</v>
-      </c>
-      <c r="B19">
-        <v>9.734057</v>
-      </c>
-      <c r="C19">
-        <v>17.133213000000001</v>
-      </c>
-      <c r="D19">
-        <v>24.537465000000001</v>
-      </c>
-      <c r="E19">
-        <v>32.007638999999998</v>
-      </c>
-      <c r="F19">
-        <v>39.998990999999997</v>
-      </c>
-      <c r="G19">
-        <v>47.576293999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1.7673680000000001</v>
-      </c>
-      <c r="B20">
-        <v>9.8265270000000005</v>
-      </c>
-      <c r="C20">
-        <v>17.255462000000001</v>
-      </c>
-      <c r="D20">
-        <v>24.560856999999999</v>
-      </c>
-      <c r="E20">
-        <v>31.885556000000001</v>
-      </c>
-      <c r="F20">
-        <v>39.973894999999999</v>
-      </c>
-      <c r="G20">
-        <v>47.576602000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1.765336</v>
-      </c>
-      <c r="B21">
-        <v>9.8969699999999996</v>
-      </c>
-      <c r="C21">
-        <v>17.601274</v>
-      </c>
-      <c r="D21">
-        <v>24.823826</v>
-      </c>
-      <c r="E21">
-        <v>32.257447999999997</v>
-      </c>
-      <c r="F21">
-        <v>39.998190000000001</v>
-      </c>
-      <c r="G21">
-        <v>47.563929000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1.767085</v>
-      </c>
-      <c r="B22">
-        <v>9.9111700000000003</v>
-      </c>
-      <c r="C22">
-        <v>17.203724999999999</v>
-      </c>
-      <c r="D22">
-        <v>24.605036999999999</v>
-      </c>
-      <c r="E22">
-        <v>32.265718</v>
-      </c>
-      <c r="F22">
-        <v>39.988343999999998</v>
-      </c>
-      <c r="G22">
-        <v>47.526573999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1.769163</v>
-      </c>
-      <c r="B23">
-        <v>9.7504159999999995</v>
-      </c>
-      <c r="C23">
-        <v>17.060317999999999</v>
-      </c>
-      <c r="D23">
-        <v>24.481739999999999</v>
-      </c>
-      <c r="E23">
-        <v>31.866209999999999</v>
-      </c>
-      <c r="F23">
-        <v>39.993374000000003</v>
-      </c>
-      <c r="G23">
-        <v>47.545099999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1.771496</v>
-      </c>
-      <c r="B24">
-        <v>9.6222189999999994</v>
-      </c>
-      <c r="C24">
-        <v>17.227077999999999</v>
-      </c>
-      <c r="D24">
-        <v>24.537808999999999</v>
-      </c>
-      <c r="E24">
-        <v>31.93216</v>
-      </c>
-      <c r="F24">
-        <v>39.946492999999997</v>
-      </c>
-      <c r="G24">
-        <v>47.549948000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1.5200149999999999</v>
-      </c>
-      <c r="B25">
-        <v>9.7320349999999998</v>
-      </c>
-      <c r="C25">
-        <v>16.276350999999998</v>
-      </c>
-      <c r="D25">
-        <v>24.637855999999999</v>
-      </c>
-      <c r="E25">
-        <v>31.845690999999999</v>
-      </c>
-      <c r="F25">
-        <v>40.018653</v>
-      </c>
-      <c r="G25">
-        <v>47.563929000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1.7678450000000001</v>
-      </c>
-      <c r="B26">
-        <v>9.8032109999999992</v>
-      </c>
-      <c r="C26">
-        <v>17.222020000000001</v>
-      </c>
-      <c r="D26">
-        <v>24.584876999999999</v>
-      </c>
-      <c r="E26">
-        <v>31.992032999999999</v>
-      </c>
-      <c r="F26">
-        <v>40.022435000000002</v>
-      </c>
-      <c r="G26">
-        <v>47.568897999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="21" width="9.140625" style="1"/>
+    <col min="1" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1.7258260000000001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9.8395139999999994</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16.257453999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>24.796906</v>
+      </c>
+      <c r="E2" s="1">
+        <v>32.027147999999997</v>
+      </c>
+      <c r="F2" s="1">
+        <v>39.976008999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>47.602238</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>AVERAGE(A2:A26)</f>
+        <v>1.7928797999999997</v>
+      </c>
+      <c r="K2" s="1">
+        <f>_xlfn.STDEV.P(A2:A26)</f>
+        <v>0.25207450750553984</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(J2-$J$11)/$I$11</f>
+        <v>-1.3220429081993086E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <f>ABS(M2-I2)*1000</f>
+        <v>13.220429081993087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1.739511</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9.850911</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17.518443999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>24.495242000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>32.320656999999997</v>
+      </c>
+      <c r="F3" s="1">
+        <v>39.837851999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>47.954763</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <f>AVERAGE(B2:B26)</f>
+        <v>9.7613972000000011</v>
+      </c>
+      <c r="K3" s="1">
+        <f>_xlfn.STDEV.P(B2:B26)</f>
+        <v>0.21738084451450626</v>
+      </c>
+      <c r="M3" s="1">
+        <f>(J3-$J$11)/$I$11</f>
+        <v>1.0344017059747759</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N8" si="0">ABS(M3-I3)*1000</f>
+        <v>34.401705974775879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1.9168069999999999</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9.7065509999999993</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16.249403999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>23.797788000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>32.002999000000003</v>
+      </c>
+      <c r="F4" s="1">
+        <v>40.016463999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>47.935161999999998</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <f>AVERAGE(C2:C26)</f>
+        <v>17.121056159999998</v>
+      </c>
+      <c r="K4" s="1">
+        <f>_xlfn.STDEV.P(C2:C26)</f>
+        <v>0.45650594060929234</v>
+      </c>
+      <c r="M4" s="1">
+        <f>(J4-$J$11)/$I$11</f>
+        <v>2.0019771338661521</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9771338661520588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2.1707990000000001</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8.8240890000000007</v>
+      </c>
+      <c r="C5" s="1">
+        <v>16.230594</v>
+      </c>
+      <c r="D5" s="1">
+        <v>24.805136999999998</v>
+      </c>
+      <c r="E5" s="1">
+        <v>32.090808000000003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>39.998458999999997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>47.605502000000001</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <f>AVERAGE(D2:D26)</f>
+        <v>24.577908319999995</v>
+      </c>
+      <c r="K5" s="1">
+        <f>_xlfn.STDEV.P(D2:D26)</f>
+        <v>0.1918651136196925</v>
+      </c>
+      <c r="M5" s="1">
+        <f>(J5-$J$11)/$I$11</f>
+        <v>2.9823305658184847</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>17.669434181515342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1.920256</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.8690429999999996</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17.525787000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>24.827484999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>32.150499000000003</v>
+      </c>
+      <c r="F6" s="1">
+        <v>39.989241999999997</v>
+      </c>
+      <c r="G6" s="1">
+        <v>47.579222999999999</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="J6" s="1">
+        <f>AVERAGE(E2:E26)</f>
+        <v>32.100745319999994</v>
+      </c>
+      <c r="K6" s="1">
+        <f>_xlfn.STDEV.P(E2:E26)</f>
+        <v>0.18017463405501191</v>
+      </c>
+      <c r="M6" s="1">
+        <f>(J6-$J$11)/$I$11</f>
+        <v>3.9713590342289393</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>28.640965771060678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1.028081</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9.841405</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17.517393999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>24.521170000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>32.402822</v>
+      </c>
+      <c r="F7" s="1">
+        <v>40.003748999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>47.581426</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="J7" s="1">
+        <f>AVERAGE(F2:F26)</f>
+        <v>39.998635080000007</v>
+      </c>
+      <c r="K7" s="1">
+        <f>_xlfn.STDEV.P(F2:F26)</f>
+        <v>4.9209310460457047E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f>(J7-$J$11)/$I$11</f>
+        <v>5.0096957432401039</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6957432401039156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2.172536</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9.9040689999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>17.514074999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>24.495625</v>
+      </c>
+      <c r="E8" s="1">
+        <v>31.8992</v>
+      </c>
+      <c r="F8" s="1">
+        <v>40.002980000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>47.539121000000002</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1">
+        <f>AVERAGE(G2:G26)</f>
+        <v>47.633528200000001</v>
+      </c>
+      <c r="K8" s="1">
+        <f>_xlfn.STDEV.P(G2:G26)</f>
+        <v>0.13829212922852829</v>
+      </c>
+      <c r="M8" s="1">
+        <f>(J8-$J$11)/$I$11</f>
+        <v>6.0134562459535239</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>13.456245953523904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1.7607600000000001</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9.6520220000000005</v>
+      </c>
+      <c r="C9" s="1">
+        <v>17.524025999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>24.551812000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>32.126716999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>39.976962</v>
+      </c>
+      <c r="G9" s="1">
+        <v>47.590766000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1.928375</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9.9033300000000004</v>
+      </c>
+      <c r="C10" s="1">
+        <v>17.329274999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>24.535979999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>32.420777999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>40.015309000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>47.591909000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9.2969059999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>16.441233</v>
-      </c>
-      <c r="D2" s="1">
-        <v>23.515231</v>
-      </c>
-      <c r="E2" s="1">
-        <v>31.392472999999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>38.605896999999999</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>9.2969059999999999</v>
-      </c>
-      <c r="K2" s="1">
-        <v>9.2290399999999995</v>
-      </c>
-      <c r="L2" s="1">
-        <v>9.9805969999999995</v>
-      </c>
-      <c r="M2" s="1">
-        <v>9.2185299999999994</v>
-      </c>
-      <c r="N2" s="1">
-        <v>9.2144890000000004</v>
-      </c>
-      <c r="O2" s="1">
-        <v>9.1957799999999992</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9.1970849999999995</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>9.3070740000000001</v>
-      </c>
-      <c r="R2" s="1">
-        <v>9.2109810000000003</v>
-      </c>
-      <c r="S2" s="1">
-        <v>9.2421369999999996</v>
-      </c>
-      <c r="T2" s="1">
-        <f>SUM(J2:S2)</f>
-        <v>93.092618999999999</v>
-      </c>
-      <c r="U2" s="1">
-        <f>AVERAGE(J2:S2)</f>
-        <v>9.3092618999999992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9.2290399999999995</v>
-      </c>
-      <c r="C3" s="1">
-        <v>16.150548000000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>24.456081999999999</v>
-      </c>
-      <c r="E3" s="1">
-        <v>31.068819999999999</v>
-      </c>
-      <c r="F3" s="1">
-        <v>39.166429000000001</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>16.441233</v>
-      </c>
-      <c r="K3" s="1">
-        <v>16.150548000000001</v>
-      </c>
-      <c r="L3" s="1">
-        <v>16.422732</v>
-      </c>
-      <c r="M3" s="1">
-        <v>16.376899000000002</v>
-      </c>
-      <c r="N3" s="1">
-        <v>16.221957</v>
-      </c>
-      <c r="O3" s="1">
-        <v>15.809569</v>
-      </c>
-      <c r="P3" s="1">
-        <v>16.726089999999999</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>16.141902000000002</v>
-      </c>
-      <c r="R3" s="1">
-        <v>16.718219000000001</v>
-      </c>
-      <c r="S3" s="1">
-        <v>17.085523999999999</v>
-      </c>
-      <c r="T3" s="1">
-        <f t="shared" ref="T3:T6" si="0">SUM(J3:S3)</f>
-        <v>164.094673</v>
-      </c>
-      <c r="U3" s="1">
-        <f t="shared" ref="U3:U6" si="1">AVERAGE(J3:S3)</f>
-        <v>16.409467299999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9.9805969999999995</v>
-      </c>
-      <c r="C4" s="1">
-        <v>16.422732</v>
-      </c>
-      <c r="D4" s="1">
-        <v>24.485149</v>
-      </c>
-      <c r="E4" s="1">
-        <v>30.122298000000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>38.496259000000002</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>23.515231</v>
-      </c>
-      <c r="K4" s="1">
-        <v>24.456081999999999</v>
-      </c>
-      <c r="L4" s="1">
-        <v>24.485149</v>
-      </c>
-      <c r="M4" s="1">
-        <v>22.827715999999999</v>
-      </c>
-      <c r="N4" s="1">
-        <v>24.403165000000001</v>
-      </c>
-      <c r="O4" s="1">
-        <v>24.336946000000001</v>
-      </c>
-      <c r="P4" s="1">
-        <v>23.396470999999998</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>23.530507</v>
-      </c>
-      <c r="R4" s="1">
-        <v>22.635497000000001</v>
-      </c>
-      <c r="S4" s="1">
-        <v>23.295247</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>236.88201099999995</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="1"/>
-        <v>23.688201099999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9.2185299999999994</v>
-      </c>
-      <c r="C5" s="1">
-        <v>16.376899000000002</v>
-      </c>
-      <c r="D5" s="1">
-        <v>22.827715999999999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>30.620356999999998</v>
-      </c>
-      <c r="F5" s="1">
-        <v>38.007728999999998</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1">
-        <v>31.392472999999999</v>
-      </c>
-      <c r="K5" s="1">
-        <v>31.068819999999999</v>
-      </c>
-      <c r="L5" s="1">
-        <v>30.122298000000001</v>
-      </c>
-      <c r="M5" s="1">
-        <v>30.620356999999998</v>
-      </c>
-      <c r="N5" s="1">
-        <v>30.362038999999999</v>
-      </c>
-      <c r="O5" s="1">
-        <v>30.433250000000001</v>
-      </c>
-      <c r="P5" s="1">
-        <v>30.123169000000001</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>31.236001999999999</v>
-      </c>
-      <c r="R5" s="1">
-        <v>31.081012999999999</v>
-      </c>
-      <c r="S5" s="1">
-        <v>31.089407999999999</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="0"/>
-        <v>307.52882899999997</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="1"/>
-        <v>30.752882899999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9.2144890000000004</v>
-      </c>
-      <c r="C6" s="1">
-        <v>16.221957</v>
-      </c>
-      <c r="D6" s="1">
-        <v>24.403165000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>30.362038999999999</v>
-      </c>
-      <c r="F6" s="1">
-        <v>39.331057000000001</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>38.605896999999999</v>
-      </c>
-      <c r="K6" s="1">
-        <v>39.166429000000001</v>
-      </c>
-      <c r="L6" s="1">
-        <v>38.496259000000002</v>
-      </c>
-      <c r="M6" s="1">
-        <v>38.007728999999998</v>
-      </c>
-      <c r="N6" s="1">
-        <v>39.331057000000001</v>
-      </c>
-      <c r="O6" s="1">
-        <v>39.166576999999997</v>
-      </c>
-      <c r="P6" s="1">
-        <v>39.489227</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>37.921579000000001</v>
-      </c>
-      <c r="R6" s="1">
-        <v>39.371673999999999</v>
-      </c>
-      <c r="S6" s="1">
-        <v>39.416347000000002</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="0"/>
-        <v>388.97277499999996</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="1"/>
-        <v>38.897277499999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9.1957799999999992</v>
-      </c>
-      <c r="C7" s="1">
-        <v>15.809569</v>
-      </c>
-      <c r="D7" s="1">
-        <v>24.336946000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>30.433250000000001</v>
-      </c>
-      <c r="F7" s="1">
-        <v>39.166576999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9.1970849999999995</v>
-      </c>
-      <c r="C8" s="1">
-        <v>16.726089999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>23.396470999999998</v>
-      </c>
-      <c r="E8" s="1">
-        <v>30.123169000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>39.489227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>9.3070740000000001</v>
-      </c>
-      <c r="C9" s="1">
-        <v>16.141902000000002</v>
-      </c>
-      <c r="D9" s="1">
-        <v>23.530507</v>
-      </c>
-      <c r="E9" s="1">
-        <v>31.236001999999999</v>
-      </c>
-      <c r="F9" s="1">
-        <v>37.921579000000001</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9.2109810000000003</v>
-      </c>
-      <c r="C10" s="1">
-        <v>16.718219000000001</v>
-      </c>
-      <c r="D10" s="1">
-        <v>22.635497000000001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>31.081012999999999</v>
-      </c>
-      <c r="F10" s="1">
-        <v>39.371673999999999</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2.4971909999999999</v>
       </c>
       <c r="B11" s="1">
-        <v>9.2421369999999996</v>
+        <v>9.9016839999999995</v>
       </c>
       <c r="C11" s="1">
-        <v>17.085523999999999</v>
+        <v>17.214029</v>
       </c>
       <c r="D11" s="1">
-        <v>23.295247</v>
+        <v>24.763902999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>31.089407999999999</v>
+        <v>31.911674000000001</v>
       </c>
       <c r="F11" s="1">
-        <v>39.416347000000002</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1">
-        <v>30.393844000000001</v>
-      </c>
-      <c r="K12" s="1">
-        <v>30.422073000000001</v>
-      </c>
-      <c r="L12" s="1">
-        <v>30.428045999999998</v>
-      </c>
-      <c r="M12" s="1">
-        <v>30.432881999999999</v>
-      </c>
-      <c r="N12" s="1">
-        <v>30.413827000000001</v>
-      </c>
-      <c r="O12" s="1">
-        <v>30.441383999999999</v>
-      </c>
-      <c r="P12" s="1">
-        <v>30.337213999999999</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>30.467379000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="2">
-        <v>5</v>
-      </c>
-      <c r="J13" s="1">
-        <v>38.074362000000001</v>
-      </c>
-      <c r="K13" s="1">
-        <v>38.14188</v>
-      </c>
-      <c r="L13" s="1">
-        <v>38.409120999999999</v>
-      </c>
-      <c r="M13" s="1">
-        <v>38.835326000000002</v>
-      </c>
-      <c r="N13" s="1">
-        <v>38.631559000000003</v>
-      </c>
-      <c r="O13" s="1">
-        <v>38.436661999999998</v>
-      </c>
-      <c r="P13" s="1">
-        <v>37.451531000000003</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>38.303471999999999</v>
-      </c>
-      <c r="R13" s="1">
-        <v>38.363472999999999</v>
-      </c>
-      <c r="S13" s="1">
-        <v>37.220221000000002</v>
-      </c>
-      <c r="T13" s="1">
-        <v>38.360917000000001</v>
-      </c>
-      <c r="U13" s="1">
-        <v>37.387093999999998</v>
+        <v>40.013072999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>47.718803999999999</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7.6062896471428596</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.8934382128571501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1.7677020000000001</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.6327879999999997</v>
+      </c>
+      <c r="C12" s="1">
+        <v>17.450209999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>24.571898000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>32.157187999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>39.976764000000003</v>
+      </c>
+      <c r="G12" s="1">
+        <v>47.920110999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1.7609170000000001</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9.9392560000000003</v>
+      </c>
+      <c r="C13" s="1">
+        <v>17.236989000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>24.562683</v>
+      </c>
+      <c r="E13" s="1">
+        <v>32.408901</v>
+      </c>
+      <c r="F13" s="1">
+        <v>40.020828999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>47.542459999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1.5168779999999999</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9.6363199999999996</v>
+      </c>
+      <c r="C14" s="1">
+        <v>17.352374999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>24.634727000000002</v>
+      </c>
+      <c r="E14" s="1">
+        <v>32.141936000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>40.018282999999997</v>
+      </c>
+      <c r="G14" s="1">
+        <v>47.541615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1.758535</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9.7307629999999996</v>
+      </c>
+      <c r="C15" s="1">
+        <v>17.286449000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>24.637250999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>32.127597999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>40.017423999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>47.948822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1.7537990000000001</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9.8226829999999996</v>
+      </c>
+      <c r="C16" s="1">
+        <v>17.325688</v>
+      </c>
+      <c r="D16" s="1">
+        <v>24.496926999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>31.867318000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>40.161549000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>47.560693999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1.7602709999999999</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9.7057570000000002</v>
+      </c>
+      <c r="C17" s="1">
+        <v>17.286742</v>
+      </c>
+      <c r="D17" s="1">
+        <v>24.545062999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>32.329726999999998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>40.006608</v>
+      </c>
+      <c r="G17" s="1">
+        <v>47.587207999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1.753452</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9.9981399999999994</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16.228027999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>24.638643999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>32.080207999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>39.993946000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>47.567107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1.7619910000000001</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9.734057</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17.133213000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>24.537465000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>32.007638999999998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>39.998990999999997</v>
+      </c>
+      <c r="G19" s="1">
+        <v>47.576293999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1.7673680000000001</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9.8265270000000005</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17.255462000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>24.560856999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>31.885556000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>39.973894999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>47.576602000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1.765336</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9.8969699999999996</v>
+      </c>
+      <c r="C21" s="1">
+        <v>17.601274</v>
+      </c>
+      <c r="D21" s="1">
+        <v>24.823826</v>
+      </c>
+      <c r="E21" s="1">
+        <v>32.257447999999997</v>
+      </c>
+      <c r="F21" s="1">
+        <v>39.998190000000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>47.563929000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1.767085</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9.9111700000000003</v>
+      </c>
+      <c r="C22" s="1">
+        <v>17.203724999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>24.605036999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>32.265718</v>
+      </c>
+      <c r="F22" s="1">
+        <v>39.988343999999998</v>
+      </c>
+      <c r="G22" s="1">
+        <v>47.526573999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1.769163</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9.7504159999999995</v>
+      </c>
+      <c r="C23" s="1">
+        <v>17.060317999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>24.481739999999999</v>
+      </c>
+      <c r="E23" s="1">
+        <v>31.866209999999999</v>
+      </c>
+      <c r="F23" s="1">
+        <v>39.993374000000003</v>
+      </c>
+      <c r="G23" s="1">
+        <v>47.545099999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1.771496</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9.6222189999999994</v>
+      </c>
+      <c r="C24" s="1">
+        <v>17.227077999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>24.537808999999999</v>
+      </c>
+      <c r="E24" s="1">
+        <v>31.93216</v>
+      </c>
+      <c r="F24" s="1">
+        <v>39.946492999999997</v>
+      </c>
+      <c r="G24" s="1">
+        <v>47.549948000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1.5200149999999999</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9.7320349999999998</v>
+      </c>
+      <c r="C25" s="1">
+        <v>16.276350999999998</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24.637855999999999</v>
+      </c>
+      <c r="E25" s="1">
+        <v>31.845690999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>40.018653</v>
+      </c>
+      <c r="G25" s="1">
+        <v>47.563929000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1.7678450000000001</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9.8032109999999992</v>
+      </c>
+      <c r="C26" s="1">
+        <v>17.222020000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>24.584876999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>31.992032999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>40.022435000000002</v>
+      </c>
+      <c r="G26" s="1">
+        <v>47.568897999999997</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="U2" formulaRange="1"/>
-  </ignoredErrors>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="4">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/testOpenCV/tg_r2.xlsx
+++ b/testOpenCV/tg_r2.xlsx
@@ -113,7 +113,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="56">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -7329,8 +7341,8 @@
   <autoFilter ref="I1:K8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="mm"/>
-    <tableColumn id="2" name="avg" dataDxfId="39"/>
-    <tableColumn id="3" name="stddev" dataDxfId="38"/>
+    <tableColumn id="2" name="avg" dataDxfId="43"/>
+    <tableColumn id="3" name="stddev" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7338,6 +7350,156 @@
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table27" displayName="Table27" ref="M1:N8" totalsRowShown="0">
+  <autoFilter ref="M1:N8"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="px2mm" dataDxfId="49">
+      <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="dev‰" dataDxfId="48">
+      <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:G26" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:G26"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="0" dataDxfId="23"/>
+    <tableColumn id="2" name="1" dataDxfId="22"/>
+    <tableColumn id="3" name="2" dataDxfId="21"/>
+    <tableColumn id="4" name="3" dataDxfId="20"/>
+    <tableColumn id="5" name="4" dataDxfId="19"/>
+    <tableColumn id="6" name="5" dataDxfId="18"/>
+    <tableColumn id="7" name="6" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="I10:J11" totalsRowShown="0">
+  <autoFilter ref="I10:J11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="a" dataDxfId="13"/>
+    <tableColumn id="2" name="b" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Målinger" displayName="Målinger" ref="A1:G26" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:G26"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="0" dataDxfId="11"/>
+    <tableColumn id="2" name="1" dataDxfId="10"/>
+    <tableColumn id="3" name="2" dataDxfId="9"/>
+    <tableColumn id="4" name="3" dataDxfId="8"/>
+    <tableColumn id="5" name="4" dataDxfId="7"/>
+    <tableColumn id="6" name="5" dataDxfId="6"/>
+    <tableColumn id="7" name="6" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="M1:N8" totalsRowShown="0">
+  <autoFilter ref="M1:N8"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="px2mm" dataDxfId="55">
+      <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="dev‰" dataDxfId="54">
+      <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="I1:K8" totalsRowShown="0">
+  <autoFilter ref="I1:K8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="mm"/>
+    <tableColumn id="2" name="avg" dataDxfId="53"/>
+    <tableColumn id="3" name="stddev" dataDxfId="52"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="I10:J11" totalsRowShown="0">
+  <autoFilter ref="I10:J11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="a" dataDxfId="15"/>
+    <tableColumn id="2" name="b" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table27911" displayName="Table27911" ref="M1:N8" totalsRowShown="0">
+  <autoFilter ref="M1:N8"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="px2mm" dataDxfId="41">
+      <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="dev‰" dataDxfId="40">
+      <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:G51" totalsRowShown="0" headerRowDxfId="32">
+  <autoFilter ref="A1:G51"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="0" dataDxfId="39"/>
+    <tableColumn id="2" name="1" dataDxfId="38"/>
+    <tableColumn id="3" name="2" dataDxfId="37"/>
+    <tableColumn id="4" name="3" dataDxfId="36"/>
+    <tableColumn id="5" name="4" dataDxfId="35"/>
+    <tableColumn id="6" name="5" dataDxfId="34"/>
+    <tableColumn id="7" name="6" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="I10:J11" totalsRowShown="0">
+  <autoFilter ref="I10:J11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="a" dataDxfId="1"/>
+    <tableColumn id="2" name="b" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table368" displayName="Table368" ref="I1:K8" totalsRowShown="0">
+  <autoFilter ref="I1:K8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="mm"/>
+    <tableColumn id="2" name="avg" dataDxfId="47"/>
+    <tableColumn id="3" name="stddev" dataDxfId="46"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table279" displayName="Table279" ref="M1:N8" totalsRowShown="0">
   <autoFilter ref="M1:N8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="px2mm" dataDxfId="45">
@@ -7351,167 +7513,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:G26" totalsRowShown="0" headerRowDxfId="12">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:G26" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A1:G26"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="0" dataDxfId="19"/>
-    <tableColumn id="2" name="1" dataDxfId="18"/>
-    <tableColumn id="3" name="2" dataDxfId="17"/>
-    <tableColumn id="4" name="3" dataDxfId="16"/>
-    <tableColumn id="5" name="4" dataDxfId="15"/>
-    <tableColumn id="6" name="5" dataDxfId="14"/>
-    <tableColumn id="7" name="6" dataDxfId="13"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="I10:J11" totalsRowShown="0">
-  <autoFilter ref="I10:J11"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="a" dataDxfId="9"/>
-    <tableColumn id="2" name="b" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Målinger" displayName="Målinger" ref="A1:G26" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:G26"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="0" dataDxfId="7"/>
-    <tableColumn id="2" name="1" dataDxfId="6"/>
-    <tableColumn id="3" name="2" dataDxfId="5"/>
-    <tableColumn id="4" name="3" dataDxfId="4"/>
-    <tableColumn id="5" name="4" dataDxfId="3"/>
-    <tableColumn id="6" name="5" dataDxfId="2"/>
-    <tableColumn id="7" name="6" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="M1:N8" totalsRowShown="0">
-  <autoFilter ref="M1:N8"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="px2mm" dataDxfId="51">
-      <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="dev‰" dataDxfId="50">
-      <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="I1:K8" totalsRowShown="0">
-  <autoFilter ref="I1:K8"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="mm"/>
-    <tableColumn id="2" name="avg" dataDxfId="49"/>
-    <tableColumn id="3" name="stddev" dataDxfId="48"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="I10:J11" totalsRowShown="0">
-  <autoFilter ref="I10:J11"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="a" dataDxfId="11"/>
-    <tableColumn id="2" name="b" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table27911" displayName="Table27911" ref="M1:N8" totalsRowShown="0">
-  <autoFilter ref="M1:N8"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="px2mm" dataDxfId="37">
-      <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="dev‰" dataDxfId="36">
-      <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:G51" totalsRowShown="0" headerRowDxfId="28">
-  <autoFilter ref="A1:G51"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="0" dataDxfId="35"/>
-    <tableColumn id="2" name="1" dataDxfId="34"/>
-    <tableColumn id="3" name="2" dataDxfId="33"/>
-    <tableColumn id="4" name="3" dataDxfId="32"/>
-    <tableColumn id="5" name="4" dataDxfId="31"/>
-    <tableColumn id="6" name="5" dataDxfId="30"/>
-    <tableColumn id="7" name="6" dataDxfId="29"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="I10:J11" totalsRowShown="0">
-  <autoFilter ref="I10:J11"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="a"/>
-    <tableColumn id="2" name="b"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table368" displayName="Table368" ref="I1:K8" totalsRowShown="0">
-  <autoFilter ref="I1:K8"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="mm"/>
-    <tableColumn id="2" name="avg" dataDxfId="43"/>
-    <tableColumn id="3" name="stddev" dataDxfId="42"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table279" displayName="Table279" ref="M1:N8" totalsRowShown="0">
-  <autoFilter ref="M1:N8"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="px2mm" dataDxfId="41">
-      <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="dev‰" dataDxfId="40">
-      <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:G26" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:G26"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="0" dataDxfId="27"/>
-    <tableColumn id="2" name="1" dataDxfId="26"/>
-    <tableColumn id="3" name="2" dataDxfId="25"/>
-    <tableColumn id="4" name="3" dataDxfId="24"/>
-    <tableColumn id="5" name="4" dataDxfId="23"/>
-    <tableColumn id="6" name="5" dataDxfId="22"/>
-    <tableColumn id="7" name="6" dataDxfId="21"/>
+    <tableColumn id="1" name="0" dataDxfId="31"/>
+    <tableColumn id="2" name="1" dataDxfId="30"/>
+    <tableColumn id="3" name="2" dataDxfId="29"/>
+    <tableColumn id="4" name="3" dataDxfId="28"/>
+    <tableColumn id="5" name="4" dataDxfId="27"/>
+    <tableColumn id="6" name="5" dataDxfId="26"/>
+    <tableColumn id="7" name="6" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7521,8 +7533,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="I10:J11" totalsRowShown="0">
   <autoFilter ref="I10:J11"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="a"/>
-    <tableColumn id="2" name="b"/>
+    <tableColumn id="1" name="a" dataDxfId="2"/>
+    <tableColumn id="2" name="b" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7533,8 +7545,8 @@
   <autoFilter ref="I1:K8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="mm"/>
-    <tableColumn id="2" name="avg" dataDxfId="47"/>
-    <tableColumn id="3" name="stddev" dataDxfId="46"/>
+    <tableColumn id="2" name="avg" dataDxfId="51"/>
+    <tableColumn id="3" name="stddev" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7843,7 +7855,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8258,10 +8270,10 @@
       <c r="G11" s="1">
         <v>45.210921999999997</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>7.1924332778571403</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>1.7451563521428499</v>
       </c>
     </row>
@@ -9227,7 +9239,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I11" activeCellId="1" sqref="J11 I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9642,10 +9654,10 @@
       <c r="G11" s="1">
         <v>45.446615999999999</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>7.3040976400000002</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>1.41051214857144</v>
       </c>
     </row>
@@ -10841,7 +10853,9 @@
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/testOpenCV/tg_r2.xlsx
+++ b/testOpenCV/tg_r2.xlsx
@@ -7855,7 +7855,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testOpenCV/tg_r2.xlsx
+++ b/testOpenCV/tg_r2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
     <t>4</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>dev‰</t>
+  </si>
+  <si>
+    <t>Enhed</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="57">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -187,12 +214,6 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -253,22 +274,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -464,22 +470,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>5.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4195,8 +4201,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1560171" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -4238,6 +4244,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4254,13 +4261,7 @@
                       <a:rPr lang="da-DK" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=7,46</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>689414857143 </m:t>
+                      <m:t>=7,46689414857143 </m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -4270,7 +4271,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -4346,8 +4347,8 @@
       <xdr:rowOff>17938</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1573251" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -4389,6 +4390,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4405,13 +4407,7 @@
                       <a:rPr lang="da-DK" sz="1100" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="da-DK" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>0,705060611428582</m:t>
+                      <m:t>=0,705060611428582</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -4421,7 +4417,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -4497,8 +4493,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2062038" cy="337593"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -4540,6 +4536,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4630,6 +4627,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4650,7 +4648,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -4757,8 +4755,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1239827" cy="320280"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -4800,6 +4798,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4875,7 +4874,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -4982,8 +4981,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1007392" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -5025,6 +5024,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5066,7 +5066,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -5157,8 +5157,8 @@
       <xdr:rowOff>8413</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1473865" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -5200,6 +5200,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5235,7 +5236,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -5325,8 +5326,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2062038" cy="337593"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -5368,6 +5369,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5458,6 +5460,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5478,7 +5481,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -5585,8 +5588,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1239827" cy="320280"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -5628,6 +5631,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5703,7 +5707,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -5810,8 +5814,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1560171" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -5853,6 +5857,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5869,13 +5874,7 @@
                       <a:rPr lang="da-DK" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=7,46</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>689414857143 </m:t>
+                      <m:t>=7,46689414857143 </m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -5885,7 +5884,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -5961,8 +5960,8 @@
       <xdr:rowOff>8413</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1573251" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -6004,6 +6003,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6020,13 +6020,7 @@
                       <a:rPr lang="da-DK" sz="1100" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="da-DK" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>0,705060611428582</m:t>
+                      <m:t>=0,705060611428582</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -6036,7 +6030,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -6112,8 +6106,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2062038" cy="337593"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -6155,6 +6149,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6245,6 +6240,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6265,7 +6261,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -6372,8 +6368,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1239827" cy="320280"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -6415,6 +6411,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6490,7 +6487,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -6597,8 +6594,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1560171" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -6640,6 +6637,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6656,13 +6654,7 @@
                       <a:rPr lang="da-DK" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=7,60</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="da-DK" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>628964714286 </m:t>
+                      <m:t>=7,60628964714286 </m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -6672,7 +6664,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -6748,8 +6740,8 @@
       <xdr:rowOff>94138</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1495153" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -6791,6 +6783,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -6807,13 +6800,7 @@
                       <a:rPr lang="da-DK" sz="1100" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="da-DK" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>1,89343821285715</m:t>
+                      <m:t>=1,89343821285715</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -6823,7 +6810,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -6899,8 +6886,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2062038" cy="337593"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -6942,6 +6929,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7032,6 +7020,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7052,7 +7041,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -7159,8 +7148,8 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1239827" cy="320280"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -7202,6 +7191,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7277,7 +7267,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -7341,8 +7331,8 @@
   <autoFilter ref="I1:K8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="mm"/>
-    <tableColumn id="2" name="avg" dataDxfId="43"/>
-    <tableColumn id="3" name="stddev" dataDxfId="42"/>
+    <tableColumn id="2" name="avg" dataDxfId="56"/>
+    <tableColumn id="3" name="stddev" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7352,10 +7342,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table27" displayName="Table27" ref="M1:N8" totalsRowShown="0">
   <autoFilter ref="M1:N8"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="px2mm" dataDxfId="49">
+    <tableColumn id="1" name="px2mm" dataDxfId="26">
       <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="dev‰" dataDxfId="48">
+    <tableColumn id="2" name="dev‰" dataDxfId="25">
       <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7364,7 +7354,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:G26" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:G26" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A1:G26"/>
   <tableColumns count="7">
     <tableColumn id="1" name="0" dataDxfId="23"/>
@@ -7383,24 +7373,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="I10:J11" totalsRowShown="0">
   <autoFilter ref="I10:J11"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="a" dataDxfId="13"/>
-    <tableColumn id="2" name="b" dataDxfId="12"/>
+    <tableColumn id="1" name="a" dataDxfId="16"/>
+    <tableColumn id="2" name="b" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Målinger" displayName="Målinger" ref="A1:G26" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Målinger" displayName="Målinger" ref="A1:G26" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="A1:G26"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="0" dataDxfId="11"/>
-    <tableColumn id="2" name="1" dataDxfId="10"/>
-    <tableColumn id="3" name="2" dataDxfId="9"/>
-    <tableColumn id="4" name="3" dataDxfId="8"/>
-    <tableColumn id="5" name="4" dataDxfId="7"/>
-    <tableColumn id="6" name="5" dataDxfId="6"/>
-    <tableColumn id="7" name="6" dataDxfId="5"/>
+    <tableColumn id="1" name="0" dataDxfId="13"/>
+    <tableColumn id="2" name="1" dataDxfId="12"/>
+    <tableColumn id="3" name="2" dataDxfId="11"/>
+    <tableColumn id="4" name="3" dataDxfId="10"/>
+    <tableColumn id="5" name="4" dataDxfId="9"/>
+    <tableColumn id="6" name="5" dataDxfId="8"/>
+    <tableColumn id="7" name="6" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7410,10 +7400,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="M1:N8" totalsRowShown="0">
   <autoFilter ref="M1:N8"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="px2mm" dataDxfId="55">
+    <tableColumn id="1" name="px2mm" dataDxfId="6">
       <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="dev‰" dataDxfId="54">
+    <tableColumn id="2" name="dev‰" dataDxfId="5">
       <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7426,8 +7416,8 @@
   <autoFilter ref="I1:K8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="mm"/>
-    <tableColumn id="2" name="avg" dataDxfId="53"/>
-    <tableColumn id="3" name="stddev" dataDxfId="52"/>
+    <tableColumn id="2" name="avg" dataDxfId="4"/>
+    <tableColumn id="3" name="stddev" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7437,8 +7427,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="I10:J11" totalsRowShown="0">
   <autoFilter ref="I10:J11"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="a" dataDxfId="15"/>
-    <tableColumn id="2" name="b" dataDxfId="14"/>
+    <tableColumn id="1" name="a" dataDxfId="2"/>
+    <tableColumn id="2" name="b" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7448,10 +7438,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table27911" displayName="Table27911" ref="M1:N8" totalsRowShown="0">
   <autoFilter ref="M1:N8"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="px2mm" dataDxfId="41">
+    <tableColumn id="1" name="px2mm" dataDxfId="54">
       <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="dev‰" dataDxfId="40">
+    <tableColumn id="2" name="dev‰" dataDxfId="53">
       <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7460,16 +7450,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:G51" totalsRowShown="0" headerRowDxfId="32">
-  <autoFilter ref="A1:G51"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="0" dataDxfId="39"/>
-    <tableColumn id="2" name="1" dataDxfId="38"/>
-    <tableColumn id="3" name="2" dataDxfId="37"/>
-    <tableColumn id="4" name="3" dataDxfId="36"/>
-    <tableColumn id="5" name="4" dataDxfId="35"/>
-    <tableColumn id="6" name="5" dataDxfId="34"/>
-    <tableColumn id="7" name="6" dataDxfId="33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:H51" totalsRowShown="0" headerRowDxfId="52">
+  <autoFilter ref="A1:H51"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="0" dataDxfId="51"/>
+    <tableColumn id="2" name="1" dataDxfId="50"/>
+    <tableColumn id="3" name="2" dataDxfId="49"/>
+    <tableColumn id="4" name="3" dataDxfId="48"/>
+    <tableColumn id="5" name="4" dataDxfId="47"/>
+    <tableColumn id="6" name="5" dataDxfId="46"/>
+    <tableColumn id="7" name="6" dataDxfId="45"/>
+    <tableColumn id="8" name="Enhed" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7479,8 +7470,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="I10:J11" totalsRowShown="0">
   <autoFilter ref="I10:J11"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="a" dataDxfId="1"/>
-    <tableColumn id="2" name="b" dataDxfId="0"/>
+    <tableColumn id="1" name="a" dataDxfId="44"/>
+    <tableColumn id="2" name="b" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7491,8 +7482,8 @@
   <autoFilter ref="I1:K8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="mm"/>
-    <tableColumn id="2" name="avg" dataDxfId="47"/>
-    <tableColumn id="3" name="stddev" dataDxfId="46"/>
+    <tableColumn id="2" name="avg" dataDxfId="42"/>
+    <tableColumn id="3" name="stddev" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7502,10 +7493,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table279" displayName="Table279" ref="M1:N8" totalsRowShown="0">
   <autoFilter ref="M1:N8"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="px2mm" dataDxfId="45">
+    <tableColumn id="1" name="px2mm" dataDxfId="40">
       <calculatedColumnFormula>(J2-$J$11)/$I$11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="dev‰" dataDxfId="44">
+    <tableColumn id="2" name="dev‰" dataDxfId="39">
       <calculatedColumnFormula>ABS(M2-I2)*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7514,16 +7505,16 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:G26" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:G26" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="A1:G26"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="0" dataDxfId="31"/>
-    <tableColumn id="2" name="1" dataDxfId="30"/>
-    <tableColumn id="3" name="2" dataDxfId="29"/>
-    <tableColumn id="4" name="3" dataDxfId="28"/>
-    <tableColumn id="5" name="4" dataDxfId="27"/>
-    <tableColumn id="6" name="5" dataDxfId="26"/>
-    <tableColumn id="7" name="6" dataDxfId="25"/>
+    <tableColumn id="1" name="0" dataDxfId="37"/>
+    <tableColumn id="2" name="1" dataDxfId="36"/>
+    <tableColumn id="3" name="2" dataDxfId="35"/>
+    <tableColumn id="4" name="3" dataDxfId="34"/>
+    <tableColumn id="5" name="4" dataDxfId="33"/>
+    <tableColumn id="6" name="5" dataDxfId="32"/>
+    <tableColumn id="7" name="6" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7533,8 +7524,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="I10:J11" totalsRowShown="0">
   <autoFilter ref="I10:J11"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="a" dataDxfId="2"/>
-    <tableColumn id="2" name="b" dataDxfId="3"/>
+    <tableColumn id="1" name="a" dataDxfId="30"/>
+    <tableColumn id="2" name="b" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7545,8 +7536,8 @@
   <autoFilter ref="I1:K8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="mm"/>
-    <tableColumn id="2" name="avg" dataDxfId="51"/>
-    <tableColumn id="3" name="stddev" dataDxfId="50"/>
+    <tableColumn id="2" name="avg" dataDxfId="28"/>
+    <tableColumn id="3" name="stddev" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7855,7 +7846,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7886,6 +7877,9 @@
       <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
@@ -7924,6 +7918,9 @@
       <c r="G2" s="1">
         <v>45.487141000000001</v>
       </c>
+      <c r="H2" s="1">
+        <v>0.98</v>
+      </c>
       <c r="I2">
         <v>0</v>
       </c>
@@ -7936,7 +7933,7 @@
         <v>0.68003707355587895</v>
       </c>
       <c r="M2" s="1">
-        <f>(J2-$J$11)/$I$11</f>
+        <f t="shared" ref="M2:M8" si="0">(J2-$J$11)/$I$11</f>
         <v>0.16847709266733335</v>
       </c>
       <c r="N2" s="1">
@@ -7966,8 +7963,10 @@
       <c r="G3" s="1">
         <v>45.606758999999997</v>
       </c>
+      <c r="H3" s="1"/>
       <c r="I3">
-        <v>1</v>
+        <f>1*$H$2</f>
+        <v>0.98</v>
       </c>
       <c r="J3" s="1">
         <f>AVERAGE(B2:B51)</f>
@@ -7978,12 +7977,12 @@
         <v>0.13256666257583152</v>
       </c>
       <c r="M3" s="1">
-        <f>(J3-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>0.89495537312442275</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N8" si="0">ABS(M3-I3)*1000</f>
-        <v>105.04462687557725</v>
+        <f t="shared" ref="N3:N8" si="1">ABS(M3-I3)*1000</f>
+        <v>85.044626875577237</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8008,8 +8007,10 @@
       <c r="G4" s="1">
         <v>45.473323000000001</v>
       </c>
+      <c r="H4" s="1"/>
       <c r="I4">
-        <v>2</v>
+        <f>2*$H$2</f>
+        <v>1.96</v>
       </c>
       <c r="J4" s="1">
         <f>AVERAGE(C2:C51)</f>
@@ -8020,12 +8021,12 @@
         <v>8.9007974635768414E-2</v>
       </c>
       <c r="M4" s="1">
-        <f>(J4-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>1.9445132220988732</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>55.486777901126771</v>
+        <f t="shared" si="1"/>
+        <v>15.486777901126736</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -8050,8 +8051,10 @@
       <c r="G5" s="1">
         <v>45.004337999999997</v>
       </c>
+      <c r="H5" s="1"/>
       <c r="I5">
-        <v>3</v>
+        <f>3*$H$2</f>
+        <v>2.94</v>
       </c>
       <c r="J5" s="1">
         <f>AVERAGE(D2:D51)</f>
@@ -8062,12 +8065,12 @@
         <v>0.41057380987455289</v>
       </c>
       <c r="M5" s="1">
-        <f>(J5-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>2.9192334105479056</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="0"/>
-        <v>80.766589452094365</v>
+        <f t="shared" si="1"/>
+        <v>20.766589452094308</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -8092,8 +8095,10 @@
       <c r="G6" s="1">
         <v>45.668478999999998</v>
       </c>
+      <c r="H6" s="1"/>
       <c r="I6">
-        <v>4</v>
+        <f>4*$H$2</f>
+        <v>3.92</v>
       </c>
       <c r="J6" s="1">
         <f>AVERAGE(E2:E51)</f>
@@ -8104,12 +8109,12 @@
         <v>0.11848661513473313</v>
       </c>
       <c r="M6" s="1">
-        <f>(J6-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>3.9906027764234535</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="0"/>
-        <v>9.3972235765464873</v>
+        <f t="shared" si="1"/>
+        <v>70.602776423453577</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -8134,8 +8139,10 @@
       <c r="G7" s="1">
         <v>45.671895999999997</v>
       </c>
+      <c r="H7" s="1"/>
       <c r="I7">
-        <v>5</v>
+        <f>5*$H$2</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J7" s="1">
         <f>AVERAGE(F2:F51)</f>
@@ -8146,12 +8153,12 @@
         <v>0.12942977282953694</v>
       </c>
       <c r="M7" s="1">
-        <f>(J7-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>4.9974019054878029</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5980945121970578</v>
+        <f t="shared" si="1"/>
+        <v>97.401905487802594</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -8176,8 +8183,10 @@
       <c r="G8" s="1">
         <v>45.561048999999997</v>
       </c>
+      <c r="H8" s="1"/>
       <c r="I8">
-        <v>6</v>
+        <f>6*$H$2</f>
+        <v>5.88</v>
       </c>
       <c r="J8" s="1">
         <f>AVERAGE(G2:G51)</f>
@@ -8188,12 +8197,12 @@
         <v>0.12887268826209733</v>
       </c>
       <c r="M8" s="1">
-        <f>(J8-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>6.0848162196502233</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="0"/>
-        <v>84.816219650223346</v>
+        <f t="shared" si="1"/>
+        <v>204.81621965022345</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -8218,6 +8227,7 @@
       <c r="G9" s="1">
         <v>45.626207000000001</v>
       </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -8241,6 +8251,7 @@
       <c r="G10" s="1">
         <v>45.564689000000001</v>
       </c>
+      <c r="H10" s="1"/>
       <c r="I10" t="s">
         <v>5</v>
       </c>
@@ -8270,6 +8281,7 @@
       <c r="G11" s="1">
         <v>45.210921999999997</v>
       </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1">
         <v>7.1924332778571403</v>
       </c>
@@ -8299,6 +8311,7 @@
       <c r="G12" s="1">
         <v>45.570596000000002</v>
       </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -8322,6 +8335,7 @@
       <c r="G13" s="1">
         <v>45.746613000000004</v>
       </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -8345,6 +8359,7 @@
       <c r="G14" s="1">
         <v>45.496529000000002</v>
       </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -8368,6 +8383,7 @@
       <c r="G15" s="1">
         <v>45.542391000000002</v>
       </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -8391,8 +8407,9 @@
       <c r="G16" s="1">
         <v>45.521802000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2.8740800000000002</v>
       </c>
@@ -8414,8 +8431,9 @@
       <c r="G17" s="1">
         <v>45.455635999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2.8660299999999999</v>
       </c>
@@ -8437,8 +8455,9 @@
       <c r="G18" s="1">
         <v>45.324975999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1.8220799999999999</v>
       </c>
@@ -8460,8 +8479,9 @@
       <c r="G19" s="1">
         <v>45.488613999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.94232</v>
       </c>
@@ -8483,8 +8503,9 @@
       <c r="G20" s="1">
         <v>45.537799999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3.6547900000000002</v>
       </c>
@@ -8506,8 +8527,9 @@
       <c r="G21" s="1">
         <v>45.575493999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3.2837499999999999</v>
       </c>
@@ -8529,8 +8551,9 @@
       <c r="G22" s="1">
         <v>45.578932000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2.8456399999999999</v>
       </c>
@@ -8552,8 +8575,9 @@
       <c r="G23" s="1">
         <v>45.597287000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3.2759399999999999</v>
       </c>
@@ -8575,8 +8599,9 @@
       <c r="G24" s="1">
         <v>45.374195999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1.94452</v>
       </c>
@@ -8598,8 +8623,9 @@
       <c r="G25" s="1">
         <v>45.599074999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1.9436599999999999</v>
       </c>
@@ -8621,8 +8647,9 @@
       <c r="G26" s="1">
         <v>45.494526999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3.20825</v>
       </c>
@@ -8644,8 +8671,9 @@
       <c r="G27" s="1">
         <v>45.647556999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3.2975500000000002</v>
       </c>
@@ -8667,8 +8695,9 @@
       <c r="G28" s="1">
         <v>45.512618000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3.26227</v>
       </c>
@@ -8690,8 +8719,9 @@
       <c r="G29" s="1">
         <v>45.256993000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3.3375900000000001</v>
       </c>
@@ -8713,8 +8743,9 @@
       <c r="G30" s="1">
         <v>45.668573000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3.3317299999999999</v>
       </c>
@@ -8736,8 +8767,9 @@
       <c r="G31" s="1">
         <v>45.638264999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3.3729200000000001</v>
       </c>
@@ -8759,8 +8791,9 @@
       <c r="G32" s="1">
         <v>45.324365</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3.4813800000000001</v>
       </c>
@@ -8782,8 +8815,9 @@
       <c r="G33" s="1">
         <v>45.412962999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3.9319500000000001</v>
       </c>
@@ -8805,8 +8839,9 @@
       <c r="G34" s="1">
         <v>45.290559999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1.17804</v>
       </c>
@@ -8828,8 +8863,9 @@
       <c r="G35" s="1">
         <v>45.526136999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2.8797000000000001</v>
       </c>
@@ -8851,8 +8887,9 @@
       <c r="G36" s="1">
         <v>45.582956000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1.6771199999999999</v>
       </c>
@@ -8874,8 +8911,9 @@
       <c r="G37" s="1">
         <v>45.575797999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3.3087800000000001</v>
       </c>
@@ -8897,8 +8935,9 @@
       <c r="G38" s="1">
         <v>45.479804999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3.4368300000000001</v>
       </c>
@@ -8920,8 +8959,9 @@
       <c r="G39" s="1">
         <v>45.475346000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1.9567300000000001</v>
       </c>
@@ -8943,8 +8983,9 @@
       <c r="G40" s="1">
         <v>45.568007000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2.69</v>
       </c>
@@ -8966,8 +9007,9 @@
       <c r="G41" s="1">
         <v>45.551453000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>4.0155000000000003</v>
       </c>
@@ -8989,8 +9031,9 @@
       <c r="G42" s="1">
         <v>45.525787999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>3.31915</v>
       </c>
@@ -9012,8 +9055,9 @@
       <c r="G43" s="1">
         <v>45.527360999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4.0354000000000001</v>
       </c>
@@ -9035,8 +9079,9 @@
       <c r="G44" s="1">
         <v>45.523848000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2.7863799999999999</v>
       </c>
@@ -9058,8 +9103,9 @@
       <c r="G45" s="1">
         <v>45.410842000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3.3969100000000001</v>
       </c>
@@ -9081,8 +9127,9 @@
       <c r="G46" s="1">
         <v>45.536431999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3.3514400000000002</v>
       </c>
@@ -9104,8 +9151,9 @@
       <c r="G47" s="1">
         <v>45.567779999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3.4115600000000001</v>
       </c>
@@ -9127,6 +9175,7 @@
       <c r="G48" s="1">
         <v>45.595643000000003</v>
       </c>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -9150,6 +9199,7 @@
       <c r="G49" s="1">
         <v>45.471992999999998</v>
       </c>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -9173,6 +9223,7 @@
       <c r="G50" s="1">
         <v>45.476962</v>
       </c>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -9196,6 +9247,7 @@
       <c r="G51" s="1">
         <v>45.562235000000001</v>
       </c>
+      <c r="H51" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J55" s="1"/>
@@ -9320,7 +9372,7 @@
         <v>0.84605409508115392</v>
       </c>
       <c r="M2" s="1">
-        <f>(J2-$J$11)/$I$11</f>
+        <f t="shared" ref="M2:M8" si="0">(J2-$J$11)/$I$11</f>
         <v>0.11065599766935209</v>
       </c>
       <c r="N2" s="1">
@@ -9362,11 +9414,11 @@
         <v>5.4647066976136929E-2</v>
       </c>
       <c r="M3" s="1">
-        <f>(J3-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>0.93191890729277838</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N8" si="0">ABS(M3-I3)*1000</f>
+        <f t="shared" ref="N3:N8" si="1">ABS(M3-I3)*1000</f>
         <v>68.081092707221629</v>
       </c>
     </row>
@@ -9404,11 +9456,11 @@
         <v>0.10385946570148712</v>
       </c>
       <c r="M4" s="1">
-        <f>(J4-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>1.9571397475771641</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.860252422835863</v>
       </c>
     </row>
@@ -9446,11 +9498,11 @@
         <v>0.14243056179767019</v>
       </c>
       <c r="M5" s="1">
-        <f>(J5-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>2.9607853450640023</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.214654935997743</v>
       </c>
     </row>
@@ -9488,11 +9540,11 @@
         <v>0.10819041971728212</v>
       </c>
       <c r="M6" s="1">
-        <f>(J6-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>3.9808582202124776</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.141779787522406</v>
       </c>
     </row>
@@ -9530,11 +9582,11 @@
         <v>0.16577083497505382</v>
       </c>
       <c r="M7" s="1">
-        <f>(J7-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>5.0038380115943468</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.838011594346824</v>
       </c>
     </row>
@@ -9572,11 +9624,11 @@
         <v>0.18306303123436335</v>
       </c>
       <c r="M8" s="1">
-        <f>(J8-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>6.0548037705898681</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.803770589868073</v>
       </c>
     </row>
@@ -10144,7 +10196,7 @@
         <v>1.5515003707431071E-2</v>
       </c>
       <c r="M2" s="1">
-        <f>(J2-$J$11)/$I$11</f>
+        <f t="shared" ref="M2:M8" si="0">(J2-$J$11)/$I$11</f>
         <v>-7.6877096612926491E-4</v>
       </c>
       <c r="N2" s="1">
@@ -10186,11 +10238,11 @@
         <v>5.4647066976136929E-2</v>
       </c>
       <c r="M3" s="1">
-        <f>(J3-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>1.0060780398244527</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N8" si="0">ABS(M3-I3)*1000</f>
+        <f t="shared" ref="N3:N8" si="1">ABS(M3-I3)*1000</f>
         <v>6.0780398244526523</v>
       </c>
     </row>
@@ -10228,11 +10280,11 @@
         <v>0.10385946570148712</v>
       </c>
       <c r="M4" s="1">
-        <f>(J4-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>2.0089465646759357</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9465646759356865</v>
       </c>
     </row>
@@ -10270,11 +10322,11 @@
         <v>0.14243056179767019</v>
       </c>
       <c r="M5" s="1">
-        <f>(J5-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>2.9907102396575236</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2897603424764164</v>
       </c>
     </row>
@@ -10312,11 +10364,11 @@
         <v>0.10819041971728212</v>
       </c>
       <c r="M6" s="1">
-        <f>(J6-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>3.9885430375719637</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.456962428036288</v>
       </c>
     </row>
@@ -10354,11 +10406,11 @@
         <v>0.16577083497505382</v>
       </c>
       <c r="M7" s="1">
-        <f>(J7-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>4.9892193738542367</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.78062614576325</v>
       </c>
     </row>
@@ -10396,11 +10448,11 @@
         <v>0.18306303123436335</v>
       </c>
       <c r="M8" s="1">
-        <f>(J8-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>6.0172715153820029</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.271515382002889</v>
       </c>
     </row>
@@ -10934,7 +10986,7 @@
         <v>0.25207450750553984</v>
       </c>
       <c r="M2" s="1">
-        <f>(J2-$J$11)/$I$11</f>
+        <f t="shared" ref="M2:M8" si="0">(J2-$J$11)/$I$11</f>
         <v>-1.3220429081993086E-2</v>
       </c>
       <c r="N2" s="1">
@@ -10976,11 +11028,11 @@
         <v>0.21738084451450626</v>
       </c>
       <c r="M3" s="1">
-        <f>(J3-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>1.0344017059747759</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N8" si="0">ABS(M3-I3)*1000</f>
+        <f t="shared" ref="N3:N8" si="1">ABS(M3-I3)*1000</f>
         <v>34.401705974775879</v>
       </c>
     </row>
@@ -11018,11 +11070,11 @@
         <v>0.45650594060929234</v>
       </c>
       <c r="M4" s="1">
-        <f>(J4-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>2.0019771338661521</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9771338661520588</v>
       </c>
     </row>
@@ -11060,11 +11112,11 @@
         <v>0.1918651136196925</v>
       </c>
       <c r="M5" s="1">
-        <f>(J5-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>2.9823305658184847</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.669434181515342</v>
       </c>
     </row>
@@ -11102,11 +11154,11 @@
         <v>0.18017463405501191</v>
       </c>
       <c r="M6" s="1">
-        <f>(J6-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>3.9713590342289393</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.640965771060678</v>
       </c>
     </row>
@@ -11144,11 +11196,11 @@
         <v>4.9209310460457047E-2</v>
       </c>
       <c r="M7" s="1">
-        <f>(J7-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>5.0096957432401039</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6957432401039156</v>
       </c>
     </row>
@@ -11186,11 +11238,11 @@
         <v>0.13829212922852829</v>
       </c>
       <c r="M8" s="1">
-        <f>(J8-$J$11)/$I$11</f>
+        <f t="shared" si="0"/>
         <v>6.0134562459535239</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.456245953523904</v>
       </c>
     </row>
